--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="277">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -439,346 +439,415 @@
     <t>3TH|DZ</t>
   </si>
   <si>
+    <t>1TH</t>
+  </si>
+  <si>
+    <t>Sałdyka Karolina</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Piątek - Pawłowska Bożena</t>
+  </si>
+  <si>
+    <t>Kończyńska Małgorzata</t>
+  </si>
+  <si>
+    <t>5TF</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Derezińska Katarzyna</t>
+  </si>
+  <si>
+    <t>2FB</t>
+  </si>
+  <si>
+    <t>Podstawy fryzjerstwa</t>
+  </si>
+  <si>
+    <t>Mikołajczak Sylwia</t>
+  </si>
+  <si>
+    <t>Świerzewicz Katarzyna</t>
+  </si>
+  <si>
+    <t>Technologia gastronomiczna z towaroznawstwem</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Mocarski Arkadiusz</t>
+  </si>
+  <si>
+    <t>zajęcia w pracowni spożywczej</t>
+  </si>
+  <si>
+    <t>Technika w produkcji gastronomicznej</t>
+  </si>
+  <si>
+    <t>3FB</t>
+  </si>
+  <si>
+    <t>Doradztwo zawodowe</t>
+  </si>
+  <si>
+    <t>Krzemińska Beata</t>
+  </si>
+  <si>
+    <t>1WB</t>
+  </si>
+  <si>
+    <t>Rozwój zainteresowań i kreatywności - obsługa klienta</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>vacat Edukacja zdrowotna EDU</t>
+  </si>
+  <si>
+    <t>3M|edu</t>
+  </si>
+  <si>
+    <t>Edukacja zdrowotna</t>
+  </si>
+  <si>
+    <t>3CA|edu</t>
+  </si>
+  <si>
+    <t>3TFA|edu</t>
+  </si>
+  <si>
+    <t>3FA|edu</t>
+  </si>
+  <si>
+    <t>2FB|JA2</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Biezmienow Małgorzata</t>
+  </si>
+  <si>
+    <t>4TFB|JA2</t>
+  </si>
+  <si>
+    <t>17.12.2025</t>
+  </si>
+  <si>
+    <t>1S|DZ</t>
+  </si>
+  <si>
+    <t>Nestoruk Lidia</t>
+  </si>
+  <si>
+    <t>2CA|CH</t>
+  </si>
+  <si>
+    <t>Rejno Julita</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Taszycka Magdalena</t>
+  </si>
+  <si>
+    <t>1WA|JN1</t>
+  </si>
+  <si>
+    <t>4TFB</t>
+  </si>
+  <si>
+    <t>3TFA</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Socha Dariusz</t>
+  </si>
+  <si>
+    <t>5TH</t>
+  </si>
+  <si>
+    <t>Dalach Krystyna</t>
+  </si>
+  <si>
+    <t>1FA</t>
+  </si>
+  <si>
+    <t>Techniki fryzjerskie</t>
+  </si>
+  <si>
+    <t>prF3</t>
+  </si>
+  <si>
+    <t>Sobczak Anna</t>
+  </si>
+  <si>
+    <t>2FC|JA2</t>
+  </si>
+  <si>
+    <t>sg2</t>
+  </si>
+  <si>
+    <t>1TFA</t>
+  </si>
+  <si>
     <t>Matematyka</t>
   </si>
   <si>
     <t>Filipiak Wiesław</t>
   </si>
   <si>
-    <t>1TH</t>
-  </si>
-  <si>
-    <t>Sałdyka Karolina</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Piątek - Pawłowska Bożena</t>
-  </si>
-  <si>
-    <t>Kończyńska Małgorzata</t>
-  </si>
-  <si>
-    <t>5TF</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Derezińska Katarzyna</t>
-  </si>
-  <si>
-    <t>2FB</t>
-  </si>
-  <si>
-    <t>Podstawy fryzjerstwa</t>
-  </si>
-  <si>
-    <t>Mikołajczak Sylwia</t>
-  </si>
-  <si>
-    <t>Świerzewicz Katarzyna</t>
-  </si>
-  <si>
-    <t>Technologia gastronomiczna z towaroznawstwem</t>
+    <t>1WA</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>2CA|edu</t>
+  </si>
+  <si>
+    <t>2WA|edu</t>
+  </si>
+  <si>
+    <t>2S|edu</t>
+  </si>
+  <si>
+    <t>2FA|edu</t>
+  </si>
+  <si>
+    <t>2FC|edu</t>
+  </si>
+  <si>
+    <t>vacat niemiecki</t>
+  </si>
+  <si>
+    <t>1WA|JN2</t>
+  </si>
+  <si>
+    <t>Wójcik Kamil</t>
+  </si>
+  <si>
+    <t>18.12.2025</t>
+  </si>
+  <si>
+    <t>1WA|DZ</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1WB|JN2</t>
+  </si>
+  <si>
+    <t>Danielewski Paweł</t>
+  </si>
+  <si>
+    <t>3TFA|JA2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Kruk Marcin</t>
+  </si>
+  <si>
+    <t>prf2</t>
+  </si>
+  <si>
+    <t>1K|JA2</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>1S|JA2</t>
+  </si>
+  <si>
+    <t>3TFB</t>
+  </si>
+  <si>
+    <t>Leńczowska Iwona</t>
+  </si>
+  <si>
+    <t>1FC</t>
+  </si>
+  <si>
+    <t>2FA</t>
+  </si>
+  <si>
+    <t>2TFA</t>
+  </si>
+  <si>
+    <t>Biznes i zarządzanie</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>Technika w produkcji gastronomicznej</t>
-  </si>
-  <si>
-    <t>3FB</t>
-  </si>
-  <si>
-    <t>Doradztwo zawodowe</t>
-  </si>
-  <si>
-    <t>Krzemińska Beata</t>
-  </si>
-  <si>
-    <t>1WB</t>
-  </si>
-  <si>
-    <t>Rozwój zainteresowań i kreatywności - obsługa klienta</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>2FB|JA2</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Biezmienow Małgorzata</t>
-  </si>
-  <si>
-    <t>4TFB|JA2</t>
-  </si>
-  <si>
-    <t>17.12.2025</t>
-  </si>
-  <si>
-    <t>1S|DZ</t>
-  </si>
-  <si>
-    <t>Nestoruk Lidia</t>
-  </si>
-  <si>
-    <t>2CA|CH</t>
-  </si>
-  <si>
-    <t>Rejno Julita</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Taszycka Magdalena</t>
-  </si>
-  <si>
-    <t>1WA|JN1</t>
-  </si>
-  <si>
-    <t>4TFB</t>
-  </si>
-  <si>
-    <t>3TFA</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Socha Dariusz</t>
-  </si>
-  <si>
-    <t>5TH</t>
-  </si>
-  <si>
-    <t>Dalach Krystyna</t>
-  </si>
-  <si>
-    <t>1FA</t>
-  </si>
-  <si>
-    <t>Techniki fryzjerskie</t>
-  </si>
-  <si>
-    <t>prF3</t>
-  </si>
-  <si>
-    <t>Sobczak Anna</t>
-  </si>
-  <si>
-    <t>2FC|JA2</t>
-  </si>
-  <si>
-    <t>sg2</t>
-  </si>
-  <si>
-    <t>1TFA</t>
-  </si>
-  <si>
-    <t>1WA</t>
-  </si>
-  <si>
-    <t>1S</t>
-  </si>
-  <si>
-    <t>18.12.2025</t>
-  </si>
-  <si>
-    <t>1WA|DZ</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1WB|JN2</t>
-  </si>
-  <si>
-    <t>Danielewski Paweł</t>
-  </si>
-  <si>
-    <t>3TFA|JA2</t>
-  </si>
-  <si>
-    <t>prf2</t>
-  </si>
-  <si>
-    <t>1K|JA2</t>
-  </si>
-  <si>
-    <t>2S</t>
-  </si>
-  <si>
-    <t>1S|JA2</t>
-  </si>
-  <si>
-    <t>3TFB</t>
+    <t>3TFB|JA1</t>
+  </si>
+  <si>
+    <t>p. Kopij, zajęcia z wychowawcą za lekcję 11, wtorek 16.12</t>
+  </si>
+  <si>
+    <t>2WA</t>
+  </si>
+  <si>
+    <t>1TFA|JA1</t>
+  </si>
+  <si>
+    <t>p. Granatowska, j. angielski za 1 lekcję środa 17.12.2025</t>
+  </si>
+  <si>
+    <t>2CA</t>
+  </si>
+  <si>
+    <t>p. Najwer, informatyka za lekcję 3</t>
+  </si>
+  <si>
+    <t>19.12.2025</t>
+  </si>
+  <si>
+    <t>p. Jarek, EDB za lekcję 10</t>
+  </si>
+  <si>
+    <t>Rozwój kompetencji zawodowych - obsługa klienta</t>
+  </si>
+  <si>
+    <t>2FC</t>
+  </si>
+  <si>
+    <t>Edukacja dla bezpieczeństwa</t>
+  </si>
+  <si>
+    <t>Płatek Krzysztof</t>
+  </si>
+  <si>
+    <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>Rozwój kompetencji zawodowych - Zasady zdrowego żywienia</t>
+  </si>
+  <si>
+    <t>1FC|JA1</t>
+  </si>
+  <si>
+    <t>vacat matematyka</t>
+  </si>
+  <si>
+    <t>Młynarczyk Paweł</t>
+  </si>
+  <si>
+    <t>Godzina</t>
+  </si>
+  <si>
+    <t>Nauczyciel</t>
+  </si>
+  <si>
+    <t>Dziennik zajęć innych</t>
+  </si>
+  <si>
+    <t>Opis zajęć</t>
+  </si>
+  <si>
+    <t>11:30-13:00</t>
+  </si>
+  <si>
+    <t>Krzysztof Miedziński - indywidualne nauczanie</t>
+  </si>
+  <si>
+    <t>11:25-12:10</t>
+  </si>
+  <si>
+    <t>Karolina Tymon - 5TH - indywidualne nauczanie</t>
+  </si>
+  <si>
+    <t>język niemiecki</t>
+  </si>
+  <si>
+    <t>13:15-14:00</t>
+  </si>
+  <si>
+    <t>Krystian Pietrowski - 3M - indywidualne nauczanie</t>
+  </si>
+  <si>
+    <t>19:35-20:10</t>
+  </si>
+  <si>
+    <t>14:05-14:50</t>
+  </si>
+  <si>
+    <t>język niemiecki zawodowy</t>
+  </si>
+  <si>
+    <t>13:15-14:50</t>
+  </si>
+  <si>
+    <t>Julia Falenta - 4TFB - indywidualne nauczanie</t>
+  </si>
+  <si>
+    <t>język polski</t>
+  </si>
+  <si>
+    <t>08:00-09:30</t>
+  </si>
+  <si>
+    <t>Krzysztof Miedziński - 3TFB - indywidualne nauczanie</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne Marcin Cieśla</t>
+  </si>
+  <si>
+    <t>12:30-14:15</t>
+  </si>
+  <si>
+    <t>14:40-16:10</t>
+  </si>
+  <si>
+    <t>Mateusz Pietrzak klasa 1WA - indywidualne nauczanie</t>
+  </si>
+  <si>
+    <t>10:35-11:20</t>
+  </si>
+  <si>
+    <t>j. niemiecki</t>
+  </si>
+  <si>
+    <t>09:00-12:10</t>
+  </si>
+  <si>
+    <t>Zajęcia praktyczne</t>
+  </si>
+  <si>
+    <t>08:00-09:35</t>
+  </si>
+  <si>
+    <t>Podstawy fryzjerstwa i projektowanie fryzur(po 1 godzinie)</t>
+  </si>
+  <si>
+    <t>08:00-08:45</t>
+  </si>
+  <si>
+    <t>Falenta Julia - 4TFB - indywidualne nauczanie</t>
   </si>
   <si>
     <t>Projektowanie fryzur</t>
-  </si>
-  <si>
-    <t>Leńczowska Iwona</t>
-  </si>
-  <si>
-    <t>1FC</t>
-  </si>
-  <si>
-    <t>2FA</t>
-  </si>
-  <si>
-    <t>2TFA</t>
-  </si>
-  <si>
-    <t>p. Kopij, zajęcia z wychowawcą za lekcję 11, wtorek 16.12</t>
-  </si>
-  <si>
-    <t>2WA</t>
-  </si>
-  <si>
-    <t>2CA</t>
-  </si>
-  <si>
-    <t>1TFA|JA1</t>
-  </si>
-  <si>
-    <t>p. Najwer, informatyka za lekcję 3</t>
-  </si>
-  <si>
-    <t>Rozwój kompetencji zawodowych - kompetencje zawodowe</t>
-  </si>
-  <si>
-    <t>19.12.2025</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3TFB|JA1</t>
-  </si>
-  <si>
-    <t>Rozwój kompetencji zawodowych - obsługa klienta</t>
-  </si>
-  <si>
-    <t>2FC</t>
-  </si>
-  <si>
-    <t>p. Krzemińska, RKZ za lekcję 2</t>
-  </si>
-  <si>
-    <t>Rozwój kompetencji zawodowych - barber</t>
-  </si>
-  <si>
-    <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
-  </si>
-  <si>
-    <t>2K</t>
-  </si>
-  <si>
-    <t>Rozwój kompetencji zawodowych - Zasady zdrowego żywienia</t>
-  </si>
-  <si>
-    <t>Godzina</t>
-  </si>
-  <si>
-    <t>Nauczyciel</t>
-  </si>
-  <si>
-    <t>Dziennik zajęć innych</t>
-  </si>
-  <si>
-    <t>Opis zajęć</t>
-  </si>
-  <si>
-    <t>11:30-13:00</t>
-  </si>
-  <si>
-    <t>Krzysztof Miedziński - indywidualne nauczanie</t>
-  </si>
-  <si>
-    <t>11:25-12:10</t>
-  </si>
-  <si>
-    <t>Karolina Tymon - 5TH - indywidualne nauczanie</t>
-  </si>
-  <si>
-    <t>język niemiecki</t>
-  </si>
-  <si>
-    <t>13:15-14:00</t>
-  </si>
-  <si>
-    <t>Krystian Pietrowski - 3M - indywidualne nauczanie</t>
-  </si>
-  <si>
-    <t>19:35-20:10</t>
-  </si>
-  <si>
-    <t>14:05-14:50</t>
-  </si>
-  <si>
-    <t>język niemiecki zawodowy</t>
-  </si>
-  <si>
-    <t>13:15-14:50</t>
-  </si>
-  <si>
-    <t>Julia Falenta - 4TFB - indywidualne nauczanie</t>
-  </si>
-  <si>
-    <t>język polski</t>
-  </si>
-  <si>
-    <t>08:00-09:30</t>
-  </si>
-  <si>
-    <t>Krzysztof Miedziński - 3TFB - indywidualne nauczanie</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne Marcin Cieśla</t>
-  </si>
-  <si>
-    <t>12:30-14:15</t>
-  </si>
-  <si>
-    <t>14:40-16:10</t>
-  </si>
-  <si>
-    <t>Mateusz Pietrzak klasa 1WA - indywidualne nauczanie</t>
-  </si>
-  <si>
-    <t>10:35-11:20</t>
-  </si>
-  <si>
-    <t>j. niemiecki</t>
-  </si>
-  <si>
-    <t>09:00-12:10</t>
-  </si>
-  <si>
-    <t>Zajęcia praktyczne</t>
-  </si>
-  <si>
-    <t>08:00-09:35</t>
-  </si>
-  <si>
-    <t>Podstawy fryzjerstwa i projektowanie fryzur(po 1 godzinie)</t>
-  </si>
-  <si>
-    <t>08:00-08:45</t>
-  </si>
-  <si>
-    <t>Falenta Julia - 4TFB - indywidualne nauczanie</t>
   </si>
   <si>
     <t>projektowanie fryzur</t>
@@ -1231,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{02381a93-bc8b-4733-86fb-11f263e54d58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{3400a7d2-4866-418b-8a77-422a13798517}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1255,8 +1324,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{01e7a65f-cf10-425c-aabb-8aea4cce06e2}">
-  <dimension ref="A1:I270"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{68b0d103-c597-4821-86cf-3bfa114875ed}">
+  <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -3404,19 +3473,19 @@
         <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
         <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15">
@@ -3430,7 +3499,7 @@
         <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
         <v>79</v>
@@ -3439,7 +3508,7 @@
         <v>118</v>
       </c>
       <c r="G75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H75" t="s">
         <v>18</v>
@@ -3459,7 +3528,7 @@
         <v>136</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
         <v>41</v>
@@ -3491,7 +3560,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
         <v>118</v>
@@ -3514,7 +3583,7 @@
         <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D78" t="s">
         <v>76</v>
@@ -3526,7 +3595,7 @@
         <v>93</v>
       </c>
       <c r="G78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H78" t="s">
         <v>18</v>
@@ -3543,7 +3612,7 @@
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
         <v>76</v>
@@ -3555,7 +3624,7 @@
         <v>93</v>
       </c>
       <c r="G79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H79" t="s">
         <v>18</v>
@@ -3572,19 +3641,19 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" t="s">
         <v>144</v>
-      </c>
-      <c r="D80" t="s">
-        <v>146</v>
       </c>
       <c r="E80" t="s">
         <v>92</v>
       </c>
       <c r="F80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H80" t="s">
         <v>18</v>
@@ -3601,19 +3670,19 @@
         <v>33</v>
       </c>
       <c r="C81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" t="s">
         <v>144</v>
-      </c>
-      <c r="D81" t="s">
-        <v>146</v>
       </c>
       <c r="E81" t="s">
         <v>92</v>
       </c>
       <c r="F81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H81" t="s">
         <v>18</v>
@@ -3630,19 +3699,19 @@
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
@@ -3659,25 +3728,25 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
         <v>128</v>
       </c>
       <c r="E83" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G83" t="s">
         <v>153</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>154</v>
       </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
-        <v>18</v>
-      </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15">
@@ -3688,25 +3757,25 @@
         <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
         <v>128</v>
       </c>
       <c r="E84" t="s">
+        <v>151</v>
+      </c>
+      <c r="F84" t="s">
+        <v>152</v>
+      </c>
+      <c r="G84" t="s">
         <v>153</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>154</v>
       </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
-        <v>18</v>
-      </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15">
@@ -3717,25 +3786,25 @@
         <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D85" t="s">
         <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="F85" t="s">
+        <v>152</v>
+      </c>
+      <c r="G85" t="s">
+        <v>153</v>
+      </c>
+      <c r="H85" t="s">
         <v>154</v>
       </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s">
-        <v>18</v>
-      </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15">
@@ -3746,7 +3815,7 @@
         <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
         <v>128</v>
@@ -3755,16 +3824,16 @@
         <v>155</v>
       </c>
       <c r="F86" t="s">
+        <v>152</v>
+      </c>
+      <c r="G86" t="s">
+        <v>153</v>
+      </c>
+      <c r="H86" t="s">
         <v>154</v>
       </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
-        <v>18</v>
-      </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15">
@@ -3932,7 +4001,7 @@
         <v>93</v>
       </c>
       <c r="G92" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H92" t="s">
         <v>18</v>
@@ -3961,7 +4030,7 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H93" t="s">
         <v>18</v>
@@ -4004,28 +4073,28 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E95" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="F95" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="G95" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H95" t="s">
         <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15">
@@ -4033,158 +4102,158 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="D96" t="s">
         <v>165</v>
       </c>
       <c r="E96" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G96" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="H96" t="s">
         <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15">
       <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" t="s">
         <v>166</v>
       </c>
-      <c r="B97" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" t="s">
-        <v>167</v>
-      </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G97" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H97" t="s">
         <v>18</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D98" t="s">
         <v>167</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G98" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H98" t="s">
         <v>18</v>
       </c>
       <c r="I98" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="G99" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H99" t="s">
         <v>18</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D100" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="G100" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="H100" t="s">
         <v>18</v>
       </c>
       <c r="I100" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E101" t="s">
         <v>22</v>
@@ -4193,7 +4262,7 @@
         <v>105</v>
       </c>
       <c r="G101" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H101" t="s">
         <v>18</v>
@@ -4204,16 +4273,16 @@
     </row>
     <row r="102" spans="1:9" ht="15">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E102" t="s">
         <v>22</v>
@@ -4222,7 +4291,7 @@
         <v>105</v>
       </c>
       <c r="G102" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H102" t="s">
         <v>18</v>
@@ -4233,25 +4302,25 @@
     </row>
     <row r="103" spans="1:9" ht="15">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="E103" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="G103" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="H103" t="s">
         <v>18</v>
@@ -4262,25 +4331,25 @@
     </row>
     <row r="104" spans="1:9" ht="15">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="E104" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G104" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="H104" t="s">
         <v>18</v>
@@ -4291,25 +4360,25 @@
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E105" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="G105" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="H105" t="s">
         <v>18</v>
@@ -4320,25 +4389,25 @@
     </row>
     <row r="106" spans="1:9" ht="15">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="G106" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H106" t="s">
         <v>18</v>
@@ -4349,54 +4418,54 @@
     </row>
     <row r="107" spans="1:9" ht="15">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
         <v>39</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="F107" t="s">
         <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H107" t="s">
         <v>18</v>
       </c>
       <c r="I107" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B108" t="s">
         <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="E108" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F108" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="G108" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
@@ -4407,25 +4476,25 @@
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="F109" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G109" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
@@ -4436,83 +4505,83 @@
     </row>
     <row r="110" spans="1:9" ht="15">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="E110" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="F110" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="D111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E111" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G111" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="H111" t="s">
         <v>18</v>
       </c>
       <c r="I111" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E112" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F112" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G112" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H112" t="s">
         <v>18</v>
@@ -4523,25 +4592,25 @@
     </row>
     <row r="113" spans="1:9" ht="15">
       <c r="A113" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="D113" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F113" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="G113" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
@@ -4552,54 +4621,54 @@
     </row>
     <row r="114" spans="1:9" ht="15">
       <c r="A114" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D114" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F114" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="H114" t="s">
         <v>18</v>
       </c>
       <c r="I114" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D115" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F115" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
@@ -4610,25 +4679,25 @@
     </row>
     <row r="116" spans="1:9" ht="15">
       <c r="A116" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D116" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="G116" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H116" t="s">
         <v>18</v>
@@ -4639,25 +4708,25 @@
     </row>
     <row r="117" spans="1:9" ht="15">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D117" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E117" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="F117" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="G117" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
@@ -4668,141 +4737,141 @@
     </row>
     <row r="118" spans="1:9" ht="15">
       <c r="A118" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="E118" t="s">
         <v>22</v>
       </c>
       <c r="F118" t="s">
+        <v>145</v>
+      </c>
+      <c r="G118" t="s">
         <v>186</v>
       </c>
-      <c r="G118" t="s">
-        <v>38</v>
-      </c>
       <c r="H118" t="s">
         <v>18</v>
       </c>
       <c r="I118" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15">
       <c r="A119" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D119" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="E119" t="s">
         <v>22</v>
       </c>
       <c r="F119" t="s">
+        <v>145</v>
+      </c>
+      <c r="G119" t="s">
         <v>186</v>
       </c>
-      <c r="G119" t="s">
-        <v>38</v>
-      </c>
       <c r="H119" t="s">
         <v>18</v>
       </c>
       <c r="I119" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D120" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="E120" t="s">
         <v>22</v>
       </c>
       <c r="F120" t="s">
+        <v>145</v>
+      </c>
+      <c r="G120" t="s">
         <v>186</v>
       </c>
-      <c r="G120" t="s">
-        <v>38</v>
-      </c>
       <c r="H120" t="s">
         <v>18</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="E121" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="F121" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
       </c>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="E122" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="F122" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H122" t="s">
         <v>18</v>
@@ -4813,103 +4882,103 @@
     </row>
     <row r="123" spans="1:9" ht="15">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D123" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="G123" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="H123" t="s">
         <v>18</v>
       </c>
       <c r="I123" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15">
       <c r="A124" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C124" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="G124" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="H124" t="s">
         <v>18</v>
       </c>
       <c r="I124" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
         <v>91</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="E125" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="F125" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="G125" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="H125" t="s">
         <v>18</v>
       </c>
       <c r="I125" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
         <v>91</v>
       </c>
       <c r="D126" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="E126" t="s">
         <v>92</v>
@@ -4918,7 +4987,7 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H126" t="s">
         <v>18</v>
@@ -4929,315 +4998,315 @@
     </row>
     <row r="127" spans="1:9" ht="15">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D127" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E127" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="F127" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="H127" t="s">
         <v>18</v>
       </c>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D128" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E128" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="F128" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="G128" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="H128" t="s">
         <v>18</v>
       </c>
       <c r="I128" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15">
       <c r="A129" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" t="s">
+        <v>91</v>
+      </c>
+      <c r="D129" t="s">
+        <v>196</v>
+      </c>
+      <c r="E129" t="s">
+        <v>160</v>
+      </c>
+      <c r="F129" t="s">
+        <v>189</v>
+      </c>
+      <c r="G129" t="s">
         <v>190</v>
       </c>
-      <c r="B129" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" t="s">
-        <v>191</v>
-      </c>
-      <c r="E129" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" t="s">
-        <v>192</v>
-      </c>
-      <c r="G129" t="s">
-        <v>17</v>
-      </c>
       <c r="H129" t="s">
         <v>18</v>
       </c>
       <c r="I129" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D130" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E130" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G130" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="H130" t="s">
         <v>18</v>
       </c>
       <c r="I130" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D131" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="F131" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G131" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="H131" t="s">
         <v>18</v>
       </c>
       <c r="I131" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15">
       <c r="A132" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D132" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E132" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="F132" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G132" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="H132" t="s">
         <v>18</v>
       </c>
       <c r="I132" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D133" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E133" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="F133" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G133" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="H133" t="s">
         <v>18</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="D134" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E134" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F134" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="H134" t="s">
         <v>18</v>
       </c>
       <c r="I134" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="D135" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E135" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F135" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="G135" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="H135" t="s">
         <v>18</v>
       </c>
       <c r="I135" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D136" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E136" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="F136" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="G136" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="H136" t="s">
         <v>18</v>
       </c>
       <c r="I136" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E137" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F137" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="G137" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H137" t="s">
         <v>18</v>
@@ -5248,25 +5317,25 @@
     </row>
     <row r="138" spans="1:9" ht="15">
       <c r="A138" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E138" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F138" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="G138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H138" t="s">
         <v>18</v>
@@ -5277,25 +5346,25 @@
     </row>
     <row r="139" spans="1:9" ht="15">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E139" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F139" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="G139" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H139" t="s">
         <v>18</v>
@@ -5306,25 +5375,25 @@
     </row>
     <row r="140" spans="1:9" ht="15">
       <c r="A140" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C140" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="E140" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F140" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="H140" t="s">
         <v>18</v>
@@ -5335,54 +5404,54 @@
     </row>
     <row r="141" spans="1:9" ht="15">
       <c r="A141" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C141" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="E141" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G141" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="H141" t="s">
         <v>18</v>
       </c>
       <c r="I141" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15">
       <c r="A142" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="E142" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="G142" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H142" t="s">
         <v>18</v>
@@ -5393,25 +5462,25 @@
     </row>
     <row r="143" spans="1:9" ht="15">
       <c r="A143" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="G143" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H143" t="s">
         <v>18</v>
@@ -5422,141 +5491,141 @@
     </row>
     <row r="144" spans="1:9" ht="15">
       <c r="A144" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="D144" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="E144" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="H144" t="s">
         <v>18</v>
       </c>
       <c r="I144" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15">
       <c r="A145" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="D145" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="E145" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="F145" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="G145" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="H145" t="s">
         <v>18</v>
       </c>
       <c r="I145" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15">
       <c r="A146" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="D146" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G146" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="H146" t="s">
         <v>18</v>
       </c>
       <c r="I146" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15">
       <c r="A147" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C147" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D147" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="E147" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="H147" t="s">
         <v>18</v>
       </c>
       <c r="I147" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15">
       <c r="A148" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C148" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D148" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="E148" t="s">
         <v>125</v>
       </c>
       <c r="F148" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H148" t="s">
         <v>18</v>
@@ -5567,25 +5636,25 @@
     </row>
     <row r="149" spans="1:9" ht="15">
       <c r="A149" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C149" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D149" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="E149" t="s">
         <v>125</v>
       </c>
       <c r="F149" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="G149" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H149" t="s">
         <v>18</v>
@@ -5596,83 +5665,83 @@
     </row>
     <row r="150" spans="1:9" ht="15">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C150" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D150" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E150" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F150" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="G150" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>18</v>
       </c>
       <c r="I150" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15">
       <c r="A151" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C151" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D151" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E151" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F151" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="G151" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="H151" t="s">
         <v>18</v>
       </c>
       <c r="I151" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="D152" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="E152" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="G152" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H152" t="s">
         <v>18</v>
@@ -5683,257 +5752,257 @@
     </row>
     <row r="153" spans="1:9" ht="15">
       <c r="A153" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D153" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="E153" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="G153" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H153" t="s">
         <v>18</v>
       </c>
       <c r="I153" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15">
       <c r="A154" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B154" t="s">
         <v>28</v>
       </c>
       <c r="C154" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D154" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E154" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H154" t="s">
         <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B155" t="s">
         <v>29</v>
       </c>
       <c r="C155" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D155" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="E155" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="G155" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="H155" t="s">
         <v>18</v>
       </c>
       <c r="I155" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C156" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="E156" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="H156" t="s">
         <v>18</v>
       </c>
       <c r="I156" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15">
       <c r="A157" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D157" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="E157" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="F157" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="G157" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="H157" t="s">
         <v>18</v>
       </c>
       <c r="I157" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B158" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D158" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E158" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="F158" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="G158" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="H158" t="s">
         <v>18</v>
       </c>
       <c r="I158" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15">
       <c r="A159" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B159" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D159" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E159" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="F159" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G159" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H159" t="s">
         <v>18</v>
       </c>
       <c r="I159" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15">
       <c r="A160" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B160" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D160" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E160" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F160" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="H160" t="s">
         <v>18</v>
       </c>
       <c r="I160" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C161" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D161" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E161" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="F161" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G161" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H161" t="s">
         <v>18</v>
@@ -5944,25 +6013,25 @@
     </row>
     <row r="162" spans="1:9" ht="15">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B162" t="s">
         <v>32</v>
       </c>
       <c r="C162" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D162" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="E162" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="F162" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G162" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H162" t="s">
         <v>18</v>
@@ -5973,689 +6042,689 @@
     </row>
     <row r="163" spans="1:9" ht="15">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="D163" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E163" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="G163" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="H163" t="s">
         <v>18</v>
       </c>
       <c r="I163" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C164" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="D164" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="E164" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G164" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H164" t="s">
         <v>18</v>
       </c>
       <c r="I164" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15">
       <c r="A165" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C165" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="D165" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E165" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="G165" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="H165" t="s">
         <v>18</v>
       </c>
       <c r="I165" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15">
       <c r="A166" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C166" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="D166" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E166" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G166" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H166" t="s">
         <v>18</v>
       </c>
       <c r="I166" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B167" t="s">
         <v>33</v>
       </c>
       <c r="C167" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="D167" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E167" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="G167" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="H167" t="s">
         <v>18</v>
       </c>
       <c r="I167" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15">
       <c r="A168" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B168" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C168" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D168" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="E168" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G168" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H168" t="s">
         <v>18</v>
       </c>
       <c r="I168" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C169" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D169" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="E169" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G169" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H169" t="s">
         <v>18</v>
       </c>
       <c r="I169" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15">
       <c r="A170" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C170" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D170" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="E170" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G170" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H170" t="s">
         <v>18</v>
       </c>
       <c r="I170" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C171" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D171" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E171" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="G171" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="H171" t="s">
         <v>18</v>
       </c>
       <c r="I171" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15">
       <c r="A172" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B172" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="C172" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D172" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="E172" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="G172" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H172" t="s">
         <v>18</v>
       </c>
       <c r="I172" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15">
       <c r="A173" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="D173" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E173" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="F173" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="G173" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H173" t="s">
         <v>18</v>
       </c>
       <c r="I173" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15">
       <c r="A174" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C174" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="D174" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E174" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="F174" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="G174" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="H174" t="s">
         <v>18</v>
       </c>
       <c r="I174" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15">
       <c r="A175" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C175" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="D175" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="E175" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="F175" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="G175" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="H175" t="s">
         <v>18</v>
       </c>
       <c r="I175" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15">
       <c r="A176" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B176" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C176" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="D176" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="E176" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="F176" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="G176" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="H176" t="s">
         <v>18</v>
       </c>
       <c r="I176" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15">
       <c r="A177" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B177" t="s">
         <v>33</v>
       </c>
       <c r="C177" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="D177" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="E177" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="F177" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="G177" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="I177" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15">
       <c r="A178" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C178" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D178" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E178" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F178" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="G178" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H178" t="s">
         <v>18</v>
       </c>
       <c r="I178" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B179" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C179" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D179" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E179" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F179" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="G179" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H179" t="s">
         <v>18</v>
       </c>
       <c r="I179" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B180" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C180" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D180" t="s">
         <v>156</v>
       </c>
       <c r="E180" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="F180" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="G180" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="H180" t="s">
         <v>18</v>
       </c>
       <c r="I180" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C181" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D181" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="E181" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="F181" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="G181" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="H181" t="s">
         <v>18</v>
       </c>
       <c r="I181" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15">
       <c r="A182" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B182" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C182" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D182" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E182" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="F182" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="G182" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H182" t="s">
         <v>18</v>
       </c>
       <c r="I182" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15">
       <c r="A183" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B183" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C183" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D183" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="E183" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="F183" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="G183" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H183" t="s">
         <v>18</v>
       </c>
       <c r="I183" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B184" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="D184" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E184" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="F184" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G184" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="H184" t="s">
         <v>18</v>
       </c>
       <c r="I184" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15">
       <c r="A185" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C185" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D185" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E185" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="F185" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="G185" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H185" t="s">
         <v>18</v>
       </c>
       <c r="I185" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15">
       <c r="A186" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D186" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F186" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="G186" t="s">
         <v>17</v>
@@ -6669,22 +6738,22 @@
     </row>
     <row r="187" spans="1:9" ht="15">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C187" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D187" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E187" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F187" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="G187" t="s">
         <v>17</v>
@@ -6698,28 +6767,28 @@
     </row>
     <row r="188" spans="1:9" ht="15">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B188" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C188" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D188" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E188" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F188" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="G188" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="H188" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="I188" t="s">
         <v>19</v>
@@ -6727,22 +6796,22 @@
     </row>
     <row r="189" spans="1:9" ht="15">
       <c r="A189" t="s">
+        <v>206</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
         <v>190</v>
       </c>
-      <c r="B189" t="s">
-        <v>30</v>
-      </c>
-      <c r="C189" t="s">
-        <v>75</v>
-      </c>
       <c r="D189" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E189" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="F189" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="G189" t="s">
         <v>17</v>
@@ -6756,22 +6825,22 @@
     </row>
     <row r="190" spans="1:9" ht="15">
       <c r="A190" t="s">
+        <v>206</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" t="s">
         <v>190</v>
       </c>
-      <c r="B190" t="s">
-        <v>32</v>
-      </c>
-      <c r="C190" t="s">
-        <v>75</v>
-      </c>
       <c r="D190" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E190" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="F190" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="G190" t="s">
         <v>17</v>
@@ -6785,54 +6854,54 @@
     </row>
     <row r="191" spans="1:9" ht="15">
       <c r="A191" t="s">
+        <v>206</v>
+      </c>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" t="s">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" t="s">
-        <v>91</v>
-      </c>
       <c r="D191" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="E191" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="F191" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="G191" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="H191" t="s">
         <v>18</v>
       </c>
       <c r="I191" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15">
       <c r="A192" t="s">
+        <v>206</v>
+      </c>
+      <c r="B192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" t="s">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
-        <v>20</v>
-      </c>
-      <c r="C192" t="s">
-        <v>91</v>
-      </c>
       <c r="D192" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E192" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="F192" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G192" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="H192" t="s">
         <v>18</v>
@@ -6843,25 +6912,25 @@
     </row>
     <row r="193" spans="1:9" ht="15">
       <c r="A193" t="s">
+        <v>206</v>
+      </c>
+      <c r="B193" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" t="s">
         <v>190</v>
       </c>
-      <c r="B193" t="s">
-        <v>28</v>
-      </c>
-      <c r="C193" t="s">
-        <v>91</v>
-      </c>
       <c r="D193" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="E193" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="F193" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="G193" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="H193" t="s">
         <v>18</v>
@@ -6872,57 +6941,57 @@
     </row>
     <row r="194" spans="1:9" ht="15">
       <c r="A194" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" t="s">
         <v>190</v>
       </c>
-      <c r="B194" t="s">
-        <v>29</v>
-      </c>
-      <c r="C194" t="s">
-        <v>91</v>
-      </c>
       <c r="D194" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="E194" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F194" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="G194" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H194" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I194" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15">
       <c r="A195" t="s">
+        <v>206</v>
+      </c>
+      <c r="B195" t="s">
+        <v>52</v>
+      </c>
+      <c r="C195" t="s">
         <v>190</v>
-      </c>
-      <c r="B195" t="s">
-        <v>29</v>
-      </c>
-      <c r="C195" t="s">
-        <v>91</v>
       </c>
       <c r="D195" t="s">
         <v>122</v>
       </c>
       <c r="E195" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="F195" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G195" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="H195" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I195" t="s">
         <v>19</v>
@@ -6930,25 +6999,25 @@
     </row>
     <row r="196" spans="1:9" ht="15">
       <c r="A196" t="s">
+        <v>206</v>
+      </c>
+      <c r="B196" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" t="s">
         <v>190</v>
       </c>
-      <c r="B196" t="s">
-        <v>30</v>
-      </c>
-      <c r="C196" t="s">
-        <v>91</v>
-      </c>
       <c r="D196" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E196" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="F196" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="G196" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H196" t="s">
         <v>18</v>
@@ -6959,54 +7028,54 @@
     </row>
     <row r="197" spans="1:9" ht="15">
       <c r="A197" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D197" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="E197" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="F197" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G197" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="H197" t="s">
         <v>18</v>
       </c>
       <c r="I197" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C198" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D198" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="E198" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F198" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G198" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H198" t="s">
         <v>18</v>
@@ -7017,25 +7086,25 @@
     </row>
     <row r="199" spans="1:9" ht="15">
       <c r="A199" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C199" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D199" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="E199" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F199" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G199" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H199" t="s">
         <v>18</v>
@@ -7046,25 +7115,25 @@
     </row>
     <row r="200" spans="1:9" ht="15">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C200" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="D200" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="E200" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="F200" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H200" t="s">
         <v>18</v>
@@ -7075,25 +7144,25 @@
     </row>
     <row r="201" spans="1:9" ht="15">
       <c r="A201" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B201" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C201" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="D201" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="E201" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="F201" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G201" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H201" t="s">
         <v>18</v>
@@ -7104,25 +7173,25 @@
     </row>
     <row r="202" spans="1:9" ht="15">
       <c r="A202" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C202" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="D202" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="E202" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F202" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="G202" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H202" t="s">
         <v>18</v>
@@ -7133,25 +7202,25 @@
     </row>
     <row r="203" spans="1:9" ht="15">
       <c r="A203" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="D203" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="E203" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="F203" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G203" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H203" t="s">
         <v>18</v>
@@ -7162,86 +7231,86 @@
     </row>
     <row r="204" spans="1:9" ht="15">
       <c r="A204" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="D204" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="E204" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="F204" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G204" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H204" t="s">
         <v>18</v>
       </c>
       <c r="I204" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C205" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="D205" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E205" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="F205" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="G205" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="H205" t="s">
         <v>18</v>
       </c>
       <c r="I205" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="C206" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="D206" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="E206" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="F206" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G206" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H206" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I206" t="s">
         <v>19</v>
@@ -7249,112 +7318,112 @@
     </row>
     <row r="207" spans="1:9" ht="15">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C207" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D207" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E207" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F207" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="G207" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="H207" t="s">
         <v>18</v>
       </c>
       <c r="I207" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C208" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D208" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E208" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G208" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="H208" t="s">
         <v>18</v>
       </c>
       <c r="I208" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C209" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D209" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E209" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="F209" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G209" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="H209" t="s">
         <v>18</v>
       </c>
       <c r="I209" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B210" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C210" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D210" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E210" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F210" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="G210" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H210" t="s">
         <v>18</v>
@@ -7365,25 +7434,25 @@
     </row>
     <row r="211" spans="1:9" ht="15">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B211" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C211" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D211" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E211" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F211" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="G211" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H211" t="s">
         <v>18</v>
@@ -7394,25 +7463,25 @@
     </row>
     <row r="212" spans="1:9" ht="15">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B212" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C212" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="D212" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="E212" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="F212" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G212" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H212" t="s">
         <v>18</v>
@@ -7423,25 +7492,25 @@
     </row>
     <row r="213" spans="1:9" ht="15">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C213" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="D213" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="E213" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="F213" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G213" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H213" t="s">
         <v>18</v>
@@ -7452,54 +7521,54 @@
     </row>
     <row r="214" spans="1:9" ht="15">
       <c r="A214" t="s">
+        <v>232</v>
+      </c>
+      <c r="B214" t="s">
+        <v>29</v>
+      </c>
+      <c r="C214" t="s">
+        <v>210</v>
+      </c>
+      <c r="D214" t="s">
+        <v>182</v>
+      </c>
+      <c r="E214" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
-        <v>32</v>
-      </c>
-      <c r="C214" t="s">
-        <v>109</v>
-      </c>
-      <c r="D214" t="s">
-        <v>50</v>
-      </c>
-      <c r="E214" t="s">
-        <v>125</v>
-      </c>
-      <c r="F214" t="s">
-        <v>126</v>
-      </c>
       <c r="G214" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="H214" t="s">
         <v>18</v>
       </c>
       <c r="I214" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B215" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C215" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="D215" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="E215" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F215" t="s">
         <v>108</v>
       </c>
       <c r="G215" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H215" t="s">
         <v>18</v>
@@ -7510,25 +7579,25 @@
     </row>
     <row r="216" spans="1:9" ht="15">
       <c r="A216" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B216" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C216" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="D216" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="E216" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F216" t="s">
         <v>108</v>
       </c>
       <c r="G216" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H216" t="s">
         <v>18</v>
@@ -7539,25 +7608,25 @@
     </row>
     <row r="217" spans="1:9" ht="15">
       <c r="A217" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C217" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D217" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="E217" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="F217" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="G217" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H217" t="s">
         <v>18</v>
@@ -7568,25 +7637,25 @@
     </row>
     <row r="218" spans="1:9" ht="15">
       <c r="A218" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B218" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C218" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D218" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="E218" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="F218" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="G218" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H218" t="s">
         <v>18</v>
@@ -7597,54 +7666,54 @@
     </row>
     <row r="219" spans="1:9" ht="15">
       <c r="A219" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C219" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="D219" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="E219" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="F219" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="G219" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="H219" t="s">
         <v>18</v>
       </c>
       <c r="I219" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15">
       <c r="A220" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C220" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="D220" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="E220" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="F220" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="G220" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H220" t="s">
         <v>18</v>
@@ -7655,83 +7724,83 @@
     </row>
     <row r="221" spans="1:9" ht="15">
       <c r="A221" t="s">
+        <v>232</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" t="s">
+        <v>109</v>
+      </c>
+      <c r="D221" t="s">
+        <v>50</v>
+      </c>
+      <c r="E221" t="s">
+        <v>188</v>
+      </c>
+      <c r="F221" t="s">
         <v>212</v>
       </c>
-      <c r="B221" t="s">
-        <v>30</v>
-      </c>
-      <c r="C221" t="s">
-        <v>123</v>
-      </c>
-      <c r="D221" t="s">
-        <v>214</v>
-      </c>
-      <c r="E221" t="s">
-        <v>125</v>
-      </c>
-      <c r="F221" t="s">
-        <v>196</v>
-      </c>
       <c r="G221" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H221" t="s">
         <v>18</v>
       </c>
       <c r="I221" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15">
       <c r="A222" t="s">
+        <v>232</v>
+      </c>
+      <c r="B222" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>109</v>
+      </c>
+      <c r="D222" t="s">
+        <v>50</v>
+      </c>
+      <c r="E222" t="s">
+        <v>188</v>
+      </c>
+      <c r="F222" t="s">
         <v>212</v>
       </c>
-      <c r="B222" t="s">
-        <v>32</v>
-      </c>
-      <c r="C222" t="s">
-        <v>123</v>
-      </c>
-      <c r="D222" t="s">
-        <v>214</v>
-      </c>
-      <c r="E222" t="s">
-        <v>125</v>
-      </c>
-      <c r="F222" t="s">
-        <v>196</v>
-      </c>
       <c r="G222" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H222" t="s">
         <v>18</v>
       </c>
       <c r="I222" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15">
       <c r="A223" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B223" t="s">
         <v>28</v>
       </c>
       <c r="C223" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D223" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="E223" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="F223" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G223" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="H223" t="s">
         <v>18</v>
@@ -7742,25 +7811,25 @@
     </row>
     <row r="224" spans="1:9" ht="15">
       <c r="A224" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B224" t="s">
         <v>29</v>
       </c>
       <c r="C224" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D224" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="E224" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="F224" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G224" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="H224" t="s">
         <v>18</v>
@@ -7771,83 +7840,83 @@
     </row>
     <row r="225" spans="1:9" ht="15">
       <c r="A225" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B225" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C225" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D225" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E225" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F225" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="G225" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H225" t="s">
         <v>18</v>
       </c>
       <c r="I225" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="15">
       <c r="A226" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C226" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D226" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E226" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F226" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="G226" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H226" t="s">
         <v>18</v>
       </c>
       <c r="I226" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15">
       <c r="A227" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B227" t="s">
         <v>52</v>
       </c>
       <c r="C227" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D227" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E227" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F227" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="G227" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="H227" t="s">
         <v>18</v>
@@ -7858,28 +7927,28 @@
     </row>
     <row r="228" spans="1:9" ht="15">
       <c r="A228" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B228" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C228" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D228" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E228" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G228" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="H228" t="s">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="I228" t="s">
         <v>19</v>
@@ -7887,141 +7956,141 @@
     </row>
     <row r="229" spans="1:9" ht="15">
       <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" t="s">
+        <v>123</v>
+      </c>
+      <c r="D229" t="s">
+        <v>225</v>
+      </c>
+      <c r="E229" t="s">
+        <v>188</v>
+      </c>
+      <c r="F229" t="s">
         <v>212</v>
       </c>
-      <c r="B229" t="s">
-        <v>33</v>
-      </c>
-      <c r="C229" t="s">
-        <v>136</v>
-      </c>
-      <c r="D229" t="s">
-        <v>94</v>
-      </c>
-      <c r="E229" t="s">
-        <v>36</v>
-      </c>
-      <c r="F229" t="s">
-        <v>37</v>
-      </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="H229" t="s">
         <v>18</v>
       </c>
       <c r="I229" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="15">
       <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" t="s">
+        <v>20</v>
+      </c>
+      <c r="C230" t="s">
+        <v>123</v>
+      </c>
+      <c r="D230" t="s">
+        <v>225</v>
+      </c>
+      <c r="E230" t="s">
+        <v>188</v>
+      </c>
+      <c r="F230" t="s">
         <v>212</v>
       </c>
-      <c r="B230" t="s">
-        <v>52</v>
-      </c>
-      <c r="C230" t="s">
-        <v>136</v>
-      </c>
-      <c r="D230" t="s">
-        <v>94</v>
-      </c>
-      <c r="E230" t="s">
-        <v>36</v>
-      </c>
-      <c r="F230" t="s">
-        <v>37</v>
-      </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="H230" t="s">
         <v>18</v>
       </c>
       <c r="I230" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="15">
       <c r="A231" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
         <v>28</v>
       </c>
       <c r="C231" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D231" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="E231" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F231" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="G231" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H231" t="s">
         <v>18</v>
       </c>
       <c r="I231" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="15">
       <c r="A232" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
         <v>29</v>
       </c>
       <c r="C232" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D232" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="E232" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F232" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="G232" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H232" t="s">
         <v>18</v>
       </c>
       <c r="I232" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15">
       <c r="A233" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>30</v>
       </c>
       <c r="C233" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D233" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="E233" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="F233" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G233" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H233" t="s">
         <v>18</v>
@@ -8032,25 +8101,25 @@
     </row>
     <row r="234" spans="1:9" ht="15">
       <c r="A234" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C234" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D234" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="E234" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="F234" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G234" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H234" t="s">
         <v>18</v>
@@ -8061,170 +8130,170 @@
     </row>
     <row r="235" spans="1:9" ht="15">
       <c r="A235" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C235" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="D235" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="E235" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="F235" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G235" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="H235" t="s">
         <v>18</v>
       </c>
       <c r="I235" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15">
       <c r="A236" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B236" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C236" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D236" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="E236" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="F236" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="G236" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="H236" t="s">
         <v>18</v>
       </c>
       <c r="I236" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15">
       <c r="A237" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B237" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C237" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D237" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E237" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="F237" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G237" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H237" t="s">
         <v>18</v>
       </c>
       <c r="I237" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="15">
       <c r="A238" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B238" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C238" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D238" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="E238" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="F238" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G238" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H238" t="s">
         <v>18</v>
       </c>
       <c r="I238" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15">
       <c r="A239" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B239" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C239" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D239" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="E239" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="F239" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="G239" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H239" t="s">
         <v>18</v>
       </c>
       <c r="I239" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15">
       <c r="A240" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C240" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D240" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="E240" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="F240" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H240" t="s">
         <v>18</v>
@@ -8235,25 +8304,25 @@
     </row>
     <row r="241" spans="1:9" ht="15">
       <c r="A241" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B241" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C241" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D241" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="E241" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="F241" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H241" t="s">
         <v>18</v>
@@ -8264,25 +8333,25 @@
     </row>
     <row r="242" spans="1:9" ht="15">
       <c r="A242" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C242" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D242" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="E242" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="F242" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H242" t="s">
         <v>18</v>
@@ -8293,25 +8362,25 @@
     </row>
     <row r="243" spans="1:9" ht="15">
       <c r="A243" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B243" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="C243" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D243" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E243" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="F243" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="G243" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H243" t="s">
         <v>18</v>
@@ -8322,112 +8391,112 @@
     </row>
     <row r="244" spans="1:9" ht="15">
       <c r="A244" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C244" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D244" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="E244" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F244" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="G244" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="H244" t="s">
         <v>18</v>
       </c>
       <c r="I244" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15">
       <c r="A245" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B245" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C245" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D245" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="E245" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F245" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="H245" t="s">
         <v>18</v>
       </c>
       <c r="I245" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15">
       <c r="A246" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B246" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C246" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D246" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E246" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="F246" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="G246" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="H246" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I246" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15">
       <c r="A247" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B247" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C247" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D247" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E247" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="F247" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="G247" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H247" t="s">
         <v>18</v>
@@ -8438,228 +8507,228 @@
     </row>
     <row r="248" spans="1:9" ht="15">
       <c r="A248" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B248" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C248" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D248" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E248" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F248" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="G248" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H248" t="s">
         <v>18</v>
       </c>
       <c r="I248" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15">
       <c r="A249" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B249" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C249" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D249" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="E249" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="F249" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="G249" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H249" t="s">
         <v>18</v>
       </c>
       <c r="I249" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15">
       <c r="A250" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B250" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C250" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D250" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E250" t="s">
         <v>92</v>
       </c>
       <c r="F250" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G250" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="H250" t="s">
         <v>18</v>
       </c>
       <c r="I250" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15">
       <c r="A251" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B251" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C251" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D251" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="E251" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="F251" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="G251" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H251" t="s">
         <v>18</v>
       </c>
       <c r="I251" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="15">
       <c r="A252" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B252" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C252" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D252" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="E252" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="F252" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="G252" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="H252" t="s">
         <v>18</v>
       </c>
       <c r="I252" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
       <c r="A253" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C253" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D253" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E253" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="F253" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="G253" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="H253" t="s">
         <v>18</v>
       </c>
       <c r="I253" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="15">
       <c r="A254" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B254" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C254" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D254" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="E254" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="F254" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="G254" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H254" t="s">
         <v>18</v>
       </c>
       <c r="I254" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15">
       <c r="A255" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B255" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C255" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D255" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E255" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="F255" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="G255" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H255" t="s">
         <v>18</v>
@@ -8670,25 +8739,25 @@
     </row>
     <row r="256" spans="1:9" ht="15">
       <c r="A256" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B256" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="D256" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E256" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="F256" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G256" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H256" t="s">
         <v>18</v>
@@ -8699,54 +8768,54 @@
     </row>
     <row r="257" spans="1:9" ht="15">
       <c r="A257" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B257" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C257" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="D257" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="E257" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="F257" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="G257" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H257" t="s">
         <v>18</v>
       </c>
       <c r="I257" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15">
       <c r="A258" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D258" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E258" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="F258" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G258" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H258" t="s">
         <v>18</v>
@@ -8757,25 +8826,25 @@
     </row>
     <row r="259" spans="1:9" ht="15">
       <c r="A259" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B259" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C259" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D259" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E259" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="F259" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G259" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H259" t="s">
         <v>18</v>
@@ -8786,25 +8855,25 @@
     </row>
     <row r="260" spans="1:9" ht="15">
       <c r="A260" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B260" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C260" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D260" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="E260" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F260" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="G260" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H260" t="s">
         <v>18</v>
@@ -8815,83 +8884,83 @@
     </row>
     <row r="261" spans="1:9" ht="15">
       <c r="A261" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B261" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C261" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D261" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E261" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F261" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G261" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H261" t="s">
         <v>18</v>
       </c>
       <c r="I261" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="15">
       <c r="A262" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B262" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C262" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D262" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E262" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F262" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G262" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H262" t="s">
         <v>18</v>
       </c>
       <c r="I262" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="15">
       <c r="A263" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C263" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D263" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="E263" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F263" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="G263" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H263" t="s">
         <v>18</v>
@@ -8902,25 +8971,25 @@
     </row>
     <row r="264" spans="1:9" ht="15">
       <c r="A264" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C264" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D264" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="E264" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="F264" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="G264" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H264" t="s">
         <v>18</v>
@@ -8931,175 +9000,639 @@
     </row>
     <row r="265" spans="1:9" ht="15">
       <c r="A265" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B265" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C265" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D265" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E265" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="F265" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="G265" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="H265" t="s">
         <v>18</v>
       </c>
       <c r="I265" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="15">
       <c r="A266" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B266" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C266" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D266" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="E266" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="F266" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="G266" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="H266" t="s">
         <v>18</v>
       </c>
       <c r="I266" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="15">
       <c r="A267" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B267" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C267" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D267" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="E267" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="F267" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="G267" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="H267" t="s">
         <v>18</v>
       </c>
       <c r="I267" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15">
       <c r="A268" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B268" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C268" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D268" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E268" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="F268" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="G268" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="H268" t="s">
         <v>18</v>
       </c>
       <c r="I268" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="15">
       <c r="A269" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B269" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C269" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D269" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="E269" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F269" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="G269" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H269" t="s">
         <v>18</v>
       </c>
       <c r="I269" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15">
       <c r="A270" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s">
+        <v>75</v>
+      </c>
+      <c r="D270" t="s">
+        <v>230</v>
+      </c>
+      <c r="E270" t="s">
+        <v>238</v>
+      </c>
+      <c r="F270" t="s">
+        <v>129</v>
+      </c>
+      <c r="G270" t="s">
+        <v>17</v>
+      </c>
+      <c r="H270" t="s">
+        <v>18</v>
+      </c>
+      <c r="I270" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="15">
+      <c r="A271" t="s">
+        <v>232</v>
+      </c>
+      <c r="B271" t="s">
+        <v>20</v>
+      </c>
+      <c r="C271" t="s">
+        <v>75</v>
+      </c>
+      <c r="D271" t="s">
+        <v>230</v>
+      </c>
+      <c r="E271" t="s">
+        <v>238</v>
+      </c>
+      <c r="F271" t="s">
+        <v>129</v>
+      </c>
+      <c r="G271" t="s">
+        <v>17</v>
+      </c>
+      <c r="H271" t="s">
+        <v>18</v>
+      </c>
+      <c r="I271" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15">
+      <c r="A272" t="s">
+        <v>232</v>
+      </c>
+      <c r="B272" t="s">
+        <v>28</v>
+      </c>
+      <c r="C272" t="s">
+        <v>75</v>
+      </c>
+      <c r="D272" t="s">
+        <v>78</v>
+      </c>
+      <c r="E272" t="s">
+        <v>85</v>
+      </c>
+      <c r="F272" t="s">
+        <v>96</v>
+      </c>
+      <c r="G272" t="s">
+        <v>143</v>
+      </c>
+      <c r="H272" t="s">
+        <v>18</v>
+      </c>
+      <c r="I272" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="15">
+      <c r="A273" t="s">
+        <v>232</v>
+      </c>
+      <c r="B273" t="s">
+        <v>29</v>
+      </c>
+      <c r="C273" t="s">
+        <v>75</v>
+      </c>
+      <c r="D273" t="s">
+        <v>78</v>
+      </c>
+      <c r="E273" t="s">
+        <v>85</v>
+      </c>
+      <c r="F273" t="s">
+        <v>96</v>
+      </c>
+      <c r="G273" t="s">
+        <v>143</v>
+      </c>
+      <c r="H273" t="s">
+        <v>18</v>
+      </c>
+      <c r="I273" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="15">
+      <c r="A274" t="s">
+        <v>232</v>
+      </c>
+      <c r="B274" t="s">
+        <v>30</v>
+      </c>
+      <c r="C274" t="s">
+        <v>75</v>
+      </c>
+      <c r="D274" t="s">
+        <v>78</v>
+      </c>
+      <c r="E274" t="s">
+        <v>85</v>
+      </c>
+      <c r="F274" t="s">
+        <v>96</v>
+      </c>
+      <c r="G274" t="s">
+        <v>143</v>
+      </c>
+      <c r="H274" t="s">
+        <v>18</v>
+      </c>
+      <c r="I274" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="15">
+      <c r="A275" t="s">
+        <v>232</v>
+      </c>
+      <c r="B275" t="s">
+        <v>32</v>
+      </c>
+      <c r="C275" t="s">
+        <v>75</v>
+      </c>
+      <c r="D275" t="s">
+        <v>78</v>
+      </c>
+      <c r="E275" t="s">
+        <v>85</v>
+      </c>
+      <c r="F275" t="s">
+        <v>134</v>
+      </c>
+      <c r="G275" t="s">
+        <v>143</v>
+      </c>
+      <c r="H275" t="s">
+        <v>18</v>
+      </c>
+      <c r="I275" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="15">
+      <c r="A276" t="s">
+        <v>232</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>150</v>
+      </c>
+      <c r="D276" t="s">
+        <v>239</v>
+      </c>
+      <c r="E276" t="s">
+        <v>240</v>
+      </c>
+      <c r="F276" t="s">
+        <v>183</v>
+      </c>
+      <c r="G276" t="s">
+        <v>17</v>
+      </c>
+      <c r="H276" t="s">
+        <v>18</v>
+      </c>
+      <c r="I276" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="15">
+      <c r="A277" t="s">
+        <v>232</v>
+      </c>
+      <c r="B277" t="s">
+        <v>20</v>
+      </c>
+      <c r="C277" t="s">
+        <v>150</v>
+      </c>
+      <c r="D277" t="s">
+        <v>239</v>
+      </c>
+      <c r="E277" t="s">
+        <v>240</v>
+      </c>
+      <c r="F277" t="s">
+        <v>183</v>
+      </c>
+      <c r="G277" t="s">
+        <v>17</v>
+      </c>
+      <c r="H277" t="s">
+        <v>18</v>
+      </c>
+      <c r="I277" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15">
+      <c r="A278" t="s">
+        <v>232</v>
+      </c>
+      <c r="B278" t="s">
+        <v>28</v>
+      </c>
+      <c r="C278" t="s">
+        <v>150</v>
+      </c>
+      <c r="D278" t="s">
+        <v>239</v>
+      </c>
+      <c r="E278" t="s">
+        <v>155</v>
+      </c>
+      <c r="F278" t="s">
+        <v>183</v>
+      </c>
+      <c r="G278" t="s">
+        <v>17</v>
+      </c>
+      <c r="H278" t="s">
+        <v>18</v>
+      </c>
+      <c r="I278" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="15">
+      <c r="A279" t="s">
+        <v>232</v>
+      </c>
+      <c r="B279" t="s">
+        <v>29</v>
+      </c>
+      <c r="C279" t="s">
+        <v>150</v>
+      </c>
+      <c r="D279" t="s">
+        <v>161</v>
+      </c>
+      <c r="E279" t="s">
+        <v>151</v>
+      </c>
+      <c r="F279" t="s">
+        <v>183</v>
+      </c>
+      <c r="G279" t="s">
+        <v>153</v>
+      </c>
+      <c r="H279" t="s">
+        <v>18</v>
+      </c>
+      <c r="I279" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="15">
+      <c r="A280" t="s">
+        <v>232</v>
+      </c>
+      <c r="B280" t="s">
+        <v>30</v>
+      </c>
+      <c r="C280" t="s">
+        <v>150</v>
+      </c>
+      <c r="D280" t="s">
+        <v>161</v>
+      </c>
+      <c r="E280" t="s">
+        <v>151</v>
+      </c>
+      <c r="F280" t="s">
+        <v>183</v>
+      </c>
+      <c r="G280" t="s">
+        <v>153</v>
+      </c>
+      <c r="H280" t="s">
+        <v>18</v>
+      </c>
+      <c r="I280" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="15">
+      <c r="A281" t="s">
+        <v>232</v>
+      </c>
+      <c r="B281" t="s">
+        <v>32</v>
+      </c>
+      <c r="C281" t="s">
+        <v>150</v>
+      </c>
+      <c r="D281" t="s">
+        <v>161</v>
+      </c>
+      <c r="E281" t="s">
+        <v>194</v>
+      </c>
+      <c r="F281" t="s">
+        <v>46</v>
+      </c>
+      <c r="G281" t="s">
+        <v>195</v>
+      </c>
+      <c r="H281" t="s">
+        <v>18</v>
+      </c>
+      <c r="I281" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="15">
+      <c r="A282" t="s">
+        <v>232</v>
+      </c>
+      <c r="B282" t="s">
         <v>33</v>
       </c>
-      <c r="C270" t="s">
-        <v>152</v>
-      </c>
-      <c r="D270" t="s">
+      <c r="C282" t="s">
+        <v>150</v>
+      </c>
+      <c r="D282" t="s">
         <v>161</v>
       </c>
-      <c r="E270" t="s">
-        <v>153</v>
-      </c>
-      <c r="F270" t="s">
-        <v>177</v>
-      </c>
-      <c r="G270" t="s">
-        <v>19</v>
-      </c>
-      <c r="H270" t="s">
-        <v>18</v>
-      </c>
-      <c r="I270" t="s">
+      <c r="E282" t="s">
+        <v>194</v>
+      </c>
+      <c r="F282" t="s">
+        <v>46</v>
+      </c>
+      <c r="G282" t="s">
+        <v>195</v>
+      </c>
+      <c r="H282" t="s">
+        <v>18</v>
+      </c>
+      <c r="I282" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="15">
+      <c r="A283" t="s">
+        <v>232</v>
+      </c>
+      <c r="B283" t="s">
+        <v>33</v>
+      </c>
+      <c r="C283" t="s">
+        <v>179</v>
+      </c>
+      <c r="D283" t="s">
+        <v>241</v>
+      </c>
+      <c r="E283" t="s">
+        <v>41</v>
+      </c>
+      <c r="F283" t="s">
+        <v>42</v>
+      </c>
+      <c r="G283" t="s">
+        <v>51</v>
+      </c>
+      <c r="H283" t="s">
+        <v>18</v>
+      </c>
+      <c r="I283" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="15">
+      <c r="A284" t="s">
+        <v>232</v>
+      </c>
+      <c r="B284" t="s">
+        <v>55</v>
+      </c>
+      <c r="C284" t="s">
+        <v>242</v>
+      </c>
+      <c r="D284" t="s">
+        <v>197</v>
+      </c>
+      <c r="E284" t="s">
+        <v>194</v>
+      </c>
+      <c r="F284" t="s">
+        <v>132</v>
+      </c>
+      <c r="G284" t="s">
+        <v>243</v>
+      </c>
+      <c r="H284" t="s">
+        <v>18</v>
+      </c>
+      <c r="I284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="15">
+      <c r="A285" t="s">
+        <v>232</v>
+      </c>
+      <c r="B285" t="s">
+        <v>116</v>
+      </c>
+      <c r="C285" t="s">
+        <v>242</v>
+      </c>
+      <c r="D285" t="s">
+        <v>197</v>
+      </c>
+      <c r="E285" t="s">
+        <v>194</v>
+      </c>
+      <c r="F285" t="s">
+        <v>132</v>
+      </c>
+      <c r="G285" t="s">
+        <v>243</v>
+      </c>
+      <c r="H285" t="s">
+        <v>18</v>
+      </c>
+      <c r="I285" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="15">
+      <c r="A286" t="s">
+        <v>232</v>
+      </c>
+      <c r="B286" t="s">
+        <v>55</v>
+      </c>
+      <c r="C286" t="s">
+        <v>203</v>
+      </c>
+      <c r="D286" t="s">
+        <v>204</v>
+      </c>
+      <c r="E286" t="s">
+        <v>48</v>
+      </c>
+      <c r="F286" t="s">
+        <v>46</v>
+      </c>
+      <c r="G286" t="s">
+        <v>49</v>
+      </c>
+      <c r="H286" t="s">
+        <v>18</v>
+      </c>
+      <c r="I286" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9111,7 +9644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{22fa9cc8-eedf-40c1-9047-aeb36fe0683b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a588e4b2-4446-47dc-a2d6-7f11fb1d1cdd}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -9134,16 +9667,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -9163,13 +9696,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -9192,16 +9725,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -9221,16 +9754,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -9250,16 +9783,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -9279,16 +9812,16 @@
         <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -9308,16 +9841,16 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -9334,19 +9867,19 @@
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -9363,19 +9896,19 @@
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -9392,19 +9925,19 @@
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -9421,19 +9954,19 @@
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -9450,19 +9983,19 @@
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -9479,19 +10012,19 @@
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -9508,19 +10041,19 @@
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -9537,19 +10070,19 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="318">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -735,15 +735,27 @@
     <t>2TFA</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>Biznes i zarządzanie</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>3TFB|JA1</t>
   </si>
   <si>
+    <t>1TFB|JA2</t>
+  </si>
+  <si>
+    <t>1TFA|JA1</t>
+  </si>
+  <si>
+    <t>p. Najwer, informatyka za lekcję 3</t>
+  </si>
+  <si>
+    <t>2FA|JA2</t>
+  </si>
+  <si>
     <t>p. Kopij, zajęcia z wychowawcą za lekcję 11, wtorek 16.12</t>
   </si>
   <si>
@@ -759,16 +771,10 @@
     <t>2WA</t>
   </si>
   <si>
-    <t>1TFA|JA1</t>
-  </si>
-  <si>
     <t>p. Granatowska, j. angielski za 1 lekcję środa 17.12.2025</t>
   </si>
   <si>
     <t>2CA</t>
-  </si>
-  <si>
-    <t>p. Najwer, informatyka za lekcję 3</t>
   </si>
   <si>
     <t>19.12.2025</t>
@@ -1419,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{9d7b04e7-691c-4b41-9a1f-443f1751edb7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{3e851176-3a6c-4bee-864d-29dcc8b9672f}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1443,8 +1449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{9dbec547-9a0e-4c9b-9ab4-f43c8146c2eb}">
-  <dimension ref="A1:I329"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{2e037a34-bd8e-40e1-bcaa-44a4c920efc0}">
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -6695,13 +6701,13 @@
         <v>124</v>
       </c>
       <c r="E181" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F181" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="G181" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="H181" t="s">
         <v>18</v>
@@ -7536,13 +7542,13 @@
         <v>202</v>
       </c>
       <c r="E210" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="G210" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="H210" t="s">
         <v>18</v>
@@ -7626,10 +7632,10 @@
         <v>15</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="G213" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="H213" t="s">
         <v>18</v>
@@ -7652,10 +7658,10 @@
         <v>135</v>
       </c>
       <c r="E214" t="s">
+        <v>238</v>
+      </c>
+      <c r="F214" t="s">
         <v>237</v>
-      </c>
-      <c r="F214" t="s">
-        <v>238</v>
       </c>
       <c r="G214" t="s">
         <v>146</v>
@@ -7730,28 +7736,28 @@
         <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="D217" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E217" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F217" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="G217" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="H217" t="s">
         <v>18</v>
       </c>
       <c r="I217" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15">
@@ -7759,28 +7765,28 @@
         <v>222</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C218" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="D218" t="s">
         <v>236</v>
       </c>
       <c r="E218" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F218" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G218" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H218" t="s">
         <v>18</v>
       </c>
       <c r="I218" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15">
@@ -7788,19 +7794,19 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C219" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="D219" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="E219" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="G219" t="s">
         <v>17</v>
@@ -7817,28 +7823,28 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C220" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="D220" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="E220" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F220" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="G220" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H220" t="s">
         <v>18</v>
       </c>
       <c r="I220" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15">
@@ -7846,28 +7852,28 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C221" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="D221" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E221" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F221" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H221" t="s">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I221" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15">
@@ -7875,25 +7881,25 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C222" t="s">
+        <v>121</v>
+      </c>
+      <c r="D222" t="s">
         <v>241</v>
       </c>
-      <c r="D222" t="s">
-        <v>118</v>
-      </c>
       <c r="E222" t="s">
+        <v>48</v>
+      </c>
+      <c r="F222" t="s">
+        <v>54</v>
+      </c>
+      <c r="G222" t="s">
+        <v>79</v>
+      </c>
+      <c r="H222" t="s">
         <v>242</v>
-      </c>
-      <c r="F222" t="s">
-        <v>95</v>
-      </c>
-      <c r="G222" t="s">
-        <v>17</v>
-      </c>
-      <c r="H222" t="s">
-        <v>18</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -7904,28 +7910,28 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C223" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="D223" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="E223" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="F223" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="G223" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="H223" t="s">
         <v>18</v>
       </c>
       <c r="I223" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15">
@@ -7933,28 +7939,28 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C224" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="D224" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="E224" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="F224" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="G224" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="H224" t="s">
         <v>18</v>
       </c>
       <c r="I224" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="15">
@@ -7962,28 +7968,28 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C225" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="D225" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="E225" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="F225" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="G225" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H225" t="s">
         <v>18</v>
       </c>
       <c r="I225" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="15">
@@ -7991,22 +7997,22 @@
         <v>222</v>
       </c>
       <c r="B226" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C226" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="D226" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="E226" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="F226" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="G226" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H226" t="s">
         <v>18</v>
@@ -8020,22 +8026,22 @@
         <v>222</v>
       </c>
       <c r="B227" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C227" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="D227" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="E227" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="F227" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="G227" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H227" t="s">
         <v>18</v>
@@ -8049,22 +8055,22 @@
         <v>222</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C228" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="D228" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E228" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="F228" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="G228" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H228" t="s">
         <v>18</v>
@@ -8078,22 +8084,22 @@
         <v>222</v>
       </c>
       <c r="B229" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C229" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="D229" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E229" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="F229" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="G229" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H229" t="s">
         <v>18</v>
@@ -8107,25 +8113,25 @@
         <v>222</v>
       </c>
       <c r="B230" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C230" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="D230" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E230" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="G230" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H230" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="I230" t="s">
         <v>19</v>
@@ -8136,22 +8142,22 @@
         <v>222</v>
       </c>
       <c r="B231" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D231" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E231" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="G231" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H231" t="s">
         <v>18</v>
@@ -8168,16 +8174,16 @@
         <v>20</v>
       </c>
       <c r="C232" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D232" t="s">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="E232" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="F232" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="G232" t="s">
         <v>17</v>
@@ -8197,16 +8203,16 @@
         <v>28</v>
       </c>
       <c r="C233" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D233" t="s">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="E233" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="F233" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="G233" t="s">
         <v>17</v>
@@ -8223,28 +8229,28 @@
         <v>222</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C234" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D234" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="E234" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="F234" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="G234" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H234" t="s">
         <v>18</v>
       </c>
       <c r="I234" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15">
@@ -8252,28 +8258,28 @@
         <v>222</v>
       </c>
       <c r="B235" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C235" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D235" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="E235" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="F235" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="G235" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H235" t="s">
         <v>18</v>
       </c>
       <c r="I235" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15">
@@ -8281,28 +8287,28 @@
         <v>222</v>
       </c>
       <c r="B236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C236" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D236" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E236" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="F236" t="s">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="G236" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="H236" t="s">
         <v>18</v>
       </c>
       <c r="I236" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15">
@@ -8310,28 +8316,28 @@
         <v>222</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C237" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D237" t="s">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="E237" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="F237" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="G237" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H237" t="s">
         <v>18</v>
       </c>
       <c r="I237" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="15">
@@ -8342,22 +8348,22 @@
         <v>52</v>
       </c>
       <c r="C238" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D238" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E238" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="F238" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="G238" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H238" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="I238" t="s">
         <v>19</v>
@@ -8371,25 +8377,25 @@
         <v>55</v>
       </c>
       <c r="C239" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D239" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="E239" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="F239" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="H239" t="s">
         <v>18</v>
       </c>
       <c r="I239" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15">
@@ -8397,22 +8403,22 @@
         <v>222</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C240" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="D240" t="s">
+        <v>82</v>
+      </c>
+      <c r="E240" t="s">
         <v>247</v>
       </c>
-      <c r="E240" t="s">
-        <v>94</v>
-      </c>
       <c r="F240" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H240" t="s">
         <v>18</v>
@@ -8429,16 +8435,16 @@
         <v>20</v>
       </c>
       <c r="C241" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D241" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E241" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="F241" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="G241" t="s">
         <v>17</v>
@@ -8458,16 +8464,16 @@
         <v>28</v>
       </c>
       <c r="C242" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D242" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E242" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="F242" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="G242" t="s">
         <v>17</v>
@@ -8484,28 +8490,28 @@
         <v>222</v>
       </c>
       <c r="B243" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C243" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D243" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="E243" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F243" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="G243" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H243" t="s">
         <v>18</v>
       </c>
       <c r="I243" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="15">
@@ -8513,28 +8519,28 @@
         <v>222</v>
       </c>
       <c r="B244" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C244" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D244" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="E244" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F244" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="G244" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H244" t="s">
         <v>18</v>
       </c>
       <c r="I244" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15">
@@ -8542,28 +8548,28 @@
         <v>222</v>
       </c>
       <c r="B245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C245" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D245" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="E245" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F245" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="G245" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="H245" t="s">
         <v>18</v>
       </c>
       <c r="I245" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15">
@@ -8571,28 +8577,28 @@
         <v>222</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C246" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="D246" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="E246" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F246" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="G246" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H246" t="s">
         <v>18</v>
       </c>
       <c r="I246" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15">
@@ -8600,28 +8606,28 @@
         <v>222</v>
       </c>
       <c r="B247" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C247" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="D247" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="E247" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="F247" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G247" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H247" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="I247" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15">
@@ -8629,22 +8635,22 @@
         <v>222</v>
       </c>
       <c r="B248" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C248" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="D248" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="E248" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="F248" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="G248" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H248" t="s">
         <v>18</v>
@@ -8658,25 +8664,25 @@
         <v>222</v>
       </c>
       <c r="B249" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C249" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D249" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F249" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G249" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="H249" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I249" t="s">
         <v>19</v>
@@ -8687,19 +8693,19 @@
         <v>222</v>
       </c>
       <c r="B250" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C250" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D250" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="E250" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F250" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G250" t="s">
         <v>17</v>
@@ -8716,28 +8722,28 @@
         <v>222</v>
       </c>
       <c r="B251" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C251" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D251" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="F251" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G251" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="H251" t="s">
         <v>18</v>
       </c>
       <c r="I251" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="15">
@@ -8745,28 +8751,28 @@
         <v>222</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C252" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D252" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="E252" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F252" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G252" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="H252" t="s">
         <v>18</v>
       </c>
       <c r="I252" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
@@ -8774,22 +8780,22 @@
         <v>222</v>
       </c>
       <c r="B253" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C253" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D253" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="E253" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F253" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G253" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H253" t="s">
         <v>18</v>
@@ -8803,22 +8809,22 @@
         <v>222</v>
       </c>
       <c r="B254" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C254" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D254" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="E254" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F254" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G254" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H254" t="s">
         <v>18</v>
@@ -8829,22 +8835,22 @@
     </row>
     <row r="255" spans="1:9" ht="15">
       <c r="A255" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B255" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="D255" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="E255" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F255" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="G255" t="s">
         <v>17</v>
@@ -8858,54 +8864,54 @@
     </row>
     <row r="256" spans="1:9" ht="15">
       <c r="A256" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B256" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C256" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="D256" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="E256" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="F256" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="G256" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="H256" t="s">
         <v>18</v>
       </c>
       <c r="I256" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15">
       <c r="A257" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B257" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C257" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="D257" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E257" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F257" t="s">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="G257" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="H257" t="s">
         <v>18</v>
@@ -8916,25 +8922,25 @@
     </row>
     <row r="258" spans="1:9" ht="15">
       <c r="A258" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B258" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C258" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="D258" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="E258" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="F258" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="G258" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H258" t="s">
         <v>18</v>
@@ -8945,80 +8951,80 @@
     </row>
     <row r="259" spans="1:9" ht="15">
       <c r="A259" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B259" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C259" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="D259" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E259" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="F259" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="G259" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="H259" t="s">
         <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15">
       <c r="A260" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B260" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C260" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="D260" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="E260" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F260" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G260" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="H260" t="s">
         <v>18</v>
       </c>
       <c r="I260" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15">
       <c r="A261" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B261" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C261" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="D261" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="E261" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="F261" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G261" t="s">
         <v>49</v>
@@ -9032,54 +9038,54 @@
     </row>
     <row r="262" spans="1:9" ht="15">
       <c r="A262" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B262" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C262" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D262" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="E262" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F262" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G262" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="H262" t="s">
         <v>18</v>
       </c>
       <c r="I262" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="15">
       <c r="A263" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B263" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C263" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="D263" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E263" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="G263" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H263" t="s">
         <v>18</v>
@@ -9090,54 +9096,54 @@
     </row>
     <row r="264" spans="1:9" ht="15">
       <c r="A264" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C264" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="D264" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="E264" t="s">
         <v>170</v>
       </c>
       <c r="F264" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="G264" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H264" t="s">
         <v>18</v>
       </c>
       <c r="I264" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="15">
       <c r="A265" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B265" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C265" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="D265" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="E265" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F265" t="s">
         <v>228</v>
       </c>
       <c r="G265" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="H265" t="s">
         <v>18</v>
@@ -9148,80 +9154,80 @@
     </row>
     <row r="266" spans="1:9" ht="15">
       <c r="A266" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B266" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C266" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="D266" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="E266" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="F266" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="G266" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="H266" t="s">
         <v>18</v>
       </c>
       <c r="I266" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="15">
       <c r="A267" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B267" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C267" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="D267" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="E267" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="F267" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="G267" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="H267" t="s">
         <v>18</v>
       </c>
       <c r="I267" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15">
       <c r="A268" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B268" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C268" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="D268" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E268" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F268" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G268" t="s">
         <v>49</v>
@@ -9235,22 +9241,22 @@
     </row>
     <row r="269" spans="1:9" ht="15">
       <c r="A269" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B269" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C269" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="D269" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E269" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F269" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G269" t="s">
         <v>49</v>
@@ -9264,25 +9270,25 @@
     </row>
     <row r="270" spans="1:9" ht="15">
       <c r="A270" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B270" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C270" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="D270" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E270" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F270" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="G270" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="H270" t="s">
         <v>18</v>
@@ -9293,28 +9299,28 @@
     </row>
     <row r="271" spans="1:9" ht="15">
       <c r="A271" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B271" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C271" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="D271" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E271" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="F271" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="G271" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H271" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="I271" t="s">
         <v>19</v>
@@ -9322,16 +9328,16 @@
     </row>
     <row r="272" spans="1:9" ht="15">
       <c r="A272" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B272" t="s">
         <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D272" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="E272" t="s">
         <v>170</v>
@@ -9346,21 +9352,21 @@
         <v>18</v>
       </c>
       <c r="I272" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="15">
       <c r="A273" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B273" t="s">
         <v>20</v>
       </c>
       <c r="C273" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D273" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="E273" t="s">
         <v>170</v>
@@ -9375,21 +9381,21 @@
         <v>18</v>
       </c>
       <c r="I273" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="15">
       <c r="A274" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B274" t="s">
         <v>28</v>
       </c>
       <c r="C274" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D274" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="E274" t="s">
         <v>196</v>
@@ -9404,21 +9410,21 @@
         <v>18</v>
       </c>
       <c r="I274" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="15">
       <c r="A275" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
       </c>
       <c r="C275" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D275" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="E275" t="s">
         <v>196</v>
@@ -9433,27 +9439,27 @@
         <v>18</v>
       </c>
       <c r="I275" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="15">
       <c r="A276" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B276" t="s">
         <v>30</v>
       </c>
       <c r="C276" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D276" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="E276" t="s">
         <v>136</v>
       </c>
       <c r="F276" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="G276" t="s">
         <v>49</v>
@@ -9467,22 +9473,22 @@
     </row>
     <row r="277" spans="1:9" ht="15">
       <c r="A277" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B277" t="s">
         <v>32</v>
       </c>
       <c r="C277" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D277" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="E277" t="s">
         <v>136</v>
       </c>
       <c r="F277" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="G277" t="s">
         <v>49</v>
@@ -9496,25 +9502,25 @@
     </row>
     <row r="278" spans="1:9" ht="15">
       <c r="A278" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B278" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C278" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="D278" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="E278" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F278" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="G278" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H278" t="s">
         <v>18</v>
@@ -9525,170 +9531,170 @@
     </row>
     <row r="279" spans="1:9" ht="15">
       <c r="A279" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B279" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C279" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="D279" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="E279" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="F279" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="G279" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="H279" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I279" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="15">
       <c r="A280" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B280" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D280" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="E280" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="F280" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="G280" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="H280" t="s">
         <v>18</v>
       </c>
       <c r="I280" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="15">
       <c r="A281" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B281" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C281" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D281" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="E281" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="F281" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="G281" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="H281" t="s">
         <v>18</v>
       </c>
       <c r="I281" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="15">
       <c r="A282" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B282" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C282" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D282" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="E282" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="F282" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="G282" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H282" t="s">
         <v>18</v>
       </c>
       <c r="I282" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="15">
       <c r="A283" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B283" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C283" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D283" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="E283" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="F283" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="G283" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H283" t="s">
         <v>18</v>
       </c>
       <c r="I283" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="15">
       <c r="A284" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B284" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C284" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D284" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="E284" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="F284" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="G284" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H284" t="s">
         <v>18</v>
@@ -9699,25 +9705,25 @@
     </row>
     <row r="285" spans="1:9" ht="15">
       <c r="A285" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B285" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C285" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D285" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="E285" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="F285" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="G285" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H285" t="s">
         <v>18</v>
@@ -9728,54 +9734,54 @@
     </row>
     <row r="286" spans="1:9" ht="15">
       <c r="A286" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B286" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C286" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="D286" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E286" t="s">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="F286" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="G286" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="H286" t="s">
         <v>18</v>
       </c>
       <c r="I286" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="15">
       <c r="A287" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B287" t="s">
         <v>29</v>
       </c>
       <c r="C287" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="D287" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="E287" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F287" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="G287" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="H287" t="s">
         <v>18</v>
@@ -9786,54 +9792,54 @@
     </row>
     <row r="288" spans="1:9" ht="15">
       <c r="A288" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B288" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C288" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="D288" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E288" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F288" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G288" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H288" t="s">
         <v>18</v>
       </c>
       <c r="I288" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="15">
       <c r="A289" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B289" t="s">
         <v>33</v>
       </c>
       <c r="C289" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="D289" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="E289" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="F289" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="G289" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="H289" t="s">
         <v>18</v>
@@ -9844,170 +9850,170 @@
     </row>
     <row r="290" spans="1:9" ht="15">
       <c r="A290" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B290" t="s">
         <v>52</v>
       </c>
       <c r="C290" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="D290" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="E290" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="F290" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="G290" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H290" t="s">
         <v>18</v>
       </c>
       <c r="I290" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="15">
       <c r="A291" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B291" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C291" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D291" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="E291" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="F291" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G291" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="H291" t="s">
         <v>18</v>
       </c>
       <c r="I291" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="15">
       <c r="A292" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B292" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C292" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D292" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E292" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="F292" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G292" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="H292" t="s">
         <v>18</v>
       </c>
       <c r="I292" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="15">
       <c r="A293" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B293" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C293" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D293" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="E293" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="F293" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="G293" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="H293" t="s">
         <v>18</v>
       </c>
       <c r="I293" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="15">
       <c r="A294" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B294" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C294" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D294" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="E294" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="F294" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="G294" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H294" t="s">
         <v>18</v>
       </c>
       <c r="I294" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="15">
       <c r="A295" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B295" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C295" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D295" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="E295" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F295" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="G295" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="H295" t="s">
         <v>18</v>
@@ -10018,54 +10024,54 @@
     </row>
     <row r="296" spans="1:9" ht="15">
       <c r="A296" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B296" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C296" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D296" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="E296" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="F296" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G296" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="H296" t="s">
         <v>18</v>
       </c>
       <c r="I296" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="15">
       <c r="A297" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B297" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C297" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D297" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="E297" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F297" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="G297" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H297" t="s">
         <v>18</v>
@@ -10076,22 +10082,22 @@
     </row>
     <row r="298" spans="1:9" ht="15">
       <c r="A298" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B298" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C298" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D298" t="s">
         <v>160</v>
       </c>
       <c r="E298" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F298" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="G298" t="s">
         <v>49</v>
@@ -10105,54 +10111,54 @@
     </row>
     <row r="299" spans="1:9" ht="15">
       <c r="A299" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C299" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D299" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="E299" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="F299" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="G299" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H299" t="s">
         <v>18</v>
       </c>
       <c r="I299" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
       <c r="A300" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B300" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C300" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D300" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E300" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="F300" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="G300" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="H300" t="s">
         <v>18</v>
@@ -10163,112 +10169,112 @@
     </row>
     <row r="301" spans="1:9" ht="15">
       <c r="A301" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B301" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C301" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D301" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E301" t="s">
         <v>103</v>
       </c>
       <c r="F301" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G301" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="H301" t="s">
         <v>18</v>
       </c>
       <c r="I301" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="15">
       <c r="A302" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B302" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C302" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D302" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="E302" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F302" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="G302" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H302" t="s">
         <v>18</v>
       </c>
       <c r="I302" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="15">
       <c r="A303" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B303" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C303" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D303" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E303" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="F303" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="G303" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="H303" t="s">
         <v>18</v>
       </c>
       <c r="I303" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15">
       <c r="A304" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B304" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C304" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D304" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="E304" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="F304" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="G304" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="H304" t="s">
         <v>18</v>
@@ -10279,25 +10285,25 @@
     </row>
     <row r="305" spans="1:9" ht="15">
       <c r="A305" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B305" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C305" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D305" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="E305" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="F305" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="G305" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="H305" t="s">
         <v>18</v>
@@ -10308,22 +10314,22 @@
     </row>
     <row r="306" spans="1:9" ht="15">
       <c r="A306" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B306" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C306" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D306" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E306" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="F306" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="G306" t="s">
         <v>49</v>
@@ -10337,16 +10343,16 @@
     </row>
     <row r="307" spans="1:9" ht="15">
       <c r="A307" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B307" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C307" t="s">
         <v>157</v>
       </c>
       <c r="D307" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="E307" t="s">
         <v>103</v>
@@ -10355,7 +10361,7 @@
         <v>158</v>
       </c>
       <c r="G307" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H307" t="s">
         <v>18</v>
@@ -10366,25 +10372,25 @@
     </row>
     <row r="308" spans="1:9" ht="15">
       <c r="A308" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B308" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C308" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D308" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="E308" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="F308" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="G308" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="H308" t="s">
         <v>18</v>
@@ -10395,74 +10401,74 @@
     </row>
     <row r="309" spans="1:9" ht="15">
       <c r="A309" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B309" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C309" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D309" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E309" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F309" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="G309" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="H309" t="s">
         <v>18</v>
       </c>
       <c r="I309" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="15">
       <c r="A310" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B310" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C310" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D310" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E310" t="s">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="F310" t="s">
         <v>158</v>
       </c>
       <c r="G310" t="s">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="H310" t="s">
         <v>18</v>
       </c>
       <c r="I310" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="15">
       <c r="A311" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B311" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C311" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D311" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E311" t="s">
         <v>103</v>
@@ -10471,36 +10477,36 @@
         <v>158</v>
       </c>
       <c r="G311" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="H311" t="s">
         <v>18</v>
       </c>
       <c r="I311" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="15">
       <c r="A312" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B312" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C312" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D312" t="s">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="E312" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="F312" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="G312" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="H312" t="s">
         <v>18</v>
@@ -10511,54 +10517,54 @@
     </row>
     <row r="313" spans="1:9" ht="15">
       <c r="A313" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B313" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C313" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="D313" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="E313" t="s">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="F313" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G313" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="H313" t="s">
         <v>18</v>
       </c>
       <c r="I313" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="15">
       <c r="A314" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B314" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C314" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="D314" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="E314" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="F314" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="G314" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H314" t="s">
         <v>18</v>
@@ -10569,54 +10575,54 @@
     </row>
     <row r="315" spans="1:9" ht="15">
       <c r="A315" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B315" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C315" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="D315" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="E315" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F315" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="G315" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="H315" t="s">
         <v>18</v>
       </c>
       <c r="I315" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="15">
       <c r="A316" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B316" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C316" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D316" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="E316" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="F316" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G316" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="H316" t="s">
         <v>18</v>
@@ -10627,25 +10633,25 @@
     </row>
     <row r="317" spans="1:9" ht="15">
       <c r="A317" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B317" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C317" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D317" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="E317" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F317" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="G317" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="H317" t="s">
         <v>18</v>
@@ -10656,25 +10662,25 @@
     </row>
     <row r="318" spans="1:9" ht="15">
       <c r="A318" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B318" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C318" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D318" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="E318" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="F318" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="G318" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="H318" t="s">
         <v>18</v>
@@ -10685,80 +10691,80 @@
     </row>
     <row r="319" spans="1:9" ht="15">
       <c r="A319" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C319" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D319" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="E319" t="s">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="F319" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="G319" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="H319" t="s">
         <v>18</v>
       </c>
       <c r="I319" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="15">
       <c r="A320" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B320" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C320" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D320" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E320" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="F320" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="G320" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H320" t="s">
         <v>18</v>
       </c>
       <c r="I320" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="15">
       <c r="A321" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B321" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C321" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="D321" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E321" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="F321" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="G321" t="s">
         <v>17</v>
@@ -10772,54 +10778,54 @@
     </row>
     <row r="322" spans="1:9" ht="15">
       <c r="A322" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B322" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C322" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="D322" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="E322" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="F322" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="G322" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="H322" t="s">
         <v>18</v>
       </c>
       <c r="I322" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="15">
       <c r="A323" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B323" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C323" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="D323" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="E323" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="F323" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="G323" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="H323" t="s">
         <v>18</v>
@@ -10830,25 +10836,25 @@
     </row>
     <row r="324" spans="1:9" ht="15">
       <c r="A324" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B324" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C324" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="D324" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="E324" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F324" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="G324" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="H324" t="s">
         <v>18</v>
@@ -10859,25 +10865,25 @@
     </row>
     <row r="325" spans="1:9" ht="15">
       <c r="A325" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B325" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C325" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="D325" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="E325" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F325" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="G325" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="H325" t="s">
         <v>18</v>
@@ -10888,117 +10894,349 @@
     </row>
     <row r="326" spans="1:9" ht="15">
       <c r="A326" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B326" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C326" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="D326" t="s">
-        <v>258</v>
+        <v>90</v>
       </c>
       <c r="E326" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="F326" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G326" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="H326" t="s">
         <v>18</v>
       </c>
       <c r="I326" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
       <c r="A327" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B327" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C327" t="s">
+        <v>173</v>
+      </c>
+      <c r="D327" t="s">
+        <v>258</v>
+      </c>
+      <c r="E327" t="s">
         <v>259</v>
       </c>
-      <c r="D327" t="s">
-        <v>213</v>
-      </c>
-      <c r="E327" t="s">
-        <v>77</v>
-      </c>
       <c r="F327" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="G327" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="H327" t="s">
         <v>18</v>
       </c>
       <c r="I327" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="15">
       <c r="A328" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B328" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C328" t="s">
+        <v>173</v>
+      </c>
+      <c r="D328" t="s">
+        <v>258</v>
+      </c>
+      <c r="E328" t="s">
         <v>259</v>
       </c>
-      <c r="D328" t="s">
-        <v>213</v>
-      </c>
-      <c r="E328" t="s">
-        <v>77</v>
-      </c>
       <c r="F328" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="G328" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="H328" t="s">
         <v>18</v>
       </c>
       <c r="I328" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="15">
       <c r="A329" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B329" t="s">
+        <v>28</v>
+      </c>
+      <c r="C329" t="s">
+        <v>173</v>
+      </c>
+      <c r="D329" t="s">
+        <v>258</v>
+      </c>
+      <c r="E329" t="s">
+        <v>178</v>
+      </c>
+      <c r="F329" t="s">
+        <v>206</v>
+      </c>
+      <c r="G329" t="s">
+        <v>17</v>
+      </c>
+      <c r="H329" t="s">
+        <v>18</v>
+      </c>
+      <c r="I329" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="15">
+      <c r="A330" t="s">
+        <v>251</v>
+      </c>
+      <c r="B330" t="s">
+        <v>29</v>
+      </c>
+      <c r="C330" t="s">
+        <v>173</v>
+      </c>
+      <c r="D330" t="s">
+        <v>181</v>
+      </c>
+      <c r="E330" t="s">
+        <v>174</v>
+      </c>
+      <c r="F330" t="s">
+        <v>206</v>
+      </c>
+      <c r="G330" t="s">
+        <v>176</v>
+      </c>
+      <c r="H330" t="s">
+        <v>18</v>
+      </c>
+      <c r="I330" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="15">
+      <c r="A331" t="s">
+        <v>251</v>
+      </c>
+      <c r="B331" t="s">
+        <v>30</v>
+      </c>
+      <c r="C331" t="s">
+        <v>173</v>
+      </c>
+      <c r="D331" t="s">
+        <v>181</v>
+      </c>
+      <c r="E331" t="s">
+        <v>174</v>
+      </c>
+      <c r="F331" t="s">
+        <v>206</v>
+      </c>
+      <c r="G331" t="s">
+        <v>176</v>
+      </c>
+      <c r="H331" t="s">
+        <v>18</v>
+      </c>
+      <c r="I331" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="15">
+      <c r="A332" t="s">
+        <v>251</v>
+      </c>
+      <c r="B332" t="s">
+        <v>32</v>
+      </c>
+      <c r="C332" t="s">
+        <v>173</v>
+      </c>
+      <c r="D332" t="s">
+        <v>181</v>
+      </c>
+      <c r="E332" t="s">
+        <v>77</v>
+      </c>
+      <c r="F332" t="s">
+        <v>46</v>
+      </c>
+      <c r="G332" t="s">
+        <v>86</v>
+      </c>
+      <c r="H332" t="s">
+        <v>18</v>
+      </c>
+      <c r="I332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="15">
+      <c r="A333" t="s">
+        <v>251</v>
+      </c>
+      <c r="B333" t="s">
+        <v>33</v>
+      </c>
+      <c r="C333" t="s">
+        <v>173</v>
+      </c>
+      <c r="D333" t="s">
+        <v>181</v>
+      </c>
+      <c r="E333" t="s">
+        <v>77</v>
+      </c>
+      <c r="F333" t="s">
+        <v>46</v>
+      </c>
+      <c r="G333" t="s">
+        <v>86</v>
+      </c>
+      <c r="H333" t="s">
+        <v>18</v>
+      </c>
+      <c r="I333" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="15">
+      <c r="A334" t="s">
+        <v>251</v>
+      </c>
+      <c r="B334" t="s">
+        <v>33</v>
+      </c>
+      <c r="C334" t="s">
+        <v>198</v>
+      </c>
+      <c r="D334" t="s">
+        <v>260</v>
+      </c>
+      <c r="E334" t="s">
+        <v>41</v>
+      </c>
+      <c r="F334" t="s">
+        <v>42</v>
+      </c>
+      <c r="G334" t="s">
+        <v>51</v>
+      </c>
+      <c r="H334" t="s">
+        <v>18</v>
+      </c>
+      <c r="I334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="15">
+      <c r="A335" t="s">
+        <v>251</v>
+      </c>
+      <c r="B335" t="s">
         <v>55</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C335" t="s">
+        <v>261</v>
+      </c>
+      <c r="D335" t="s">
+        <v>213</v>
+      </c>
+      <c r="E335" t="s">
+        <v>77</v>
+      </c>
+      <c r="F335" t="s">
+        <v>143</v>
+      </c>
+      <c r="G335" t="s">
+        <v>262</v>
+      </c>
+      <c r="H335" t="s">
+        <v>18</v>
+      </c>
+      <c r="I335" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="15">
+      <c r="A336" t="s">
+        <v>251</v>
+      </c>
+      <c r="B336" t="s">
+        <v>87</v>
+      </c>
+      <c r="C336" t="s">
+        <v>261</v>
+      </c>
+      <c r="D336" t="s">
+        <v>213</v>
+      </c>
+      <c r="E336" t="s">
+        <v>77</v>
+      </c>
+      <c r="F336" t="s">
+        <v>143</v>
+      </c>
+      <c r="G336" t="s">
+        <v>262</v>
+      </c>
+      <c r="H336" t="s">
+        <v>18</v>
+      </c>
+      <c r="I336" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="15">
+      <c r="A337" t="s">
+        <v>251</v>
+      </c>
+      <c r="B337" t="s">
+        <v>55</v>
+      </c>
+      <c r="C337" t="s">
         <v>219</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D337" t="s">
         <v>220</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E337" t="s">
         <v>48</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F337" t="s">
         <v>46</v>
       </c>
-      <c r="G329" t="s">
+      <c r="G337" t="s">
         <v>49</v>
       </c>
-      <c r="H329" t="s">
-        <v>18</v>
-      </c>
-      <c r="I329" t="s">
+      <c r="H337" t="s">
+        <v>18</v>
+      </c>
+      <c r="I337" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11010,8 +11248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{adbd7a94-55c0-4f2a-8d88-55ad26b53e7c}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{50d2f264-3474-4eb4-a527-0b45c4b9e6fc}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -11033,16 +11271,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -11062,13 +11300,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -11091,22 +11329,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -11120,22 +11358,22 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>272</v>
-      </c>
-      <c r="E4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>270</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -11149,16 +11387,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -11178,16 +11416,16 @@
         <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -11207,16 +11445,16 @@
         <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
         <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -11236,22 +11474,22 @@
         <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -11265,16 +11503,16 @@
         <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
         <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -11294,22 +11532,22 @@
         <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -11323,22 +11561,22 @@
         <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -11352,16 +11590,16 @@
         <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -11381,22 +11619,22 @@
         <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
         <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -11410,16 +11648,16 @@
         <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
         <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -11436,22 +11674,22 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -11465,19 +11703,19 @@
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
         <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="E16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -11489,6 +11727,35 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11500,8 +11767,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{0a6f52c3-c623-45a7-9a40-2ac882174436}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fe7bc7d7-ea7f-4fbb-9a76-4785bb6a5d13}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -11520,13 +11787,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -11540,13 +11807,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
         <v>180</v>
@@ -11560,13 +11827,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
         <v>207</v>
@@ -11580,13 +11847,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
         <v>162</v>
@@ -11600,13 +11867,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E5" t="s">
         <v>144</v>
@@ -11620,13 +11887,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
@@ -11640,13 +11907,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E7" t="s">
         <v>141</v>
@@ -11660,13 +11927,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E8" t="s">
         <v>131</v>
@@ -11680,13 +11947,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E9" t="s">
         <v>162</v>
@@ -11700,13 +11967,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
         <v>153</v>
@@ -11720,13 +11987,13 @@
         <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s">
         <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -11740,16 +12007,16 @@
         <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -11760,13 +12027,13 @@
         <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -11780,13 +12047,13 @@
         <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
         <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -11800,13 +12067,13 @@
         <v>222</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
         <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E15" t="s">
         <v>141</v>
@@ -11820,13 +12087,13 @@
         <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -11840,18 +12107,58 @@
         <v>222</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
         <v>18</v>
       </c>
     </row>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -1425,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{3e851176-3a6c-4bee-864d-29dcc8b9672f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{59fd0410-ddf9-4280-9b30-2cf3f607cdb6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{2e037a34-bd8e-40e1-bcaa-44a4c920efc0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a9a83093-afb1-4ba2-abff-0f953af0593e}">
   <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -11248,7 +11248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{50d2f264-3474-4eb4-a527-0b45c4b9e6fc}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{f9e5e135-6c94-4481-b76b-4780eeb07b43}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -11767,7 +11767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fe7bc7d7-ea7f-4fbb-9a76-4785bb6a5d13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b1b8a236-dd63-445e-b2f3-2bffa0826892}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -1533,7 +1533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1086b727-e158-402f-a5c0-943a5c9fe220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{65320be3-9940-41a2-be40-a2215c700c7c}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7981d0e8-93b4-4940-8a43-fae1b57364aa}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e38a0223-481b-44d7-99ab-a9d693c06a0d}">
   <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -8552,7 +8552,7 @@
         <v>259</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G241" t="s">
         <v>119</v>
@@ -8581,7 +8581,7 @@
         <v>259</v>
       </c>
       <c r="F242" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G242" t="s">
         <v>119</v>
@@ -8871,7 +8871,7 @@
         <v>15</v>
       </c>
       <c r="F252" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G252" t="s">
         <v>119</v>
@@ -9071,19 +9071,19 @@
         <v>105</v>
       </c>
       <c r="E259" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G259" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H259" t="s">
         <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15">
@@ -12383,7 +12383,7 @@
         <v>107</v>
       </c>
       <c r="G373" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H373" t="s">
         <v>18</v>
@@ -12551,19 +12551,19 @@
         <v>63</v>
       </c>
       <c r="E379" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="F379" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="G379" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H379" t="s">
         <v>18</v>
       </c>
       <c r="I379" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="15">
@@ -12815,7 +12815,7 @@
         <v>48</v>
       </c>
       <c r="F388" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="G388" t="s">
         <v>124</v>
@@ -12899,19 +12899,19 @@
         <v>90</v>
       </c>
       <c r="E391" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F391" t="s">
         <v>107</v>
       </c>
       <c r="G391" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H391" t="s">
         <v>18</v>
       </c>
       <c r="I391" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="392" spans="1:9" ht="15">
@@ -12934,13 +12934,13 @@
         <v>107</v>
       </c>
       <c r="G392" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H392" t="s">
         <v>18</v>
       </c>
       <c r="I392" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="15">
@@ -12957,19 +12957,19 @@
         <v>90</v>
       </c>
       <c r="E393" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="F393" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="G393" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="H393" t="s">
         <v>18</v>
       </c>
       <c r="I393" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="15">
@@ -12986,19 +12986,19 @@
         <v>90</v>
       </c>
       <c r="E394" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="F394" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="G394" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="H394" t="s">
         <v>18</v>
       </c>
       <c r="I394" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="15">
@@ -13328,7 +13328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{3abc6c7d-126e-4960-bf45-40ff8ad99a49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{bad2ae76-ae76-44a0-a1f0-2a159a0c799b}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -14050,7 +14050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{d2e4d9e4-cc5a-463e-8e2d-966e2c7c1755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{146d2878-48e1-4e62-bbe0-37e7724012e9}">
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{3b983b45-e0cc-4bbb-bd7a-45badf0b1b8b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{9d074f1f-a74c-4410-aa22-e55799bc1d1e}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b8616b05-a728-493a-885b-d6ba09f154ca}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{17dfc6b1-702b-4263-a005-485b2ca81839}">
   <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -5837,7 +5837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{cd0faa15-4f5a-4114-892a-62519fd2ab3a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{19ff4f06-9238-47ae-8f86-7667e3632aa6}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -6124,7 +6124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{cb555c52-5013-49b4-b649-ded8912c9da0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{00b8ece5-ad23-4a65-aef3-4b34b8e8cad2}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -6135,7 +6135,7 @@
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="32.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6433,7 +6433,7 @@
         <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>71</v>
@@ -6453,7 +6453,7 @@
         <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>71</v>
@@ -6473,7 +6473,7 @@
         <v>234</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -6493,7 +6493,7 @@
         <v>221</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -6513,7 +6513,7 @@
         <v>221</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -6533,7 +6533,7 @@
         <v>234</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -9,18 +9,20 @@
   <sheets>
     <sheet name="Opis parametrów" sheetId="2" r:id="rId2"/>
     <sheet name="Oddziały" sheetId="3" r:id="rId3"/>
-    <sheet name="Dyżury" sheetId="4" r:id="rId4"/>
+    <sheet name="Dzienniki zajeć innych" sheetId="4" r:id="rId4"/>
+    <sheet name="Dyżury" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Oddziały!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dyżury!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dzienniki zajeć innych'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dyżury!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="154">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -169,6 +171,15 @@
     <t>Technika w produkcji cukierniczej</t>
   </si>
   <si>
+    <t>prs</t>
+  </si>
+  <si>
+    <t>Zastępstwo</t>
+  </si>
+  <si>
+    <t>p. Kończyńska, za 10 lekcję</t>
+  </si>
+  <si>
     <t>6, 12:25-13:10</t>
   </si>
   <si>
@@ -211,6 +222,27 @@
     <t>20.01.2026</t>
   </si>
   <si>
+    <t>vacat Edukacja zdrowotna EDU</t>
+  </si>
+  <si>
+    <t>3M|edu</t>
+  </si>
+  <si>
+    <t>Edukacja zdrowotna</t>
+  </si>
+  <si>
+    <t>Mocarski Arkadiusz</t>
+  </si>
+  <si>
+    <t>3CA|edu</t>
+  </si>
+  <si>
+    <t>3TFA|edu</t>
+  </si>
+  <si>
+    <t>3FA|edu</t>
+  </si>
+  <si>
     <t>3CA|JA1</t>
   </si>
   <si>
@@ -223,6 +255,12 @@
     <t>sg1</t>
   </si>
   <si>
+    <t>Uczniowie zwolnieni do domu</t>
+  </si>
+  <si>
+    <t>uczniowie zapisani na religię zgłaszają się do biblioteki w oczekiwaniu na 9 lekcję</t>
+  </si>
+  <si>
     <t>Płatek Krzysztof</t>
   </si>
   <si>
@@ -232,7 +270,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Okienko dla uczniów</t>
+    <t>Doliński Mirosław</t>
   </si>
   <si>
     <t>3CA|CH</t>
@@ -241,24 +279,93 @@
     <t>3S|CH</t>
   </si>
   <si>
+    <t>Smereka Alicja</t>
+  </si>
+  <si>
+    <t>3WA</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>2FB|DZ</t>
   </si>
   <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>1TFB</t>
+  </si>
+  <si>
     <t>21.01.2026</t>
   </si>
   <si>
+    <t>3TFA</t>
+  </si>
+  <si>
+    <t>2CA|edu</t>
+  </si>
+  <si>
+    <t>2WA|edu</t>
+  </si>
+  <si>
+    <t>2S|edu</t>
+  </si>
+  <si>
+    <t>2FA|edu</t>
+  </si>
+  <si>
+    <t>2FC|edu</t>
+  </si>
+  <si>
     <t>4TFB</t>
   </si>
   <si>
+    <t>2TFA</t>
+  </si>
+  <si>
+    <t>Biezmienow Małgorzata</t>
+  </si>
+  <si>
+    <t>2TFB</t>
+  </si>
+  <si>
     <t>2FC</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
+    <t>4TH</t>
+  </si>
+  <si>
     <t>2FC|JA2</t>
   </si>
   <si>
+    <t>vacat niemiecki</t>
+  </si>
+  <si>
+    <t>1WA|JN2</t>
+  </si>
+  <si>
+    <t>Język niemiecki</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Fiodorów Małgorzata</t>
+  </si>
+  <si>
+    <t>2WA</t>
+  </si>
+  <si>
+    <t>5TH|t.hand.</t>
+  </si>
+  <si>
     <t>22.01.2026</t>
   </si>
   <si>
@@ -274,18 +381,75 @@
     <t>1S|JA2</t>
   </si>
   <si>
+    <t>2WB</t>
+  </si>
+  <si>
+    <t>3TFB</t>
+  </si>
+  <si>
     <t>23.01.2026</t>
   </si>
   <si>
+    <t>2TH</t>
+  </si>
+  <si>
+    <t>1WB</t>
+  </si>
+  <si>
+    <t>1TFA</t>
+  </si>
+  <si>
+    <t>1WA</t>
+  </si>
+  <si>
+    <t>1TH</t>
+  </si>
+  <si>
     <t>Godzina</t>
   </si>
   <si>
     <t>Nauczyciel</t>
   </si>
   <si>
+    <t>Dziennik zajęć innych</t>
+  </si>
+  <si>
+    <t>Opis zajęć</t>
+  </si>
+  <si>
+    <t>11:30-13:00</t>
+  </si>
+  <si>
+    <t>Filusz Marzena</t>
+  </si>
+  <si>
+    <t>Karolina Tymon - 5TH - indywidualne nauczanie</t>
+  </si>
+  <si>
+    <t>matematyka</t>
+  </si>
+  <si>
     <t>Miejsce dyżuru</t>
   </si>
   <si>
+    <t>17:20-17:25</t>
+  </si>
+  <si>
+    <t>piętro_1</t>
+  </si>
+  <si>
+    <t>Nowaczyk Agnieszka</t>
+  </si>
+  <si>
+    <t>18:10-18:15</t>
+  </si>
+  <si>
+    <t>piętro_3</t>
+  </si>
+  <si>
+    <t>19:00-19:05</t>
+  </si>
+  <si>
     <t>14:50-14:55</t>
   </si>
   <si>
@@ -298,10 +462,28 @@
     <t>Kruk Marcin</t>
   </si>
   <si>
+    <t>15:40-15:45</t>
+  </si>
+  <si>
+    <t>piętro_2</t>
+  </si>
+  <si>
+    <t>16:30-16:35</t>
+  </si>
+  <si>
+    <t>09:35-09:40</t>
+  </si>
+  <si>
     <t>12:10-12:25</t>
   </si>
   <si>
-    <t>piętro_1</t>
+    <t>07:55-08:00</t>
+  </si>
+  <si>
+    <t>08:45-08:50</t>
+  </si>
+  <si>
+    <t>10:25-10:35</t>
   </si>
 </sst>
 </file>
@@ -751,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{770f298a-9e3b-4786-b201-27b5ac239c73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{6a434e09-bb93-43ff-b786-5d27a360bd67}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -775,8 +957,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b927661c-b83d-4ecb-b36d-3a9d98005bfd}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{074fe2ca-15c1-4abf-810f-d69977cbfb84}">
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -784,12 +966,12 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="14.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="19.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="27.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="31.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
-    <col min="7" max="7" width="27.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="9.28571428571429" customWidth="1"/>
+    <col min="7" max="7" width="27.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="72.1428571428571" customWidth="1"/>
     <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1129,16 +1311,16 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -1146,22 +1328,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -1175,13 +1357,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
@@ -1190,7 +1372,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
@@ -1204,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1216,7 +1398,7 @@
         <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>42</v>
@@ -1233,13 +1415,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
@@ -1248,7 +1430,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -1262,13 +1444,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -1277,7 +1459,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -1291,13 +1473,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
@@ -1306,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -1320,13 +1502,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -1335,7 +1517,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
@@ -1349,13 +1531,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -1364,7 +1546,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
         <v>18</v>
@@ -1375,260 +1557,260 @@
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
         <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
         <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
@@ -1636,112 +1818,112 @@
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
         <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
         <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
         <v>18</v>
@@ -1752,28 +1934,28 @@
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
         <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s">
         <v>19</v>
@@ -1781,112 +1963,112 @@
     </row>
     <row r="35" spans="1:9" ht="15">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
         <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
         <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
         <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
         <v>18</v>
@@ -1897,28 +2079,28 @@
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
         <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
@@ -1926,112 +2108,112 @@
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s">
         <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
         <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s">
         <v>18</v>
@@ -2042,25 +2224,25 @@
     </row>
     <row r="44" spans="1:9" ht="15">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
         <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
@@ -2071,25 +2253,25 @@
     </row>
     <row r="45" spans="1:9" ht="15">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
@@ -2100,25 +2282,25 @@
     </row>
     <row r="46" spans="1:9" ht="15">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
@@ -2129,25 +2311,25 @@
     </row>
     <row r="47" spans="1:9" ht="15">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
@@ -2158,25 +2340,25 @@
     </row>
     <row r="48" spans="1:9" ht="15">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
@@ -2187,25 +2369,25 @@
     </row>
     <row r="49" spans="1:9" ht="15">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
@@ -2216,22 +2398,22 @@
     </row>
     <row r="50" spans="1:9" ht="15">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
@@ -2245,59 +2427,1219 @@
     </row>
     <row r="51" spans="1:9" ht="15">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H51" t="s">
         <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15">
+      <c r="A56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
         <v>27</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15">
+      <c r="A60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G64" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15">
+      <c r="A73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" t="s">
+        <v>87</v>
+      </c>
+      <c r="F75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15">
+      <c r="A77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15">
+      <c r="A79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15">
+      <c r="A80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15">
+      <c r="A81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" t="s">
+        <v>101</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15">
+      <c r="A83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15">
+      <c r="A84" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15">
+      <c r="A85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
         <v>38</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E85" t="s">
         <v>39</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F85" t="s">
         <v>30</v>
       </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" t="s">
+        <v>87</v>
+      </c>
+      <c r="F86" t="s">
+        <v>88</v>
+      </c>
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" t="s">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15">
+      <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15">
+      <c r="A89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90" t="s">
+        <v>110</v>
+      </c>
+      <c r="G90" t="s">
+        <v>111</v>
+      </c>
+      <c r="H90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15">
+      <c r="A91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" t="s">
+        <v>88</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2309,8 +3651,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ca7ffb63-45c7-49a4-aad4-34b7abd42f81}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ebc29d31-6808-4432-af35-03e055b71689}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2318,9 +3660,93 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="19.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="14.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="42.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="12.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
+    <col min="7" max="7" width="11.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="9.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="56.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7464f4a2-b575-48df-b348-51d277490719}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2329,13 +3755,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -2346,19 +3772,19 @@
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2366,21 +3792,321 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
         <v>18</v>
       </c>
     </row>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="181">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -321,22 +321,61 @@
     <t>2FC|edu</t>
   </si>
   <si>
+    <t>1TFA|JA1</t>
+  </si>
+  <si>
     <t>4TFB</t>
   </si>
   <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Sałdyka Karolina</t>
+  </si>
+  <si>
+    <t>1TH|JA2</t>
+  </si>
+  <si>
     <t>2TFA</t>
   </si>
   <si>
+    <t>Biznes i zarządzanie</t>
+  </si>
+  <si>
+    <t>Socha Dariusz</t>
+  </si>
+  <si>
+    <t>1FC|JA1</t>
+  </si>
+  <si>
     <t>Biezmienow Małgorzata</t>
   </si>
   <si>
     <t>2TFB</t>
   </si>
   <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Derezińska Katarzyna</t>
+  </si>
+  <si>
+    <t>1FA|JA1</t>
+  </si>
+  <si>
     <t>2FC</t>
   </si>
   <si>
-    <t>37</t>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Hudziec Agnieszka</t>
   </si>
   <si>
     <t>4TH</t>
@@ -345,6 +384,12 @@
     <t>2FC|JA2</t>
   </si>
   <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Zaleska Magdalena</t>
+  </si>
+  <si>
     <t>vacat niemiecki</t>
   </si>
   <si>
@@ -378,9 +423,24 @@
     <t>2S</t>
   </si>
   <si>
+    <t>5TF</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Nowak Magdalena</t>
+  </si>
+  <si>
+    <t>próbny egzamin maturalny w klasie 5TF</t>
+  </si>
+  <si>
     <t>1S|JA2</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2WB</t>
   </si>
   <si>
@@ -399,9 +459,30 @@
     <t>1TFA</t>
   </si>
   <si>
+    <t>Najwer Maciej</t>
+  </si>
+  <si>
+    <t>Doradztwo zawodowe</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Krzemińska Beata</t>
+  </si>
+  <si>
     <t>1WA</t>
   </si>
   <si>
+    <t>Rozwój zainteresowań i kreatywności - obsługa klienta</t>
+  </si>
+  <si>
+    <t>prF3</t>
+  </si>
+  <si>
+    <t>Sobczak Anna</t>
+  </si>
+  <si>
     <t>1TH</t>
   </si>
   <si>
@@ -453,9 +534,6 @@
     <t>14:50-14:55</t>
   </si>
   <si>
-    <t>Sałdyka Karolina</t>
-  </si>
-  <si>
     <t>parter</t>
   </si>
   <si>
@@ -471,16 +549,19 @@
     <t>16:30-16:35</t>
   </si>
   <si>
+    <t>08:45-08:50</t>
+  </si>
+  <si>
     <t>09:35-09:40</t>
   </si>
   <si>
+    <t>Piątek - Pawłowska Bożena</t>
+  </si>
+  <si>
     <t>12:10-12:25</t>
   </si>
   <si>
     <t>07:55-08:00</t>
-  </si>
-  <si>
-    <t>08:45-08:50</t>
   </si>
   <si>
     <t>10:25-10:35</t>
@@ -933,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{6a434e09-bb93-43ff-b786-5d27a360bd67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7fb13dd1-40c1-46fe-a593-8e3bfbbe340d}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -957,8 +1038,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{074fe2ca-15c1-4abf-810f-d69977cbfb84}">
-  <dimension ref="A1:I92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a5ea86c2-c6ee-4e01-8550-81856641c395}">
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -968,7 +1049,7 @@
     <col min="2" max="2" width="14.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="27.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="31.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="49.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
     <col min="7" max="7" width="27.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="72.1428571428571" customWidth="1"/>
@@ -2416,7 +2497,7 @@
         <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -2578,25 +2659,25 @@
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
         <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15">
@@ -2604,7 +2685,7 @@
         <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
         <v>85</v>
@@ -2613,19 +2694,19 @@
         <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="H57" t="s">
         <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15">
@@ -2633,28 +2714,28 @@
         <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G58" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15">
@@ -2662,28 +2743,28 @@
         <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
         <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
         <v>88</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="H59" t="s">
         <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15">
@@ -2691,28 +2772,28 @@
         <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15">
@@ -2720,28 +2801,28 @@
         <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="H61" t="s">
         <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15">
@@ -2749,28 +2830,28 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="H62" t="s">
         <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15">
@@ -2778,28 +2859,28 @@
         <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H63" t="s">
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
@@ -2807,22 +2888,22 @@
         <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H64" t="s">
         <v>18</v>
@@ -2836,28 +2917,28 @@
         <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H65" t="s">
         <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15">
@@ -2865,22 +2946,22 @@
         <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s">
         <v>18</v>
@@ -2894,28 +2975,28 @@
         <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="H67" t="s">
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15">
@@ -2923,28 +3004,28 @@
         <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E68" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="H68" t="s">
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15">
@@ -2952,22 +3033,22 @@
         <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s">
         <v>18</v>
@@ -2978,132 +3059,132 @@
     </row>
     <row r="70" spans="1:9" ht="15">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s">
         <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s">
         <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s">
         <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s">
         <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
         <v>39</v>
@@ -3112,7 +3193,7 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H74" t="s">
         <v>18</v>
@@ -3123,190 +3204,190 @@
     </row>
     <row r="75" spans="1:9" ht="15">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
         <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E76" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="H76" t="s">
         <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E77" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H77" t="s">
         <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E78" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="H79" t="s">
         <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="H80" t="s">
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s">
         <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E81" t="s">
         <v>87</v>
@@ -3315,7 +3396,7 @@
         <v>88</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s">
         <v>18</v>
@@ -3326,45 +3407,45 @@
     </row>
     <row r="82" spans="1:9" ht="15">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
         <v>87</v>
@@ -3373,7 +3454,7 @@
         <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s">
         <v>18</v>
@@ -3384,16 +3465,16 @@
     </row>
     <row r="84" spans="1:9" ht="15">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
         <v>87</v>
@@ -3402,7 +3483,7 @@
         <v>88</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s">
         <v>18</v>
@@ -3413,132 +3494,132 @@
     </row>
     <row r="85" spans="1:9" ht="15">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H85" t="s">
         <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="H86" t="s">
         <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E87" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s">
         <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="H88" t="s">
         <v>18</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
         <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
@@ -3547,36 +3628,36 @@
         <v>88</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="H89" t="s">
         <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="H90" t="s">
         <v>18</v>
@@ -3587,59 +3668,233 @@
     </row>
     <row r="91" spans="1:9" ht="15">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H91" t="s">
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
         <v>85</v>
       </c>
       <c r="D92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" t="s">
+        <v>147</v>
+      </c>
+      <c r="G92" t="s">
+        <v>148</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15">
+      <c r="A93" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" t="s">
+        <v>149</v>
+      </c>
+      <c r="E93" t="s">
+        <v>150</v>
+      </c>
+      <c r="F93" t="s">
+        <v>151</v>
+      </c>
+      <c r="G93" t="s">
+        <v>152</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F94" t="s">
+        <v>88</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15">
+      <c r="A95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" t="s">
+        <v>88</v>
+      </c>
+      <c r="G95" t="s">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" t="s">
+        <v>125</v>
+      </c>
+      <c r="G96" t="s">
         <v>126</v>
       </c>
-      <c r="E92" t="s">
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15">
+      <c r="A97" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" t="s">
         <v>87</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F97" t="s">
         <v>88</v>
       </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" t="s">
-        <v>18</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="G97" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15">
+      <c r="A98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" t="s">
+        <v>88</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3651,7 +3906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ebc29d31-6808-4432-af35-03e055b71689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{636f1567-8039-4007-9436-9322a47f94a1}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -3674,16 +3929,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -3700,19 +3955,19 @@
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -3735,8 +3990,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7464f4a2-b575-48df-b348-51d277490719}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1251bc41-719b-4582-9cb1-d80ebd9d4032}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -3746,7 +4001,7 @@
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="25.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3755,13 +4010,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -3775,16 +4030,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -3795,16 +4050,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -3815,16 +4070,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -3835,16 +4090,16 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -3855,13 +4110,13 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -3875,13 +4130,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -3895,16 +4150,16 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -3915,16 +4170,16 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -3935,16 +4190,16 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -3952,19 +4207,19 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -3972,16 +4227,16 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -3992,16 +4247,16 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -4012,16 +4267,16 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -4032,16 +4287,16 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -4052,16 +4307,16 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -4072,16 +4327,16 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -4092,21 +4347,61 @@
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
         <v>18</v>
       </c>
     </row>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="200">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -417,12 +417,51 @@
     <t>1K|JA2</t>
   </si>
   <si>
+    <t>2CA</t>
+  </si>
+  <si>
+    <t>1TFB|JA2</t>
+  </si>
+  <si>
+    <t>Zając Ewa</t>
+  </si>
+  <si>
     <t>3FB</t>
   </si>
   <si>
+    <t>Najwer Maciej</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>1CB|JA2</t>
+  </si>
+  <si>
     <t>2S</t>
   </si>
   <si>
+    <t>Krzemińska Beata</t>
+  </si>
+  <si>
+    <t>3TFB</t>
+  </si>
+  <si>
+    <t>Projektowanie fryzur</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Leńczowska Iwona</t>
+  </si>
+  <si>
+    <t>Szkolenie w doskonaleniu zasada oceniania CKE</t>
+  </si>
+  <si>
     <t>5TF</t>
   </si>
   <si>
@@ -435,6 +474,9 @@
     <t>próbny egzamin maturalny w klasie 5TF</t>
   </si>
   <si>
+    <t>1S|JA1</t>
+  </si>
+  <si>
     <t>1S|JA2</t>
   </si>
   <si>
@@ -444,7 +486,16 @@
     <t>2WB</t>
   </si>
   <si>
-    <t>3TFB</t>
+    <t>Nowaczyk Agnieszka</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>12, 17:25-18:10</t>
+  </si>
+  <si>
+    <t>13, 18:15-19:00</t>
   </si>
   <si>
     <t>23.01.2026</t>
@@ -453,22 +504,25 @@
     <t>2TH</t>
   </si>
   <si>
+    <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
+  </si>
+  <si>
+    <t>1K|JA1</t>
+  </si>
+  <si>
     <t>1WB</t>
   </si>
   <si>
+    <t>Doradztwo zawodowe</t>
+  </si>
+  <si>
     <t>1TFA</t>
   </si>
   <si>
-    <t>Najwer Maciej</t>
-  </si>
-  <si>
-    <t>Doradztwo zawodowe</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Krzemińska Beata</t>
+    <t>1FB|JA1</t>
+  </si>
+  <si>
+    <t>1CA|JA1</t>
   </si>
   <si>
     <t>1WA</t>
@@ -519,9 +573,6 @@
     <t>piętro_1</t>
   </si>
   <si>
-    <t>Nowaczyk Agnieszka</t>
-  </si>
-  <si>
     <t>18:10-18:15</t>
   </si>
   <si>
@@ -561,10 +612,16 @@
     <t>12:10-12:25</t>
   </si>
   <si>
+    <t>10:25-10:35</t>
+  </si>
+  <si>
+    <t>Skarupa Agnieszka</t>
+  </si>
+  <si>
+    <t>Bujanowska Iwona</t>
+  </si>
+  <si>
     <t>07:55-08:00</t>
-  </si>
-  <si>
-    <t>10:25-10:35</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7fb13dd1-40c1-46fe-a593-8e3bfbbe340d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{81e7716b-1ecf-4f77-b1fe-f4b890eb4132}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1038,8 +1095,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a5ea86c2-c6ee-4e01-8550-81856641c395}">
-  <dimension ref="A1:I98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{183e967e-b4aa-493a-887b-316779dbd626}">
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -1049,7 +1106,7 @@
     <col min="2" max="2" width="14.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="27.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="49.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="55.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
     <col min="7" max="7" width="27.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="72.1428571428571" customWidth="1"/>
@@ -3207,28 +3264,28 @@
         <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
         <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
         <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
@@ -3236,28 +3293,28 @@
         <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H76" t="s">
         <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15">
@@ -3265,28 +3322,28 @@
         <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
         <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15">
@@ -3294,28 +3351,28 @@
         <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15">
@@ -3323,28 +3380,28 @@
         <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" t="s">
         <v>137</v>
       </c>
-      <c r="E79" t="s">
-        <v>39</v>
-      </c>
-      <c r="F79" t="s">
-        <v>58</v>
-      </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s">
         <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15">
@@ -3352,28 +3409,28 @@
         <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15">
@@ -3381,22 +3438,22 @@
         <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s">
         <v>18</v>
@@ -3410,28 +3467,28 @@
         <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G82" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15">
@@ -3439,170 +3496,170 @@
         <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E83" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H83" t="s">
         <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E84" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H84" t="s">
         <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E85" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H85" t="s">
         <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="H86" t="s">
         <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H87" t="s">
         <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15">
       <c r="A88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" t="s">
         <v>141</v>
       </c>
-      <c r="B88" t="s">
-        <v>37</v>
-      </c>
-      <c r="C88" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" t="s">
-        <v>137</v>
-      </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F88" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="G88" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I88" t="s">
         <v>32</v>
@@ -3610,25 +3667,25 @@
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E89" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="H89" t="s">
         <v>18</v>
@@ -3639,83 +3696,83 @@
     </row>
     <row r="90" spans="1:9" ht="15">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E90" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="F90" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I90" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D91" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="E91" t="s">
         <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="H91" t="s">
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="G92" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="H92" t="s">
         <v>18</v>
@@ -3726,45 +3783,45 @@
     </row>
     <row r="93" spans="1:9" ht="15">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
         <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G93" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="H93" t="s">
         <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
         <v>85</v>
       </c>
       <c r="D94" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
         <v>87</v>
@@ -3784,16 +3841,16 @@
     </row>
     <row r="95" spans="1:9" ht="15">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
         <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="E95" t="s">
         <v>87</v>
@@ -3813,25 +3870,25 @@
     </row>
     <row r="96" spans="1:9" ht="15">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E96" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="H96" t="s">
         <v>18</v>
@@ -3842,16 +3899,16 @@
     </row>
     <row r="97" spans="1:9" ht="15">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
         <v>85</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E97" t="s">
         <v>87</v>
@@ -3871,30 +3928,842 @@
     </row>
     <row r="98" spans="1:9" ht="15">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15">
+      <c r="A99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" t="s">
+        <v>155</v>
+      </c>
+      <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" t="s">
+        <v>55</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" t="s">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15">
+      <c r="A101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" t="s">
+        <v>160</v>
+      </c>
+      <c r="F101" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15">
+      <c r="A102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" t="s">
+        <v>119</v>
+      </c>
+      <c r="E102" t="s">
+        <v>39</v>
+      </c>
+      <c r="F102" t="s">
+        <v>45</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15">
+      <c r="A103" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" t="s">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>131</v>
+      </c>
+      <c r="E104" t="s">
+        <v>160</v>
+      </c>
+      <c r="F104" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" t="s">
+        <v>161</v>
+      </c>
+      <c r="E105" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105" t="s">
+        <v>109</v>
+      </c>
+      <c r="H105" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15">
+      <c r="A106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" t="s">
+        <v>109</v>
+      </c>
+      <c r="H106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" t="s">
+        <v>162</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" t="s">
+        <v>163</v>
+      </c>
+      <c r="F108" t="s">
+        <v>143</v>
+      </c>
+      <c r="G108" t="s">
+        <v>140</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15">
+      <c r="A109" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" t="s">
+        <v>58</v>
+      </c>
+      <c r="G109" t="s">
+        <v>109</v>
+      </c>
+      <c r="H109" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15">
+      <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" t="s">
+        <v>58</v>
+      </c>
+      <c r="G110" t="s">
+        <v>109</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15">
+      <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" t="s">
+        <v>164</v>
+      </c>
+      <c r="E111" t="s">
+        <v>87</v>
+      </c>
+      <c r="F111" t="s">
+        <v>88</v>
+      </c>
+      <c r="G111" t="s">
+        <v>135</v>
+      </c>
+      <c r="H111" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" t="s">
+        <v>45</v>
+      </c>
+      <c r="G112" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15">
+      <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" t="s">
+        <v>138</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15">
+      <c r="A114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="s">
+        <v>85</v>
+      </c>
+      <c r="D114" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114" t="s">
+        <v>87</v>
+      </c>
+      <c r="F114" t="s">
+        <v>88</v>
+      </c>
+      <c r="G114" t="s">
+        <v>135</v>
+      </c>
+      <c r="H114" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" t="s">
+        <v>45</v>
+      </c>
+      <c r="G115" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" t="s">
+        <v>46</v>
+      </c>
+      <c r="D116" t="s">
+        <v>165</v>
+      </c>
+      <c r="E116" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15">
+      <c r="A117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15">
+      <c r="A118" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F118" t="s">
+        <v>143</v>
+      </c>
+      <c r="G118" t="s">
+        <v>140</v>
+      </c>
+      <c r="H118" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15">
+      <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" t="s">
+        <v>45</v>
+      </c>
+      <c r="G119" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15">
+      <c r="A120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" t="s">
+        <v>45</v>
+      </c>
+      <c r="G120" t="s">
+        <v>55</v>
+      </c>
+      <c r="H120" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15">
+      <c r="A121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" t="s">
+        <v>85</v>
+      </c>
+      <c r="D121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F121" t="s">
+        <v>169</v>
+      </c>
+      <c r="G121" t="s">
+        <v>170</v>
+      </c>
+      <c r="H121" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15">
+      <c r="A122" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" t="s">
+        <v>87</v>
+      </c>
+      <c r="F122" t="s">
+        <v>88</v>
+      </c>
+      <c r="G122" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15">
+      <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>61</v>
+      </c>
+      <c r="C123" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" t="s">
+        <v>87</v>
+      </c>
+      <c r="F123" t="s">
+        <v>88</v>
+      </c>
+      <c r="G123" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15">
+      <c r="A124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" t="s">
+        <v>122</v>
+      </c>
+      <c r="D124" t="s">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" t="s">
+        <v>125</v>
+      </c>
+      <c r="G124" t="s">
+        <v>126</v>
+      </c>
+      <c r="H124" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15">
+      <c r="A125" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" t="s">
+        <v>171</v>
+      </c>
+      <c r="E125" t="s">
+        <v>87</v>
+      </c>
+      <c r="F125" t="s">
+        <v>88</v>
+      </c>
+      <c r="G125" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15">
+      <c r="A126" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" t="s">
         <v>64</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C126" t="s">
         <v>85</v>
       </c>
-      <c r="D98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D126" t="s">
+        <v>171</v>
+      </c>
+      <c r="E126" t="s">
         <v>87</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F126" t="s">
         <v>88</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G126" t="s">
         <v>77</v>
       </c>
-      <c r="H98" t="s">
-        <v>18</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="H126" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3906,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{636f1567-8039-4007-9436-9322a47f94a1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b7c4b0ac-fc96-4f19-ba17-e17f77fc58b7}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -3929,16 +4798,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -3955,19 +4824,19 @@
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -3990,8 +4859,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1251bc41-719b-4582-9cb1-d80ebd9d4032}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7b18f0dd-61d7-4e03-9680-6716057e6931}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -4010,13 +4879,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -4030,16 +4899,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4050,16 +4919,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -4070,16 +4939,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4090,16 +4959,16 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -4110,13 +4979,13 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -4130,13 +4999,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -4150,13 +5019,13 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
         <v>103</v>
@@ -4170,16 +5039,16 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -4190,13 +5059,13 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
         <v>117</v>
@@ -4210,13 +5079,13 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
         <v>126</v>
@@ -4230,13 +5099,13 @@
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -4250,16 +5119,16 @@
         <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -4270,16 +5139,16 @@
         <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -4287,19 +5156,19 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -4307,16 +5176,16 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -4327,16 +5196,16 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -4347,16 +5216,16 @@
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -4367,16 +5236,16 @@
     </row>
     <row r="19" spans="1:6" ht="15">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -4387,21 +5256,81 @@
     </row>
     <row r="20" spans="1:6" ht="15">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
         <v>18</v>
       </c>
     </row>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="208">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -537,6 +537,18 @@
     <t>Sobczak Anna</t>
   </si>
   <si>
+    <t>vacat matematyka</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Młynarczyk Paweł</t>
+  </si>
+  <si>
     <t>1TH</t>
   </si>
   <si>
@@ -622,6 +634,18 @@
   </si>
   <si>
     <t>07:55-08:00</t>
+  </si>
+  <si>
+    <t>Świerzewicz Katarzyna</t>
+  </si>
+  <si>
+    <t>Smirnow-Zechman Eleonora</t>
+  </si>
+  <si>
+    <t>Jarek Zbigniew</t>
+  </si>
+  <si>
+    <t>Danielewski Paweł</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{81e7716b-1ecf-4f77-b1fe-f4b890eb4132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{05983689-5a4b-44b3-9b9a-cf08620bc286}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1095,8 +1119,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{183e967e-b4aa-493a-887b-316779dbd626}">
-  <dimension ref="A1:I126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{89fb3ad8-08c8-4950-ad30-5caa5d27f2be}">
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -4630,25 +4654,25 @@
         <v>60</v>
       </c>
       <c r="C122" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D122" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="E122" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="F122" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="G122" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="H122" t="s">
         <v>18</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15">
@@ -4656,7 +4680,7 @@
         <v>158</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C123" t="s">
         <v>85</v>
@@ -4688,25 +4712,25 @@
         <v>61</v>
       </c>
       <c r="C124" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="D124" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="E124" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="F124" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H124" t="s">
         <v>18</v>
       </c>
       <c r="I124" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15">
@@ -4714,28 +4738,28 @@
         <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C125" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="D125" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E125" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="F125" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="G125" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="H125" t="s">
         <v>18</v>
       </c>
       <c r="I125" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15">
@@ -4743,27 +4767,114 @@
         <v>158</v>
       </c>
       <c r="B126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" t="s">
+        <v>122</v>
+      </c>
+      <c r="D126" t="s">
+        <v>123</v>
+      </c>
+      <c r="E126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F126" t="s">
+        <v>125</v>
+      </c>
+      <c r="G126" t="s">
+        <v>126</v>
+      </c>
+      <c r="H126" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15">
+      <c r="A127" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" t="s">
+        <v>85</v>
+      </c>
+      <c r="D127" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127" t="s">
+        <v>88</v>
+      </c>
+      <c r="G127" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15">
+      <c r="A128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" t="s">
+        <v>172</v>
+      </c>
+      <c r="E128" t="s">
+        <v>147</v>
+      </c>
+      <c r="F128" t="s">
+        <v>173</v>
+      </c>
+      <c r="G128" t="s">
+        <v>174</v>
+      </c>
+      <c r="H128" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15">
+      <c r="A129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" t="s">
         <v>64</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C129" t="s">
         <v>85</v>
       </c>
-      <c r="D126" t="s">
-        <v>171</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="D129" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" t="s">
         <v>87</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F129" t="s">
         <v>88</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G129" t="s">
         <v>77</v>
       </c>
-      <c r="H126" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" t="s">
+      <c r="H129" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4775,7 +4886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b7c4b0ac-fc96-4f19-ba17-e17f77fc58b7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e0d8ffbc-9188-4692-9a62-88a255e9ba80}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -4798,16 +4909,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -4827,16 +4938,16 @@
         <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4859,7 +4970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7b18f0dd-61d7-4e03-9680-6716057e6931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7311d52f-0eec-4cc3-9b22-c72de9da26a9}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -4870,7 +4981,7 @@
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="25.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="26.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4879,13 +4990,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -4899,13 +5010,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
         <v>154</v>
@@ -4919,13 +5030,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
         <v>154</v>
@@ -4939,13 +5050,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
         <v>154</v>
@@ -4959,16 +5070,16 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -4979,13 +5090,13 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -4999,13 +5110,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -5019,13 +5130,13 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
         <v>103</v>
@@ -5039,16 +5150,16 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -5059,13 +5170,13 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
         <v>117</v>
@@ -5079,13 +5190,13 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
         <v>126</v>
@@ -5099,13 +5210,13 @@
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -5119,16 +5230,16 @@
         <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -5139,16 +5250,16 @@
         <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -5159,16 +5270,16 @@
         <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -5179,13 +5290,13 @@
         <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -5199,13 +5310,13 @@
         <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
         <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -5219,16 +5330,16 @@
         <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5239,16 +5350,16 @@
         <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -5259,16 +5370,16 @@
         <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -5279,16 +5390,16 @@
         <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -5299,16 +5410,16 @@
         <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -5319,16 +5430,16 @@
         <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s">
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="195">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
   <si>
-    <t>Okres: 19.01.2026 (pon.) - 25.01.2026 (niedz.)</t>
+    <t>Okres: 26.01.2026 (pon.) - 31.01.2026 (sob.)</t>
   </si>
   <si>
     <t>Dzień</t>
@@ -57,12 +57,48 @@
     <t>Forma płatności</t>
   </si>
   <si>
-    <t>19.01.2026</t>
+    <t>26.01.2026</t>
   </si>
   <si>
     <t>1, 08:00-08:45</t>
   </si>
   <si>
+    <t>Granatowska Mariola</t>
+  </si>
+  <si>
+    <t>1CA|JA2</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Uczniowie przychodzą później</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Krzemińska Beata</t>
+  </si>
+  <si>
+    <t>4TFB</t>
+  </si>
+  <si>
+    <t>Zajęcia praktyczne - projektowanie i wykonywanie fryzur</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Szkolenie w doskonaleniu zasada oceniania CKE</t>
+  </si>
+  <si>
     <t>Stępień Krystyna</t>
   </si>
   <si>
@@ -75,18 +111,51 @@
     <t>34</t>
   </si>
   <si>
-    <t>Uczniowie przychodzą później</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>2, 08:50-09:35</t>
   </si>
   <si>
+    <t>Filusz Marzena</t>
+  </si>
+  <si>
+    <t>3TFA</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2FA|JA1</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Biezmienow Małgorzata</t>
+  </si>
+  <si>
+    <t>Bezpłatne</t>
+  </si>
+  <si>
+    <t>Hudziec Agnieszka</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Zaleska Magdalena</t>
+  </si>
+  <si>
+    <t>Dodatkowo płatne</t>
+  </si>
+  <si>
     <t>1CA</t>
   </si>
   <si>
@@ -99,553 +168,445 @@
     <t>Nowak Damiana</t>
   </si>
   <si>
-    <t>Bezpłatne</t>
-  </si>
-  <si>
     <t>3, 09:40-10:25</t>
   </si>
   <si>
+    <t>Rozwój kompetencji zawodowych - matematyka w działalności gospodarczej</t>
+  </si>
+  <si>
+    <t>3FA</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Zastępstwo</t>
+  </si>
+  <si>
+    <t>p. Zaleska, historia za lekcję 8</t>
+  </si>
+  <si>
     <t>Kaszewski Longin</t>
   </si>
   <si>
-    <t>3S</t>
+    <t>Dalach Krystyna</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Ulanowska Magdalena</t>
+  </si>
+  <si>
+    <t>4, 10:35-11:20</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>Karczmarz Aleksandra</t>
+  </si>
+  <si>
+    <t>1FB|JA2</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Biczysko Wojciech</t>
+  </si>
+  <si>
+    <t>Projektowanie fryzur</t>
+  </si>
+  <si>
+    <t>3CA|CH</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>3CA|DZ</t>
+  </si>
+  <si>
+    <t>5, 11:25-12:10</t>
+  </si>
+  <si>
+    <t>3K|JA2</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Wojciechowski Łukasz</t>
+  </si>
+  <si>
+    <t>Wójcik Kamil</t>
+  </si>
+  <si>
+    <t>3TH</t>
+  </si>
+  <si>
+    <t>Obsługa klientów</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Skarupa Agnieszka</t>
+  </si>
+  <si>
+    <t>2CB</t>
+  </si>
+  <si>
+    <t>6, 12:25-13:10</t>
+  </si>
+  <si>
+    <t>2FC|JA1</t>
+  </si>
+  <si>
+    <t>Rozwój kompetencji zawodowych - barber</t>
+  </si>
+  <si>
+    <t>prF3</t>
+  </si>
+  <si>
+    <t>Sobczak Anna</t>
+  </si>
+  <si>
+    <t>2TH</t>
+  </si>
+  <si>
+    <t>p. Socha, za lekcję 7</t>
+  </si>
+  <si>
+    <t>2FC|JA2</t>
   </si>
   <si>
     <t>Język angielski zawodowy</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Granatowska Mariola</t>
-  </si>
-  <si>
-    <t>Dodatkowo płatne</t>
-  </si>
-  <si>
-    <t>Pietrycha Małgorzata</t>
-  </si>
-  <si>
-    <t>2FC|JA1</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>sg2</t>
-  </si>
-  <si>
-    <t>4, 10:35-11:20</t>
-  </si>
-  <si>
-    <t>1FB|JA2</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
+    <t>Technika w produkcji cukierniczej</t>
+  </si>
+  <si>
+    <t>prs</t>
+  </si>
+  <si>
+    <t>p. Kończyńska, RKZ za lekcję 10</t>
+  </si>
+  <si>
+    <t>7, 13:15-14:00</t>
+  </si>
+  <si>
+    <t>3K</t>
+  </si>
+  <si>
+    <t>Uczniowie zwolnieni do domu</t>
+  </si>
+  <si>
+    <t>1FB|JA1</t>
+  </si>
+  <si>
+    <t>Zając Ewa</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Nowak Magdalena</t>
+  </si>
+  <si>
+    <t>8, 14:05-14:50</t>
+  </si>
+  <si>
+    <t>3TFB</t>
+  </si>
+  <si>
+    <t>2TFA</t>
+  </si>
+  <si>
+    <t>27.01.2026</t>
+  </si>
+  <si>
+    <t>vacat Edukacja zdrowotna EDU</t>
+  </si>
+  <si>
+    <t>3M|edu</t>
+  </si>
+  <si>
+    <t>Edukacja zdrowotna</t>
+  </si>
+  <si>
+    <t>3CA|edu</t>
+  </si>
+  <si>
+    <t>3TFA|edu</t>
+  </si>
+  <si>
+    <t>3FA|edu</t>
+  </si>
+  <si>
+    <t>3CA|JA1</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Kopij Marcin</t>
+  </si>
+  <si>
+    <t>2WA</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5TF</t>
+  </si>
+  <si>
+    <t>Wiedza o społeczeństwie</t>
+  </si>
+  <si>
+    <t>2FB</t>
+  </si>
+  <si>
+    <t>Edukacja obywatelska</t>
+  </si>
+  <si>
+    <t>1TFA|JA1</t>
+  </si>
+  <si>
+    <t>Historia i teraźniejszość</t>
+  </si>
+  <si>
+    <t>1TFA</t>
+  </si>
+  <si>
+    <t>1TFB|JA2</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>1CA|JA1</t>
+  </si>
+  <si>
+    <t>1WB</t>
+  </si>
+  <si>
+    <t>Młynarczyk Paweł</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>9, 14:55-15:40</t>
+  </si>
+  <si>
+    <t>1TH|JA2</t>
+  </si>
+  <si>
+    <t>1WB|JN2</t>
+  </si>
+  <si>
+    <t>10, 15:45-16:30</t>
+  </si>
+  <si>
+    <t>1K|JA1</t>
+  </si>
+  <si>
+    <t>1K|JA2</t>
+  </si>
+  <si>
+    <t>11, 16:35-17:20</t>
+  </si>
+  <si>
+    <t>5TH</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>28.01.2026</t>
+  </si>
+  <si>
+    <t>2CA|edu</t>
+  </si>
+  <si>
+    <t>2WA|edu</t>
+  </si>
+  <si>
+    <t>2S|edu</t>
+  </si>
+  <si>
+    <t>2FA|edu</t>
+  </si>
+  <si>
+    <t>2FC|edu</t>
+  </si>
+  <si>
+    <t>Okienko dla uczniów</t>
+  </si>
+  <si>
+    <t>Leńczowska Iwona</t>
+  </si>
+  <si>
+    <t>2FA</t>
+  </si>
+  <si>
+    <t>Techniki fryzjerskie</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1FC|JA1</t>
+  </si>
+  <si>
+    <t>2CA</t>
+  </si>
+  <si>
+    <t>1FA|JA1</t>
+  </si>
+  <si>
+    <t>1FC</t>
+  </si>
+  <si>
+    <t>vacat niemiecki</t>
+  </si>
+  <si>
+    <t>1WA|JN2</t>
+  </si>
+  <si>
+    <t>Język niemiecki</t>
+  </si>
+  <si>
+    <t>29.01.2026</t>
+  </si>
+  <si>
+    <t>Danielewski Paweł</t>
+  </si>
+  <si>
+    <t>3TFA|JA2</t>
+  </si>
+  <si>
+    <t>Zajęcia praktyczne - wykonywanie usług fryzjerskich</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Brak</t>
+  </si>
+  <si>
+    <t>Jaworska Edyta</t>
+  </si>
+  <si>
+    <t>3TFA|JA1</t>
+  </si>
+  <si>
+    <t>prf2</t>
+  </si>
+  <si>
+    <t>3FB</t>
   </si>
   <si>
     <t>Technologie produkcji cukierniczej</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Kończyńska Małgorzata</t>
-  </si>
-  <si>
-    <t>5, 11:25-12:10</t>
-  </si>
-  <si>
-    <t>3TH</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Karczmarz Aleksandra</t>
-  </si>
-  <si>
-    <t>2CB</t>
-  </si>
-  <si>
-    <t>Technika w produkcji cukierniczej</t>
-  </si>
-  <si>
-    <t>prs</t>
-  </si>
-  <si>
-    <t>Zastępstwo</t>
-  </si>
-  <si>
-    <t>p. Kończyńska, za 10 lekcję</t>
-  </si>
-  <si>
-    <t>6, 12:25-13:10</t>
-  </si>
-  <si>
-    <t>3FA</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Wojciechowski Łukasz</t>
-  </si>
-  <si>
-    <t>3TH|DZ</t>
-  </si>
-  <si>
-    <t>Antoszewska Joanna</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>7, 13:15-14:00</t>
-  </si>
-  <si>
-    <t>8, 14:05-14:50</t>
-  </si>
-  <si>
-    <t>9, 14:55-15:40</t>
-  </si>
-  <si>
-    <t>1FB|DZ</t>
-  </si>
-  <si>
-    <t>10, 15:45-16:30</t>
-  </si>
-  <si>
-    <t>11, 16:35-17:20</t>
-  </si>
-  <si>
-    <t>20.01.2026</t>
-  </si>
-  <si>
-    <t>vacat Edukacja zdrowotna EDU</t>
-  </si>
-  <si>
-    <t>3M|edu</t>
-  </si>
-  <si>
-    <t>Edukacja zdrowotna</t>
-  </si>
-  <si>
-    <t>Mocarski Arkadiusz</t>
-  </si>
-  <si>
-    <t>3CA|edu</t>
-  </si>
-  <si>
-    <t>3TFA|edu</t>
-  </si>
-  <si>
-    <t>3FA|edu</t>
-  </si>
-  <si>
-    <t>3CA|JA1</t>
-  </si>
-  <si>
-    <t>3K</t>
-  </si>
-  <si>
-    <t>3CA|DZ</t>
-  </si>
-  <si>
-    <t>sg1</t>
-  </si>
-  <si>
-    <t>Uczniowie zwolnieni do domu</t>
-  </si>
-  <si>
-    <t>uczniowie zapisani na religię zgłaszają się do biblioteki w oczekiwaniu na 9 lekcję</t>
-  </si>
-  <si>
-    <t>Płatek Krzysztof</t>
-  </si>
-  <si>
-    <t>3FB|CH</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Doliński Mirosław</t>
-  </si>
-  <si>
-    <t>3CA|CH</t>
-  </si>
-  <si>
-    <t>3S|CH</t>
-  </si>
-  <si>
-    <t>Smereka Alicja</t>
-  </si>
-  <si>
-    <t>3WA</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2FB|DZ</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>1TFB</t>
-  </si>
-  <si>
-    <t>21.01.2026</t>
-  </si>
-  <si>
-    <t>3TFA</t>
-  </si>
-  <si>
-    <t>2CA|edu</t>
-  </si>
-  <si>
-    <t>2WA|edu</t>
-  </si>
-  <si>
-    <t>2S|edu</t>
-  </si>
-  <si>
-    <t>2FA|edu</t>
-  </si>
-  <si>
-    <t>2FC|edu</t>
-  </si>
-  <si>
-    <t>1TFA|JA1</t>
-  </si>
-  <si>
-    <t>4TFB</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Sałdyka Karolina</t>
-  </si>
-  <si>
-    <t>1TH|JA2</t>
-  </si>
-  <si>
-    <t>2TFA</t>
-  </si>
-  <si>
-    <t>Biznes i zarządzanie</t>
+    <t>1CB|JA2</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>1S|JA1</t>
+  </si>
+  <si>
+    <t>1S|JA2</t>
+  </si>
+  <si>
+    <t>30.01.2026</t>
+  </si>
+  <si>
+    <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
+  </si>
+  <si>
+    <t>Godzina</t>
+  </si>
+  <si>
+    <t>Nauczyciel</t>
+  </si>
+  <si>
+    <t>Dziennik zajęć innych</t>
+  </si>
+  <si>
+    <t>Opis zajęć</t>
+  </si>
+  <si>
+    <t>12:25-13:55</t>
+  </si>
+  <si>
+    <t>Karolina Tymon - 5TH - indywidualne nauczanie</t>
+  </si>
+  <si>
+    <t>matematyka</t>
+  </si>
+  <si>
+    <t>Miejsce dyżuru</t>
+  </si>
+  <si>
+    <t>08:45-08:50</t>
+  </si>
+  <si>
+    <t>piętro_1</t>
+  </si>
+  <si>
+    <t>10:25-10:35</t>
+  </si>
+  <si>
+    <t>piętro_2</t>
+  </si>
+  <si>
+    <t>13:10-13:15</t>
+  </si>
+  <si>
+    <t>Derezińska Katarzyna</t>
+  </si>
+  <si>
+    <t>14:50-14:55</t>
+  </si>
+  <si>
+    <t>piętro_3</t>
   </si>
   <si>
     <t>Socha Dariusz</t>
   </si>
   <si>
-    <t>1FC|JA1</t>
-  </si>
-  <si>
-    <t>Biezmienow Małgorzata</t>
-  </si>
-  <si>
-    <t>2TFB</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Derezińska Katarzyna</t>
-  </si>
-  <si>
-    <t>1FA|JA1</t>
-  </si>
-  <si>
-    <t>2FC</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Hudziec Agnieszka</t>
-  </si>
-  <si>
-    <t>4TH</t>
-  </si>
-  <si>
-    <t>2FC|JA2</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Zaleska Magdalena</t>
-  </si>
-  <si>
-    <t>vacat niemiecki</t>
-  </si>
-  <si>
-    <t>1WA|JN2</t>
-  </si>
-  <si>
-    <t>Język niemiecki</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Fiodorów Małgorzata</t>
-  </si>
-  <si>
-    <t>2WA</t>
-  </si>
-  <si>
-    <t>5TH|t.hand.</t>
-  </si>
-  <si>
-    <t>22.01.2026</t>
-  </si>
-  <si>
-    <t>1K|JA2</t>
-  </si>
-  <si>
-    <t>2CA</t>
-  </si>
-  <si>
-    <t>1TFB|JA2</t>
-  </si>
-  <si>
-    <t>Zając Ewa</t>
-  </si>
-  <si>
-    <t>3FB</t>
-  </si>
-  <si>
-    <t>Najwer Maciej</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>1CB|JA2</t>
-  </si>
-  <si>
-    <t>2S</t>
-  </si>
-  <si>
-    <t>Krzemińska Beata</t>
-  </si>
-  <si>
-    <t>3TFB</t>
-  </si>
-  <si>
-    <t>Projektowanie fryzur</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Leńczowska Iwona</t>
-  </si>
-  <si>
-    <t>Szkolenie w doskonaleniu zasada oceniania CKE</t>
-  </si>
-  <si>
-    <t>5TF</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Nowak Magdalena</t>
-  </si>
-  <si>
-    <t>próbny egzamin maturalny w klasie 5TF</t>
-  </si>
-  <si>
-    <t>1S|JA1</t>
-  </si>
-  <si>
-    <t>1S|JA2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2WB</t>
-  </si>
-  <si>
-    <t>Nowaczyk Agnieszka</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>12, 17:25-18:10</t>
-  </si>
-  <si>
-    <t>13, 18:15-19:00</t>
-  </si>
-  <si>
-    <t>23.01.2026</t>
-  </si>
-  <si>
-    <t>2TH</t>
-  </si>
-  <si>
-    <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
-  </si>
-  <si>
-    <t>1K|JA1</t>
-  </si>
-  <si>
-    <t>1WB</t>
-  </si>
-  <si>
-    <t>Doradztwo zawodowe</t>
-  </si>
-  <si>
-    <t>1TFA</t>
-  </si>
-  <si>
-    <t>1FB|JA1</t>
-  </si>
-  <si>
-    <t>1CA|JA1</t>
-  </si>
-  <si>
-    <t>1WA</t>
-  </si>
-  <si>
-    <t>Rozwój zainteresowań i kreatywności - obsługa klienta</t>
-  </si>
-  <si>
-    <t>prF3</t>
-  </si>
-  <si>
-    <t>Sobczak Anna</t>
-  </si>
-  <si>
-    <t>vacat matematyka</t>
-  </si>
-  <si>
-    <t>1S</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Młynarczyk Paweł</t>
-  </si>
-  <si>
-    <t>1TH</t>
-  </si>
-  <si>
-    <t>Godzina</t>
-  </si>
-  <si>
-    <t>Nauczyciel</t>
-  </si>
-  <si>
-    <t>Dziennik zajęć innych</t>
-  </si>
-  <si>
-    <t>Opis zajęć</t>
-  </si>
-  <si>
-    <t>11:30-13:00</t>
-  </si>
-  <si>
-    <t>Filusz Marzena</t>
-  </si>
-  <si>
-    <t>Karolina Tymon - 5TH - indywidualne nauczanie</t>
-  </si>
-  <si>
-    <t>matematyka</t>
-  </si>
-  <si>
-    <t>Miejsce dyżuru</t>
+    <t>parter</t>
+  </si>
+  <si>
+    <t>09:35-09:40</t>
+  </si>
+  <si>
+    <t>14:00-14:05</t>
+  </si>
+  <si>
+    <t>15:40-15:45</t>
   </si>
   <si>
     <t>17:20-17:25</t>
   </si>
   <si>
-    <t>piętro_1</t>
-  </si>
-  <si>
-    <t>18:10-18:15</t>
-  </si>
-  <si>
-    <t>piętro_3</t>
-  </si>
-  <si>
-    <t>19:00-19:05</t>
-  </si>
-  <si>
-    <t>14:50-14:55</t>
-  </si>
-  <si>
-    <t>parter</t>
-  </si>
-  <si>
-    <t>Kruk Marcin</t>
-  </si>
-  <si>
-    <t>15:40-15:45</t>
-  </si>
-  <si>
-    <t>piętro_2</t>
-  </si>
-  <si>
-    <t>16:30-16:35</t>
-  </si>
-  <si>
-    <t>08:45-08:50</t>
-  </si>
-  <si>
-    <t>09:35-09:40</t>
-  </si>
-  <si>
-    <t>Piątek - Pawłowska Bożena</t>
-  </si>
-  <si>
     <t>12:10-12:25</t>
-  </si>
-  <si>
-    <t>10:25-10:35</t>
-  </si>
-  <si>
-    <t>Skarupa Agnieszka</t>
-  </si>
-  <si>
-    <t>Bujanowska Iwona</t>
-  </si>
-  <si>
-    <t>07:55-08:00</t>
-  </si>
-  <si>
-    <t>Świerzewicz Katarzyna</t>
-  </si>
-  <si>
-    <t>Smirnow-Zechman Eleonora</t>
-  </si>
-  <si>
-    <t>Jarek Zbigniew</t>
-  </si>
-  <si>
-    <t>Danielewski Paweł</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{05983689-5a4b-44b3-9b9a-cf08620bc286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e31a0ff0-289e-46d9-bbcf-e59d6a3304b7}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1119,8 +1080,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{89fb3ad8-08c8-4950-ad30-5caa5d27f2be}">
-  <dimension ref="A1:I129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a400a6db-0467-4345-842e-c20c4d35c191}">
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -1129,11 +1090,11 @@
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="14.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="27.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="55.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="68.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
     <col min="7" max="7" width="27.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="72.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="43.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1200,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -1215,13 +1176,13 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
@@ -1229,28 +1190,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
@@ -1258,19 +1219,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -1287,28 +1248,28 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15">
@@ -1316,28 +1277,28 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15">
@@ -1345,25 +1306,25 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
@@ -1374,28 +1335,28 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -1403,28 +1364,28 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -1432,25 +1393,25 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -1461,28 +1422,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -1490,28 +1451,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -1519,28 +1480,28 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -1548,28 +1509,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -1577,28 +1538,28 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -1609,25 +1570,25 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
@@ -1635,28 +1596,28 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -1664,28 +1625,28 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -1693,544 +1654,544 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
         <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
         <v>35</v>
       </c>
-      <c r="F30" t="s">
-        <v>81</v>
-      </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="D31" t="s">
-        <v>83</v>
-      </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
         <v>52</v>
       </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
-      </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
         <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s">
         <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
         <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
         <v>18</v>
@@ -2241,28 +2202,28 @@
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
@@ -2270,112 +2231,112 @@
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
         <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
         <v>18</v>
@@ -2386,25 +2347,25 @@
     </row>
     <row r="44" spans="1:9" ht="15">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
@@ -2415,25 +2376,25 @@
     </row>
     <row r="45" spans="1:9" ht="15">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
@@ -2444,25 +2405,25 @@
     </row>
     <row r="46" spans="1:9" ht="15">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
@@ -2473,25 +2434,25 @@
     </row>
     <row r="47" spans="1:9" ht="15">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
@@ -2502,25 +2463,25 @@
     </row>
     <row r="48" spans="1:9" ht="15">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
@@ -2531,25 +2492,25 @@
     </row>
     <row r="49" spans="1:9" ht="15">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
@@ -2560,25 +2521,25 @@
     </row>
     <row r="50" spans="1:9" ht="15">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
         <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -2589,460 +2550,460 @@
     </row>
     <row r="51" spans="1:9" ht="15">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
         <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15">
       <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
         <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
         <v>92</v>
       </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
         <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G57" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
         <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
         <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" t="s">
         <v>27</v>
       </c>
-      <c r="D61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>29</v>
-      </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G61" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
         <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="G62" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
         <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
         <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
         <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
         <v>18</v>
@@ -3053,83 +3014,83 @@
     </row>
     <row r="67" spans="1:9" ht="15">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="G69" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="H69" t="s">
         <v>18</v>
@@ -3140,25 +3101,25 @@
     </row>
     <row r="70" spans="1:9" ht="15">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="H70" t="s">
         <v>18</v>
@@ -3169,25 +3130,25 @@
     </row>
     <row r="71" spans="1:9" ht="15">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
         <v>18</v>
@@ -3198,25 +3159,25 @@
     </row>
     <row r="72" spans="1:9" ht="15">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G72" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
         <v>18</v>
@@ -3227,25 +3188,25 @@
     </row>
     <row r="73" spans="1:9" ht="15">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="G73" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="H73" t="s">
         <v>18</v>
@@ -3256,54 +3217,54 @@
     </row>
     <row r="74" spans="1:9" ht="15">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="G74" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
         <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F75" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
         <v>18</v>
@@ -3314,54 +3275,54 @@
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H76" t="s">
         <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H77" t="s">
         <v>18</v>
@@ -3372,25 +3333,25 @@
     </row>
     <row r="78" spans="1:9" ht="15">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
         <v>18</v>
@@ -3401,25 +3362,25 @@
     </row>
     <row r="79" spans="1:9" ht="15">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
         <v>135</v>
       </c>
-      <c r="D79" t="s">
-        <v>99</v>
-      </c>
       <c r="E79" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H79" t="s">
         <v>18</v>
@@ -3430,25 +3391,25 @@
     </row>
     <row r="80" spans="1:9" ht="15">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H80" t="s">
         <v>18</v>
@@ -3459,25 +3420,25 @@
     </row>
     <row r="81" spans="1:9" ht="15">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="H81" t="s">
         <v>18</v>
@@ -3488,373 +3449,373 @@
     </row>
     <row r="82" spans="1:9" ht="15">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="G82" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
         <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
         <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
         <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G86" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
         <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
         <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E88" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G88" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H88" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I88" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="H89" t="s">
         <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G90" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="F92" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="G92" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="H92" t="s">
         <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="F93" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G93" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="H93" t="s">
         <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E94" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
         <v>18</v>
@@ -3865,25 +3826,25 @@
     </row>
     <row r="95" spans="1:9" ht="15">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F95" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
         <v>18</v>
@@ -3894,54 +3855,54 @@
     </row>
     <row r="96" spans="1:9" ht="15">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G96" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
         <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E97" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="G97" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="H97" t="s">
         <v>18</v>
@@ -3952,83 +3913,83 @@
     </row>
     <row r="98" spans="1:9" ht="15">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D98" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="F98" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="G98" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="H98" t="s">
         <v>18</v>
       </c>
       <c r="I98" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="D99" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="G99" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
         <v>18</v>
       </c>
       <c r="I99" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="F100" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
         <v>18</v>
@@ -4039,25 +4000,25 @@
     </row>
     <row r="101" spans="1:9" ht="15">
       <c r="A101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" t="s">
+        <v>157</v>
+      </c>
+      <c r="E101" t="s">
         <v>158</v>
       </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" t="s">
-        <v>131</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
+        <v>159</v>
+      </c>
+      <c r="G101" t="s">
         <v>160</v>
-      </c>
-      <c r="F101" t="s">
-        <v>49</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
       </c>
       <c r="H101" t="s">
         <v>18</v>
@@ -4068,25 +4029,25 @@
     </row>
     <row r="102" spans="1:9" ht="15">
       <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" t="s">
+        <v>162</v>
+      </c>
+      <c r="E102" t="s">
         <v>158</v>
       </c>
-      <c r="B102" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102" t="s">
-        <v>119</v>
-      </c>
-      <c r="E102" t="s">
-        <v>39</v>
-      </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="H102" t="s">
         <v>18</v>
@@ -4097,25 +4058,25 @@
     </row>
     <row r="103" spans="1:9" ht="15">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D103" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E103" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
         <v>18</v>
@@ -4126,25 +4087,25 @@
     </row>
     <row r="104" spans="1:9" ht="15">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D104" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E104" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="F104" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
         <v>18</v>
@@ -4155,726 +4116,552 @@
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="F105" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="G105" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
         <v>18</v>
       </c>
       <c r="I105" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D106" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="G106" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
         <v>18</v>
       </c>
       <c r="I106" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
         <v>18</v>
       </c>
       <c r="I107" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F108" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="G108" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
       </c>
       <c r="I108" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="G109" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15">
       <c r="A110" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="F110" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="G110" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
       </c>
       <c r="I110" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15">
       <c r="A111" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D111" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E111" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F111" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G111" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
         <v>18</v>
       </c>
       <c r="I111" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15">
       <c r="A112" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D112" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
         <v>18</v>
       </c>
       <c r="I112" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15">
       <c r="A113" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G113" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
       </c>
       <c r="I113" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D114" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="E114" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F114" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G114" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
         <v>18</v>
       </c>
       <c r="I114" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
       </c>
       <c r="I115" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D116" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" t="s">
         <v>165</v>
       </c>
-      <c r="E116" t="s">
-        <v>39</v>
-      </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
         <v>18</v>
       </c>
       <c r="I116" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
       </c>
       <c r="I117" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="E118" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F118" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
         <v>18</v>
       </c>
       <c r="I118" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15">
       <c r="A119" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
         <v>18</v>
       </c>
       <c r="I119" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D120" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
         <v>18</v>
       </c>
       <c r="I120" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C121" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D121" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="E121" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F121" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
       </c>
       <c r="I121" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15">
       <c r="A122" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C122" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D122" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G122" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
         <v>18</v>
       </c>
       <c r="I122" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="D123" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="E123" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="F123" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
         <v>18</v>
       </c>
       <c r="I123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15">
-      <c r="A124" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" t="s">
-        <v>85</v>
-      </c>
-      <c r="D124" t="s">
-        <v>44</v>
-      </c>
-      <c r="E124" t="s">
-        <v>87</v>
-      </c>
-      <c r="F124" t="s">
-        <v>88</v>
-      </c>
-      <c r="G124" t="s">
-        <v>77</v>
-      </c>
-      <c r="H124" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15">
-      <c r="A125" t="s">
-        <v>158</v>
-      </c>
-      <c r="B125" t="s">
-        <v>61</v>
-      </c>
-      <c r="C125" t="s">
-        <v>171</v>
-      </c>
-      <c r="D125" t="s">
-        <v>172</v>
-      </c>
-      <c r="E125" t="s">
-        <v>147</v>
-      </c>
-      <c r="F125" t="s">
-        <v>173</v>
-      </c>
-      <c r="G125" t="s">
-        <v>174</v>
-      </c>
-      <c r="H125" t="s">
-        <v>18</v>
-      </c>
-      <c r="I125" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15">
-      <c r="A126" t="s">
-        <v>158</v>
-      </c>
-      <c r="B126" t="s">
-        <v>61</v>
-      </c>
-      <c r="C126" t="s">
-        <v>122</v>
-      </c>
-      <c r="D126" t="s">
-        <v>123</v>
-      </c>
-      <c r="E126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F126" t="s">
-        <v>125</v>
-      </c>
-      <c r="G126" t="s">
-        <v>126</v>
-      </c>
-      <c r="H126" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15">
-      <c r="A127" t="s">
-        <v>158</v>
-      </c>
-      <c r="B127" t="s">
-        <v>63</v>
-      </c>
-      <c r="C127" t="s">
-        <v>85</v>
-      </c>
-      <c r="D127" t="s">
-        <v>175</v>
-      </c>
-      <c r="E127" t="s">
-        <v>87</v>
-      </c>
-      <c r="F127" t="s">
-        <v>88</v>
-      </c>
-      <c r="G127" t="s">
-        <v>77</v>
-      </c>
-      <c r="H127" t="s">
-        <v>18</v>
-      </c>
-      <c r="I127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15">
-      <c r="A128" t="s">
-        <v>158</v>
-      </c>
-      <c r="B128" t="s">
-        <v>63</v>
-      </c>
-      <c r="C128" t="s">
-        <v>171</v>
-      </c>
-      <c r="D128" t="s">
-        <v>172</v>
-      </c>
-      <c r="E128" t="s">
-        <v>147</v>
-      </c>
-      <c r="F128" t="s">
-        <v>173</v>
-      </c>
-      <c r="G128" t="s">
-        <v>174</v>
-      </c>
-      <c r="H128" t="s">
-        <v>18</v>
-      </c>
-      <c r="I128" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15">
-      <c r="A129" t="s">
-        <v>158</v>
-      </c>
-      <c r="B129" t="s">
-        <v>64</v>
-      </c>
-      <c r="C129" t="s">
-        <v>85</v>
-      </c>
-      <c r="D129" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" t="s">
-        <v>87</v>
-      </c>
-      <c r="F129" t="s">
-        <v>88</v>
-      </c>
-      <c r="G129" t="s">
-        <v>77</v>
-      </c>
-      <c r="H129" t="s">
-        <v>18</v>
-      </c>
-      <c r="I129" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4886,7 +4673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e0d8ffbc-9188-4692-9a62-88a255e9ba80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1a414cc1-0695-4c15-9db3-a17920036eaa}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -4909,16 +4696,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -4935,19 +4722,19 @@
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4970,8 +4757,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7311d52f-0eec-4cc3-9b22-c72de9da26a9}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7bce3cb8-f2e3-4985-aeed-28dc6040fac4}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -4979,9 +4766,9 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="20.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="26.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4990,13 +4777,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -5010,16 +4797,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -5030,16 +4817,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5050,16 +4837,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5067,19 +4854,19 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -5087,19 +4874,19 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -5107,16 +4894,16 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -5127,19 +4914,19 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -5147,19 +4934,19 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -5167,19 +4954,19 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -5187,19 +4974,19 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -5207,16 +4994,16 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -5227,19 +5014,19 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -5247,19 +5034,19 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -5267,19 +5054,19 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -5287,161 +5074,21 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15">
-      <c r="A18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15">
-      <c r="A20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15">
-      <c r="A21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15">
-      <c r="A22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15">
-      <c r="A23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" t="s">
         <v>18</v>
       </c>
     </row>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="246">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
   <si>
-    <t>Okres: 26.01.2026 (pon.) - 31.01.2026 (sob.)</t>
+    <t>Okres: 26.01.2026 (pon.) - 01.02.2026 (niedz.)</t>
   </si>
   <si>
     <t>Dzień</t>
@@ -333,6 +333,18 @@
     <t>27.01.2026</t>
   </si>
   <si>
+    <t>Jaworska Edyta</t>
+  </si>
+  <si>
+    <t>2TFB</t>
+  </si>
+  <si>
+    <t>Zajęcia praktyczne - wykonywanie usług fryzjerskich</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>vacat Edukacja zdrowotna EDU</t>
   </si>
   <si>
@@ -342,6 +354,9 @@
     <t>Edukacja zdrowotna</t>
   </si>
   <si>
+    <t>Mocarski Arkadiusz</t>
+  </si>
+  <si>
     <t>3CA|edu</t>
   </si>
   <si>
@@ -354,37 +369,94 @@
     <t>3CA|JA1</t>
   </si>
   <si>
+    <t>Kopij Marcin</t>
+  </si>
+  <si>
+    <t>2WA</t>
+  </si>
+  <si>
+    <t>Rozwój zainteresowań i kreatywności - obsługa klienta</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Jastrzębska - Majtyka Agnieszka</t>
+  </si>
+  <si>
+    <t>Podstawy fryzjerstwa</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Kruk Marcin</t>
+  </si>
+  <si>
+    <t>Marzec Renata</t>
+  </si>
+  <si>
+    <t>5TF</t>
+  </si>
+  <si>
+    <t>Wiedza o społeczeństwie</t>
+  </si>
+  <si>
+    <t>Organizacja i technika sprzedaży</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Kosin Anna</t>
+  </si>
+  <si>
+    <t>2FB</t>
+  </si>
+  <si>
+    <t>Edukacja obywatelska</t>
+  </si>
+  <si>
+    <t>Misiąg Anna</t>
+  </si>
+  <si>
+    <t>2WA|JN1</t>
+  </si>
+  <si>
+    <t>Język niemiecki</t>
+  </si>
+  <si>
+    <t>Fiodorów Małgorzata</t>
+  </si>
+  <si>
+    <t>Techniki fryzjerskie</t>
+  </si>
+  <si>
+    <t>1TFA|JA1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Rejno Julita</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1TFA</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
-    <t>Kopij Marcin</t>
-  </si>
-  <si>
-    <t>2WA</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5TF</t>
-  </si>
-  <si>
-    <t>Wiedza o społeczeństwie</t>
-  </si>
-  <si>
-    <t>2FB</t>
-  </si>
-  <si>
-    <t>Edukacja obywatelska</t>
-  </si>
-  <si>
-    <t>1TFA|JA1</t>
-  </si>
-  <si>
-    <t>Historia i teraźniejszość</t>
-  </si>
-  <si>
-    <t>1TFA</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Filipek Anna</t>
+  </si>
+  <si>
+    <t>3M|JN2</t>
   </si>
   <si>
     <t>1TFB|JA2</t>
@@ -393,12 +465,21 @@
     <t>1K</t>
   </si>
   <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Sałdyka Karolina</t>
+  </si>
+  <si>
     <t>1CA|JA1</t>
   </si>
   <si>
     <t>1WB</t>
   </si>
   <si>
+    <t>4TFB|JA2</t>
+  </si>
+  <si>
     <t>Młynarczyk Paweł</t>
   </si>
   <si>
@@ -435,9 +516,27 @@
     <t>4B</t>
   </si>
   <si>
+    <t>p. Nowak, matematyka za lekcję 13</t>
+  </si>
+  <si>
     <t>28.01.2026</t>
   </si>
   <si>
+    <t>1TFB|JA1</t>
+  </si>
+  <si>
+    <t>Danielewski Paweł</t>
+  </si>
+  <si>
+    <t>2WB</t>
+  </si>
+  <si>
+    <t>Najwer Maciej</t>
+  </si>
+  <si>
+    <t>3TH|JA2</t>
+  </si>
+  <si>
     <t>2CA|edu</t>
   </si>
   <si>
@@ -453,7 +552,7 @@
     <t>2FC|edu</t>
   </si>
   <si>
-    <t>Okienko dla uczniów</t>
+    <t>28</t>
   </si>
   <si>
     <t>Leńczowska Iwona</t>
@@ -462,18 +561,27 @@
     <t>2FA</t>
   </si>
   <si>
-    <t>Techniki fryzjerskie</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>Antoszewska Joanna</t>
+  </si>
+  <si>
+    <t>2FA|JA2</t>
+  </si>
+  <si>
     <t>1FC|JA1</t>
   </si>
   <si>
     <t>2CA</t>
   </si>
   <si>
+    <t>Piątek - Pawłowska Bożena</t>
+  </si>
+  <si>
+    <t>3TFB|JA2</t>
+  </si>
+  <si>
     <t>1FA|JA1</t>
   </si>
   <si>
@@ -486,60 +594,78 @@
     <t>1WA|JN2</t>
   </si>
   <si>
-    <t>Język niemiecki</t>
-  </si>
-  <si>
     <t>29.01.2026</t>
   </si>
   <si>
-    <t>Danielewski Paweł</t>
-  </si>
-  <si>
-    <t>3TFA|JA2</t>
-  </si>
-  <si>
-    <t>Zajęcia praktyczne - wykonywanie usług fryzjerskich</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Brak</t>
-  </si>
-  <si>
-    <t>Jaworska Edyta</t>
-  </si>
-  <si>
     <t>3TFA|JA1</t>
   </si>
   <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>3FB</t>
+  </si>
+  <si>
+    <t>Doradztwo zawodowe</t>
+  </si>
+  <si>
+    <t>Technologie produkcji cukierniczej</t>
+  </si>
+  <si>
+    <t>Kończyńska Małgorzata</t>
+  </si>
+  <si>
+    <t>1CB|JA2</t>
+  </si>
+  <si>
+    <t>sg5</t>
+  </si>
+  <si>
+    <t>Nestoruk Lidia</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1S|JA1</t>
+  </si>
+  <si>
+    <t>1S|JA2</t>
+  </si>
+  <si>
+    <t>Ostrowska Ewa</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Rada Pedagogiczna w SP</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30.01.2026</t>
+  </si>
+  <si>
+    <t>3TFB|JA1</t>
+  </si>
+  <si>
     <t>prf2</t>
   </si>
   <si>
-    <t>3FB</t>
-  </si>
-  <si>
-    <t>Technologie produkcji cukierniczej</t>
-  </si>
-  <si>
-    <t>1CB|JA2</t>
-  </si>
-  <si>
-    <t>2S</t>
-  </si>
-  <si>
-    <t>1S|JA1</t>
-  </si>
-  <si>
-    <t>1S|JA2</t>
-  </si>
-  <si>
-    <t>30.01.2026</t>
-  </si>
-  <si>
     <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
   </si>
   <si>
+    <t>Derezińska Katarzyna</t>
+  </si>
+  <si>
+    <t>vacat matematyka</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
     <t>Godzina</t>
   </si>
   <si>
@@ -561,6 +687,15 @@
     <t>matematyka</t>
   </si>
   <si>
+    <t>07:30-13:30</t>
+  </si>
+  <si>
+    <t>dziennik - plan dyżurów - biblioteka</t>
+  </si>
+  <si>
+    <t>(6 godz.)</t>
+  </si>
+  <si>
     <t>Miejsce dyżuru</t>
   </si>
   <si>
@@ -579,9 +714,6 @@
     <t>13:10-13:15</t>
   </si>
   <si>
-    <t>Derezińska Katarzyna</t>
-  </si>
-  <si>
     <t>14:50-14:55</t>
   </si>
   <si>
@@ -594,19 +726,40 @@
     <t>parter</t>
   </si>
   <si>
+    <t>16:30-16:35</t>
+  </si>
+  <si>
+    <t>Staliś Donata</t>
+  </si>
+  <si>
+    <t>17:20-17:25</t>
+  </si>
+  <si>
+    <t>Nowaczyk Agnieszka</t>
+  </si>
+  <si>
+    <t>18:10-18:15</t>
+  </si>
+  <si>
+    <t>19:00-19:05</t>
+  </si>
+  <si>
     <t>09:35-09:40</t>
   </si>
   <si>
+    <t>12:10-12:25</t>
+  </si>
+  <si>
     <t>14:00-14:05</t>
   </si>
   <si>
+    <t>Smereka Alicja</t>
+  </si>
+  <si>
     <t>15:40-15:45</t>
   </si>
   <si>
-    <t>17:20-17:25</t>
-  </si>
-  <si>
-    <t>12:10-12:25</t>
+    <t>07:55-08:00</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e31a0ff0-289e-46d9-bbcf-e59d6a3304b7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1aeb8b1b-25ed-40f7-8cd3-3fbed41bc25e}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1080,8 +1233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{a400a6db-0467-4345-842e-c20c4d35c191}">
-  <dimension ref="A1:I123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{262d4ac8-5b3a-48e0-912e-4bc042a74922}">
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -1093,7 +1246,7 @@
     <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="68.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
-    <col min="7" max="7" width="27.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="43.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
@@ -2159,10 +2312,10 @@
         <v>105</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
         <v>18</v>
@@ -2179,25 +2332,25 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="H38" t="s">
         <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15">
@@ -2208,25 +2361,25 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="H39" t="s">
         <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15">
@@ -2237,25 +2390,25 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="H40" t="s">
         <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15">
@@ -2263,28 +2416,28 @@
         <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" t="s">
         <v>109</v>
       </c>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
       <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
         <v>110</v>
       </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
       <c r="H41" t="s">
         <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15">
@@ -2295,19 +2448,19 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
@@ -2321,28 +2474,28 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s">
         <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15">
@@ -2350,28 +2503,28 @@
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15">
@@ -2379,28 +2532,28 @@
         <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15">
@@ -2408,28 +2561,28 @@
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15">
@@ -2437,22 +2590,22 @@
         <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
@@ -2466,28 +2619,28 @@
         <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15">
@@ -2495,28 +2648,28 @@
         <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15">
@@ -2524,22 +2677,22 @@
         <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -2553,28 +2706,28 @@
         <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
         <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15">
@@ -2582,28 +2735,28 @@
         <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
         <v>121</v>
       </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" t="s">
-        <v>110</v>
-      </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="H52" t="s">
         <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15">
@@ -2611,28 +2764,28 @@
         <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
         <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15">
@@ -2640,28 +2793,28 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15">
@@ -2669,22 +2822,22 @@
         <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
@@ -2698,28 +2851,28 @@
         <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15">
@@ -2727,22 +2880,22 @@
         <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s">
         <v>18</v>
@@ -2756,28 +2909,28 @@
         <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15">
@@ -2785,22 +2938,22 @@
         <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H59" t="s">
         <v>18</v>
@@ -2814,28 +2967,28 @@
         <v>102</v>
       </c>
       <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
         <v>131</v>
       </c>
-      <c r="C60" t="s">
-        <v>125</v>
-      </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15">
@@ -2843,28 +2996,28 @@
         <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" t="s">
         <v>135</v>
       </c>
-      <c r="E61" t="s">
-        <v>27</v>
-      </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="H61" t="s">
         <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15">
@@ -2872,80 +3025,80 @@
         <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s">
         <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="H63" t="s">
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" t="s">
         <v>139</v>
       </c>
-      <c r="E64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" t="s">
-        <v>28</v>
-      </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H64" t="s">
         <v>18</v>
@@ -2956,25 +3109,25 @@
     </row>
     <row r="65" spans="1:9" ht="15">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H65" t="s">
         <v>18</v>
@@ -2985,54 +3138,54 @@
     </row>
     <row r="66" spans="1:9" ht="15">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H66" t="s">
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H67" t="s">
         <v>18</v>
@@ -3043,25 +3196,25 @@
     </row>
     <row r="68" spans="1:9" ht="15">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="F68" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H68" t="s">
         <v>18</v>
@@ -3072,25 +3225,25 @@
     </row>
     <row r="69" spans="1:9" ht="15">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="H69" t="s">
         <v>18</v>
@@ -3101,25 +3254,25 @@
     </row>
     <row r="70" spans="1:9" ht="15">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G70" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="H70" t="s">
         <v>18</v>
@@ -3130,25 +3283,25 @@
     </row>
     <row r="71" spans="1:9" ht="15">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
         <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H71" t="s">
         <v>18</v>
@@ -3159,25 +3312,25 @@
     </row>
     <row r="72" spans="1:9" ht="15">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H72" t="s">
         <v>18</v>
@@ -3188,25 +3341,25 @@
     </row>
     <row r="73" spans="1:9" ht="15">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s">
         <v>18</v>
@@ -3217,28 +3370,28 @@
     </row>
     <row r="74" spans="1:9" ht="15">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I74" t="s">
         <v>19</v>
@@ -3246,54 +3399,54 @@
     </row>
     <row r="75" spans="1:9" ht="15">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H75" t="s">
         <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E76" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G76" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
         <v>18</v>
@@ -3304,25 +3457,25 @@
     </row>
     <row r="77" spans="1:9" ht="15">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="F77" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G77" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
         <v>18</v>
@@ -3333,808 +3486,808 @@
     </row>
     <row r="78" spans="1:9" ht="15">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" t="s">
         <v>110</v>
       </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
       <c r="H78" t="s">
         <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G79" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="H79" t="s">
         <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E80" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="F80" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="H80" t="s">
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F81" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="H81" t="s">
         <v>18</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="F82" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H83" t="s">
         <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D84" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="H84" t="s">
         <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="H85" t="s">
         <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
         <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="H86" t="s">
         <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E87" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H87" t="s">
         <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
       </c>
       <c r="C88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
         <v>156</v>
       </c>
-      <c r="D88" t="s">
-        <v>157</v>
-      </c>
       <c r="E88" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F88" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G88" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="H88" t="s">
         <v>18</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
         <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="E89" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G89" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="H89" t="s">
         <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
         <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="E90" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="H90" t="s">
         <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H91" t="s">
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
         <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="G92" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="H92" t="s">
         <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
         <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="H93" t="s">
         <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
         <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F94" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="H94" t="s">
         <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
         <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="E95" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="H95" t="s">
         <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E96" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H96" t="s">
         <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B97" t="s">
         <v>70</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="D97" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="G97" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="H97" t="s">
         <v>18</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
         <v>70</v>
       </c>
       <c r="C98" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D98" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="F98" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="G98" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="H98" t="s">
         <v>18</v>
       </c>
       <c r="I98" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
         <v>166</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H99" t="s">
         <v>18</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="E100" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="H100" t="s">
         <v>18</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B101" t="s">
         <v>80</v>
       </c>
       <c r="C101" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="F101" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="G101" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="H101" t="s">
         <v>18</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B102" t="s">
         <v>80</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="E102" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="F102" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G102" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="H102" t="s">
         <v>18</v>
       </c>
       <c r="I102" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B103" t="s">
         <v>80</v>
       </c>
       <c r="C103" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="F103" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="H103" t="s">
         <v>18</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" t="s">
+        <v>105</v>
+      </c>
+      <c r="F104" t="s">
+        <v>106</v>
+      </c>
+      <c r="G104" t="s">
         <v>167</v>
       </c>
-      <c r="E104" t="s">
-        <v>88</v>
-      </c>
-      <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
       <c r="H104" t="s">
         <v>18</v>
       </c>
       <c r="I104" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D105" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E105" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H105" t="s">
         <v>18</v>
@@ -4145,45 +4298,45 @@
     </row>
     <row r="106" spans="1:9" ht="15">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H106" t="s">
         <v>18</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>55</v>
       </c>
       <c r="D107" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
@@ -4192,18 +4345,18 @@
         <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H107" t="s">
         <v>18</v>
       </c>
       <c r="I107" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
@@ -4212,16 +4365,16 @@
         <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="E108" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="F108" t="s">
         <v>90</v>
       </c>
       <c r="G108" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
@@ -4232,83 +4385,83 @@
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B109" t="s">
         <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F109" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G109" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s">
         <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D110" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E110" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="G110" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="E111" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F111" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G111" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H111" t="s">
         <v>18</v>
@@ -4319,16 +4472,16 @@
     </row>
     <row r="112" spans="1:9" ht="15">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
@@ -4337,7 +4490,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H112" t="s">
         <v>18</v>
@@ -4348,321 +4501,1191 @@
     </row>
     <row r="113" spans="1:9" ht="15">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B113" t="s">
         <v>48</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D113" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="E113" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="F113" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
         <v>18</v>
       </c>
       <c r="I113" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="F114" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G114" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="H114" t="s">
         <v>18</v>
       </c>
       <c r="I114" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B115" t="s">
         <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D115" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E115" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G115" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
       </c>
       <c r="I115" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B116" t="s">
         <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D116" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="F116" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G116" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H116" t="s">
         <v>18</v>
       </c>
       <c r="I116" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B117" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E117" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="F117" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G117" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
       </c>
       <c r="I117" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15">
       <c r="A118" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B118" t="s">
         <v>70</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D118" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="E118" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="F118" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="H118" t="s">
         <v>18</v>
       </c>
       <c r="I118" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C119" t="s">
         <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="E119" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
         <v>18</v>
       </c>
       <c r="I119" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15">
       <c r="A120" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D120" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="E120" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="H120" t="s">
         <v>18</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B121" t="s">
         <v>80</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D121" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="E121" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="F121" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="G121" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
       </c>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C122" t="s">
         <v>62</v>
       </c>
       <c r="D122" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="H122" t="s">
         <v>18</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" t="s">
+        <v>88</v>
+      </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15">
+      <c r="A124" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" t="s">
+        <v>183</v>
+      </c>
+      <c r="E124" t="s">
+        <v>195</v>
+      </c>
+      <c r="F124" t="s">
+        <v>141</v>
+      </c>
+      <c r="G124" t="s">
+        <v>196</v>
+      </c>
+      <c r="H124" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15">
+      <c r="A125" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" t="s">
+        <v>201</v>
+      </c>
+      <c r="E125" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" t="s">
+        <v>121</v>
+      </c>
+      <c r="G125" t="s">
+        <v>115</v>
+      </c>
+      <c r="H125" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15">
+      <c r="A126" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" t="s">
+        <v>202</v>
+      </c>
+      <c r="E126" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" t="s">
+        <v>121</v>
+      </c>
+      <c r="G126" t="s">
+        <v>115</v>
+      </c>
+      <c r="H126" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15">
+      <c r="A127" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" t="s">
+        <v>203</v>
+      </c>
+      <c r="D127" t="s">
+        <v>168</v>
+      </c>
+      <c r="E127" t="s">
+        <v>117</v>
+      </c>
+      <c r="F127" t="s">
+        <v>204</v>
+      </c>
+      <c r="G127" t="s">
         <v>128</v>
       </c>
-      <c r="C123" t="s">
+      <c r="H127" t="s">
+        <v>205</v>
+      </c>
+      <c r="I127" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15">
+      <c r="A128" t="s">
+        <v>190</v>
+      </c>
+      <c r="B128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" t="s">
+        <v>203</v>
+      </c>
+      <c r="D128" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" t="s">
+        <v>206</v>
+      </c>
+      <c r="G128" t="s">
+        <v>94</v>
+      </c>
+      <c r="H128" t="s">
+        <v>205</v>
+      </c>
+      <c r="I128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15">
+      <c r="A129" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" t="s">
+        <v>203</v>
+      </c>
+      <c r="D129" t="s">
+        <v>140</v>
+      </c>
+      <c r="E129" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" t="s">
+        <v>206</v>
+      </c>
+      <c r="G129" t="s">
+        <v>94</v>
+      </c>
+      <c r="H129" t="s">
+        <v>205</v>
+      </c>
+      <c r="I129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15">
+      <c r="A130" t="s">
+        <v>207</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>103</v>
+      </c>
+      <c r="D130" t="s">
+        <v>208</v>
+      </c>
+      <c r="E130" t="s">
+        <v>105</v>
+      </c>
+      <c r="F130" t="s">
+        <v>209</v>
+      </c>
+      <c r="G130" t="s">
+        <v>119</v>
+      </c>
+      <c r="H130" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15">
+      <c r="A131" t="s">
+        <v>207</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" t="s">
+        <v>183</v>
+      </c>
+      <c r="E131" t="s">
+        <v>210</v>
+      </c>
+      <c r="F131" t="s">
+        <v>141</v>
+      </c>
+      <c r="G131" t="s">
+        <v>196</v>
+      </c>
+      <c r="H131" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15">
+      <c r="A132" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" t="s">
+        <v>103</v>
+      </c>
+      <c r="D132" t="s">
+        <v>208</v>
+      </c>
+      <c r="E132" t="s">
+        <v>105</v>
+      </c>
+      <c r="F132" t="s">
+        <v>209</v>
+      </c>
+      <c r="G132" t="s">
+        <v>119</v>
+      </c>
+      <c r="H132" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15">
+      <c r="A133" t="s">
+        <v>207</v>
+      </c>
+      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" t="s">
+        <v>62</v>
+      </c>
+      <c r="D133" t="s">
+        <v>87</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" t="s">
+        <v>179</v>
+      </c>
+      <c r="G133" t="s">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15">
+      <c r="A134" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" t="s">
+        <v>183</v>
+      </c>
+      <c r="E134" t="s">
+        <v>210</v>
+      </c>
+      <c r="F134" t="s">
+        <v>141</v>
+      </c>
+      <c r="G134" t="s">
+        <v>196</v>
+      </c>
+      <c r="H134" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15">
+      <c r="A135" t="s">
+        <v>207</v>
+      </c>
+      <c r="B135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" t="s">
+        <v>208</v>
+      </c>
+      <c r="E135" t="s">
+        <v>105</v>
+      </c>
+      <c r="F135" t="s">
+        <v>209</v>
+      </c>
+      <c r="G135" t="s">
+        <v>119</v>
+      </c>
+      <c r="H135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15">
+      <c r="A136" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" t="s">
+        <v>62</v>
+      </c>
+      <c r="D136" t="s">
+        <v>159</v>
+      </c>
+      <c r="E136" t="s">
+        <v>194</v>
+      </c>
+      <c r="F136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15">
+      <c r="A137" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137" t="s">
+        <v>160</v>
+      </c>
+      <c r="E137" t="s">
+        <v>194</v>
+      </c>
+      <c r="F137" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15">
+      <c r="A138" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" t="s">
+        <v>195</v>
+      </c>
+      <c r="F138" t="s">
+        <v>141</v>
+      </c>
+      <c r="G138" t="s">
+        <v>196</v>
+      </c>
+      <c r="H138" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15">
+      <c r="A139" t="s">
+        <v>207</v>
+      </c>
+      <c r="B139" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" t="s">
+        <v>103</v>
+      </c>
+      <c r="D139" t="s">
+        <v>208</v>
+      </c>
+      <c r="E139" t="s">
+        <v>105</v>
+      </c>
+      <c r="F139" t="s">
+        <v>209</v>
+      </c>
+      <c r="G139" t="s">
+        <v>119</v>
+      </c>
+      <c r="H139" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15">
+      <c r="A140" t="s">
+        <v>207</v>
+      </c>
+      <c r="B140" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" t="s">
+        <v>62</v>
+      </c>
+      <c r="D140" t="s">
+        <v>201</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>36</v>
+      </c>
+      <c r="H140" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15">
+      <c r="A141" t="s">
+        <v>207</v>
+      </c>
+      <c r="B141" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" t="s">
+        <v>55</v>
+      </c>
+      <c r="D141" t="s">
+        <v>202</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15">
+      <c r="A142" t="s">
+        <v>207</v>
+      </c>
+      <c r="B142" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" t="s">
+        <v>195</v>
+      </c>
+      <c r="F142" t="s">
+        <v>141</v>
+      </c>
+      <c r="G142" t="s">
+        <v>196</v>
+      </c>
+      <c r="H142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15">
+      <c r="A143" t="s">
+        <v>207</v>
+      </c>
+      <c r="B143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" t="s">
+        <v>103</v>
+      </c>
+      <c r="D143" t="s">
+        <v>208</v>
+      </c>
+      <c r="E143" t="s">
+        <v>105</v>
+      </c>
+      <c r="F143" t="s">
+        <v>209</v>
+      </c>
+      <c r="G143" t="s">
+        <v>119</v>
+      </c>
+      <c r="H143" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15">
+      <c r="A144" t="s">
+        <v>207</v>
+      </c>
+      <c r="B144" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" t="s">
+        <v>62</v>
+      </c>
+      <c r="D144" t="s">
+        <v>197</v>
+      </c>
+      <c r="E144" t="s">
+        <v>45</v>
+      </c>
+      <c r="F144" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" t="s">
+        <v>47</v>
+      </c>
+      <c r="H144" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15">
+      <c r="A145" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145" t="s">
+        <v>70</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" t="s">
+        <v>195</v>
+      </c>
+      <c r="F145" t="s">
+        <v>141</v>
+      </c>
+      <c r="G145" t="s">
+        <v>196</v>
+      </c>
+      <c r="H145" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15">
+      <c r="A146" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" t="s">
+        <v>103</v>
+      </c>
+      <c r="D146" t="s">
+        <v>208</v>
+      </c>
+      <c r="E146" t="s">
+        <v>105</v>
+      </c>
+      <c r="F146" t="s">
+        <v>209</v>
+      </c>
+      <c r="G146" t="s">
+        <v>119</v>
+      </c>
+      <c r="H146" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15">
+      <c r="A147" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147" t="s">
+        <v>62</v>
+      </c>
+      <c r="D147" t="s">
+        <v>95</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15">
+      <c r="A148" t="s">
+        <v>207</v>
+      </c>
+      <c r="B148" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" t="s">
+        <v>63</v>
+      </c>
+      <c r="E148" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15">
+      <c r="A149" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" t="s">
+        <v>57</v>
+      </c>
+      <c r="F149" t="s">
+        <v>97</v>
+      </c>
+      <c r="G149" t="s">
+        <v>211</v>
+      </c>
+      <c r="H149" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15">
+      <c r="A150" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" t="s">
+        <v>92</v>
+      </c>
+      <c r="C150" t="s">
+        <v>62</v>
+      </c>
+      <c r="D150" t="s">
+        <v>149</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15">
+      <c r="A151" t="s">
+        <v>207</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" t="s">
+        <v>212</v>
+      </c>
+      <c r="D151" t="s">
+        <v>213</v>
+      </c>
+      <c r="E151" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" t="s">
+        <v>52</v>
+      </c>
+      <c r="G151" t="s">
         <v>152</v>
       </c>
-      <c r="D123" t="s">
-        <v>153</v>
-      </c>
-      <c r="E123" t="s">
-        <v>154</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="H151" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15">
+      <c r="A152" t="s">
+        <v>207</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" t="s">
+        <v>188</v>
+      </c>
+      <c r="D152" t="s">
+        <v>189</v>
+      </c>
+      <c r="E152" t="s">
+        <v>133</v>
+      </c>
+      <c r="F152" t="s">
         <v>33</v>
       </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123" t="s">
-        <v>19</v>
+      <c r="G152" t="s">
+        <v>134</v>
+      </c>
+      <c r="H152" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15">
+      <c r="A153" t="s">
+        <v>207</v>
+      </c>
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" t="s">
+        <v>212</v>
+      </c>
+      <c r="D153" t="s">
+        <v>213</v>
+      </c>
+      <c r="E153" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" t="s">
+        <v>52</v>
+      </c>
+      <c r="G153" t="s">
+        <v>152</v>
+      </c>
+      <c r="H153" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4673,8 +5696,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1a414cc1-0695-4c15-9db3-a17920036eaa}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{dce7b9c1-4790-4fbe-9e04-e53a056baff1}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -4682,7 +5705,7 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="42.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="12.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
@@ -4696,16 +5719,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -4725,16 +5748,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4746,6 +5769,35 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4757,8 +5809,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{7bce3cb8-f2e3-4985-aeed-28dc6040fac4}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{254007e8-a6d2-4ed3-8478-ea65d91611d0}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -4766,9 +5818,9 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="20.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="5" width="22.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4777,13 +5829,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -4797,13 +5849,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -4817,13 +5869,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
@@ -4837,16 +5889,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4857,16 +5909,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -4877,16 +5929,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -4894,19 +5946,19 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -4914,19 +5966,19 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -4934,16 +5986,16 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -4954,19 +6006,19 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -4977,16 +6029,16 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -4994,19 +6046,19 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -5014,19 +6066,19 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -5034,19 +6086,19 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -5054,16 +6106,16 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -5074,21 +6126,281 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
         <v>18</v>
       </c>
     </row>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="275">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -690,15 +690,6 @@
     <t>Kończyńska Małgorzata</t>
   </si>
   <si>
-    <t>Bez konsekwencji (nieobecny oddział nauczyciela)</t>
-  </si>
-  <si>
-    <t>Złączenie grup</t>
-  </si>
-  <si>
-    <t>zaplanowano zastępstwo z nauczycielem Jastrzębska - Majtyka Agnieszka [JA]</t>
-  </si>
-  <si>
     <t>Rozwój kompetencji zawodowych - obsługa klienta</t>
   </si>
   <si>
@@ -717,9 +708,18 @@
     <t>Derezińska Katarzyna</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Dalach Sławomir</t>
+  </si>
+  <si>
     <t>1FA|JA2</t>
   </si>
   <si>
+    <t>p. Danielewski, za lekcję 9</t>
+  </si>
+  <si>
     <t>2FB|JA1</t>
   </si>
   <si>
@@ -735,6 +735,15 @@
     <t>1S</t>
   </si>
   <si>
+    <t>Smereka Alicja</t>
+  </si>
+  <si>
+    <t>1TH</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
     <t>Godzina</t>
   </si>
   <si>
@@ -826,9 +835,6 @@
   </si>
   <si>
     <t>14:00-14:05</t>
-  </si>
-  <si>
-    <t>Smereka Alicja</t>
   </si>
   <si>
     <t>15:40-15:45</t>
@@ -1290,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b6dc597a-8dad-47b7-855c-6764fb4d05c6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{741b59c0-edbe-4b07-8411-86ccb7fd3826}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1314,8 +1320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5104cc21-fe9b-4cf7-aaca-84bd799c15d7}">
-  <dimension ref="A1:I183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{780e72c3-f2a6-4459-95c1-8e65fa9840b9}">
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -1323,12 +1329,12 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="14.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="3" max="3" width="27.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="68.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
-    <col min="7" max="7" width="45.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="69" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="43.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5342,25 +5348,25 @@
         <v>29</v>
       </c>
       <c r="C139" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D139" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F139" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="G139" t="s">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="H139" t="s">
         <v>18</v>
       </c>
       <c r="I139" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15">
@@ -5371,22 +5377,22 @@
         <v>29</v>
       </c>
       <c r="C140" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D140" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="E140" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F140" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="G140" t="s">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="H140" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I140" t="s">
         <v>19</v>
@@ -5400,19 +5406,19 @@
         <v>29</v>
       </c>
       <c r="C141" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D141" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="E141" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="F141" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="G141" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="H141" t="s">
         <v>18</v>
@@ -5426,28 +5432,28 @@
         <v>217</v>
       </c>
       <c r="B142" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="D142" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="F142" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="G142" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H142" t="s">
         <v>18</v>
       </c>
       <c r="I142" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15">
@@ -5455,22 +5461,22 @@
         <v>217</v>
       </c>
       <c r="B143" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D143" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E143" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="F143" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="G143" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="H143" t="s">
         <v>18</v>
@@ -5487,25 +5493,25 @@
         <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="D144" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="E144" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="F144" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G144" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="H144" t="s">
         <v>18</v>
       </c>
       <c r="I144" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15">
@@ -5516,25 +5522,25 @@
         <v>48</v>
       </c>
       <c r="C145" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D145" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="E145" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="F145" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c r="G145" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H145" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15">
@@ -5542,22 +5548,22 @@
         <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C146" t="s">
         <v>62</v>
       </c>
       <c r="D146" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="E146" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="H146" t="s">
         <v>18</v>
@@ -5571,22 +5577,22 @@
         <v>217</v>
       </c>
       <c r="B147" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C147" t="s">
         <v>55</v>
       </c>
       <c r="D147" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="E147" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="H147" t="s">
         <v>18</v>
@@ -5600,7 +5606,7 @@
         <v>217</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C148" t="s">
         <v>183</v>
@@ -5609,19 +5615,19 @@
         <v>21</v>
       </c>
       <c r="E148" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H148" t="s">
         <v>18</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15">
@@ -5629,7 +5635,7 @@
         <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C149" t="s">
         <v>25</v>
@@ -5638,7 +5644,7 @@
         <v>44</v>
       </c>
       <c r="E149" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F149" t="s">
         <v>140</v>
@@ -5658,28 +5664,28 @@
         <v>217</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C150" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D150" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E150" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F150" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="G150" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H150" t="s">
         <v>18</v>
       </c>
       <c r="I150" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15">
@@ -5687,28 +5693,28 @@
         <v>217</v>
       </c>
       <c r="B151" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C151" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D151" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E151" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="H151" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I151" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15">
@@ -5716,28 +5722,28 @@
         <v>217</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C152" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D152" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="E152" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G152" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="H152" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="I152" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15">
@@ -5745,22 +5751,22 @@
         <v>217</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C153" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="E153" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="G153" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="H153" t="s">
         <v>18</v>
@@ -5774,28 +5780,28 @@
         <v>217</v>
       </c>
       <c r="B154" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C154" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="G154" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="H154" t="s">
         <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15">
@@ -5803,28 +5809,28 @@
         <v>217</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D155" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E155" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="F155" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
         <v>18</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15">
@@ -5832,28 +5838,28 @@
         <v>217</v>
       </c>
       <c r="B156" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D156" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="E156" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F156" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H156" t="s">
         <v>18</v>
       </c>
       <c r="I156" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15">
@@ -5861,22 +5867,22 @@
         <v>217</v>
       </c>
       <c r="B157" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C157" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="D157" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="E157" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F157" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="G157" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="H157" t="s">
         <v>18</v>
@@ -5890,28 +5896,28 @@
         <v>217</v>
       </c>
       <c r="B158" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C158" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="E158" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F158" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="G158" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H158" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I158" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15">
@@ -5919,22 +5925,22 @@
         <v>217</v>
       </c>
       <c r="B159" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C159" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="D159" t="s">
         <v>204</v>
       </c>
       <c r="E159" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="G159" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="H159" t="s">
         <v>18</v>
@@ -5948,28 +5954,28 @@
         <v>217</v>
       </c>
       <c r="B160" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C160" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="D160" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="E160" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F160" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="G160" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="H160" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="I160" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15">
@@ -5977,28 +5983,28 @@
         <v>217</v>
       </c>
       <c r="B161" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D161" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="E161" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="F161" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G161" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
         <v>18</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15">
@@ -6006,22 +6012,22 @@
         <v>217</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C162" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D162" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E162" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="G162" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H162" t="s">
         <v>18</v>
@@ -6035,28 +6041,28 @@
         <v>217</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C163" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="D163" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="E163" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F163" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G163" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="H163" t="s">
         <v>18</v>
       </c>
       <c r="I163" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15">
@@ -6064,28 +6070,28 @@
         <v>217</v>
       </c>
       <c r="B164" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C164" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E164" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F164" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G164" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H164" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I164" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15">
@@ -6093,28 +6099,28 @@
         <v>217</v>
       </c>
       <c r="B165" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C165" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D165" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="E165" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="H165" t="s">
         <v>18</v>
       </c>
       <c r="I165" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15">
@@ -6122,28 +6128,28 @@
         <v>217</v>
       </c>
       <c r="B166" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C166" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D166" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E166" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H166" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I166" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15">
@@ -6151,13 +6157,13 @@
         <v>217</v>
       </c>
       <c r="B167" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C167" t="s">
         <v>183</v>
       </c>
       <c r="D167" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E167" t="s">
         <v>57</v>
@@ -6180,22 +6186,22 @@
         <v>217</v>
       </c>
       <c r="B168" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D168" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="E168" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F168" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="G168" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="H168" t="s">
         <v>18</v>
@@ -6209,28 +6215,28 @@
         <v>217</v>
       </c>
       <c r="B169" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="C169" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="D169" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="E169" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F169" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="H169" t="s">
         <v>18</v>
       </c>
       <c r="I169" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15">
@@ -6238,28 +6244,28 @@
         <v>217</v>
       </c>
       <c r="B170" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="C170" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D170" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="E170" t="s">
         <v>15</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="H170" t="s">
         <v>18</v>
       </c>
       <c r="I170" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15">
@@ -6267,28 +6273,28 @@
         <v>217</v>
       </c>
       <c r="B171" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="C171" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="D171" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F171" t="s">
         <v>52</v>
       </c>
       <c r="G171" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="H171" t="s">
         <v>18</v>
       </c>
       <c r="I171" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15">
@@ -6296,22 +6302,22 @@
         <v>217</v>
       </c>
       <c r="B172" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="C172" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D172" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E172" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F172" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="H172" t="s">
         <v>18</v>
@@ -6325,28 +6331,28 @@
         <v>217</v>
       </c>
       <c r="B173" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C173" t="s">
         <v>56</v>
       </c>
       <c r="D173" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E173" t="s">
         <v>68</v>
       </c>
       <c r="F173" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G173" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="H173" t="s">
         <v>18</v>
       </c>
       <c r="I173" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15">
@@ -6354,22 +6360,22 @@
         <v>217</v>
       </c>
       <c r="B174" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C174" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="D174" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="F174" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="G174" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H174" t="s">
         <v>18</v>
@@ -6383,28 +6389,28 @@
         <v>217</v>
       </c>
       <c r="B175" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C175" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="D175" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="E175" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F175" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G175" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="H175" t="s">
         <v>18</v>
       </c>
       <c r="I175" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15">
@@ -6412,231 +6418,28 @@
         <v>217</v>
       </c>
       <c r="B176" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C176" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="D176" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E176" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="F176" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G176" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H176" t="s">
         <v>18</v>
       </c>
       <c r="I176" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="15">
-      <c r="A177" t="s">
-        <v>217</v>
-      </c>
-      <c r="B177" t="s">
-        <v>154</v>
-      </c>
-      <c r="C177" t="s">
-        <v>166</v>
-      </c>
-      <c r="D177" t="s">
-        <v>104</v>
-      </c>
-      <c r="E177" t="s">
-        <v>134</v>
-      </c>
-      <c r="F177" t="s">
-        <v>23</v>
-      </c>
-      <c r="G177" t="s">
-        <v>94</v>
-      </c>
-      <c r="H177" t="s">
-        <v>18</v>
-      </c>
-      <c r="I177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="15">
-      <c r="A178" t="s">
-        <v>217</v>
-      </c>
-      <c r="B178" t="s">
-        <v>154</v>
-      </c>
-      <c r="C178" t="s">
-        <v>183</v>
-      </c>
-      <c r="D178" t="s">
-        <v>232</v>
-      </c>
-      <c r="E178" t="s">
-        <v>15</v>
-      </c>
-      <c r="F178" t="s">
-        <v>35</v>
-      </c>
-      <c r="G178" t="s">
-        <v>233</v>
-      </c>
-      <c r="H178" t="s">
-        <v>18</v>
-      </c>
-      <c r="I178" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="15">
-      <c r="A179" t="s">
-        <v>217</v>
-      </c>
-      <c r="B179" t="s">
-        <v>154</v>
-      </c>
-      <c r="C179" t="s">
-        <v>183</v>
-      </c>
-      <c r="D179" t="s">
-        <v>234</v>
-      </c>
-      <c r="E179" t="s">
-        <v>15</v>
-      </c>
-      <c r="F179" t="s">
-        <v>35</v>
-      </c>
-      <c r="G179" t="s">
-        <v>233</v>
-      </c>
-      <c r="H179" t="s">
-        <v>18</v>
-      </c>
-      <c r="I179" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="15">
-      <c r="A180" t="s">
-        <v>217</v>
-      </c>
-      <c r="B180" t="s">
-        <v>154</v>
-      </c>
-      <c r="C180" t="s">
-        <v>235</v>
-      </c>
-      <c r="D180" t="s">
-        <v>236</v>
-      </c>
-      <c r="E180" t="s">
-        <v>32</v>
-      </c>
-      <c r="F180" t="s">
-        <v>52</v>
-      </c>
-      <c r="G180" t="s">
-        <v>151</v>
-      </c>
-      <c r="H180" t="s">
-        <v>18</v>
-      </c>
-      <c r="I180" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="15">
-      <c r="A181" t="s">
-        <v>217</v>
-      </c>
-      <c r="B181" t="s">
-        <v>154</v>
-      </c>
-      <c r="C181" t="s">
-        <v>187</v>
-      </c>
-      <c r="D181" t="s">
-        <v>188</v>
-      </c>
-      <c r="E181" t="s">
-        <v>132</v>
-      </c>
-      <c r="F181" t="s">
-        <v>33</v>
-      </c>
-      <c r="G181" t="s">
-        <v>133</v>
-      </c>
-      <c r="H181" t="s">
-        <v>18</v>
-      </c>
-      <c r="I181" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="15">
-      <c r="A182" t="s">
-        <v>217</v>
-      </c>
-      <c r="B182" t="s">
-        <v>157</v>
-      </c>
-      <c r="C182" t="s">
-        <v>56</v>
-      </c>
-      <c r="D182" t="s">
-        <v>231</v>
-      </c>
-      <c r="E182" t="s">
-        <v>68</v>
-      </c>
-      <c r="F182" t="s">
-        <v>228</v>
-      </c>
-      <c r="G182" t="s">
-        <v>19</v>
-      </c>
-      <c r="H182" t="s">
-        <v>18</v>
-      </c>
-      <c r="I182" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="15">
-      <c r="A183" t="s">
-        <v>217</v>
-      </c>
-      <c r="B183" t="s">
-        <v>157</v>
-      </c>
-      <c r="C183" t="s">
-        <v>235</v>
-      </c>
-      <c r="D183" t="s">
-        <v>236</v>
-      </c>
-      <c r="E183" t="s">
-        <v>32</v>
-      </c>
-      <c r="F183" t="s">
-        <v>52</v>
-      </c>
-      <c r="G183" t="s">
-        <v>151</v>
-      </c>
-      <c r="H183" t="s">
-        <v>18</v>
-      </c>
-      <c r="I183" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6647,7 +6450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e6b5f8ea-59e1-49c9-9bd4-d8cc90e6ed5f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{6132a387-aa93-4347-b648-4e5a0a47d4b5}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -6670,16 +6473,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -6699,16 +6502,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -6728,16 +6531,16 @@
         <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -6757,13 +6560,13 @@
         <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -6786,16 +6589,16 @@
         <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -6815,16 +6618,16 @@
         <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -6844,13 +6647,13 @@
         <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -6876,7 +6679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{c6fe6681-ba56-444e-bacb-b63e2c628aac}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{204247d1-c5bd-4a49-b2bb-32a6b1cc9ccb}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -6896,13 +6699,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -6916,13 +6719,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -6936,13 +6739,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
@@ -6956,16 +6759,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -6976,16 +6779,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -6996,13 +6799,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
         <v>166</v>
@@ -7016,13 +6819,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
         <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
         <v>73</v>
@@ -7036,13 +6839,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E8" t="s">
         <v>233</v>
@@ -7056,13 +6859,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -7076,13 +6879,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
         <v>233</v>
@@ -7096,13 +6899,13 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -7116,13 +6919,13 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
         <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E12" t="s">
         <v>214</v>
@@ -7136,16 +6939,16 @@
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
         <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -7156,13 +6959,13 @@
         <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E14" t="s">
         <v>214</v>
@@ -7176,13 +6979,13 @@
         <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
         <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -7196,16 +6999,16 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C16" t="s">
         <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -7216,13 +7019,13 @@
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E17" t="s">
         <v>122</v>
@@ -7236,13 +7039,13 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
         <v>212</v>
@@ -7256,13 +7059,13 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -7276,13 +7079,13 @@
         <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
         <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
@@ -7296,13 +7099,13 @@
         <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -7316,13 +7119,13 @@
         <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -7336,13 +7139,13 @@
         <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C23" t="s">
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -7356,13 +7159,13 @@
         <v>192</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E24" t="s">
         <v>133</v>
@@ -7376,13 +7179,13 @@
         <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E25" t="s">
         <v>78</v>
@@ -7396,16 +7199,16 @@
         <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -7416,13 +7219,13 @@
         <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E27" t="s">
         <v>59</v>
@@ -7436,13 +7239,13 @@
         <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
         <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E28" t="s">
         <v>98</v>
@@ -7456,13 +7259,13 @@
         <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
         <v>183</v>
       </c>
       <c r="D29" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E29" t="s">
         <v>73</v>
@@ -7476,13 +7279,13 @@
         <v>217</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -7496,16 +7299,16 @@
         <v>217</v>
       </c>
       <c r="B31" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
         <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -7516,13 +7319,13 @@
         <v>217</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
         <v>183</v>
       </c>
       <c r="D32" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E32" t="s">
         <v>166</v>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -9,16 +9,18 @@
   <sheets>
     <sheet name="Opis parametrów" sheetId="2" r:id="rId2"/>
     <sheet name="Oddziały" sheetId="3" r:id="rId3"/>
+    <sheet name="Dyżury" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Oddziały!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dyżury!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="98">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -137,16 +139,181 @@
     <t>Technologie produkcji cukierniczej</t>
   </si>
   <si>
+    <t>17.02.2026</t>
+  </si>
+  <si>
+    <t>Antoszewska Joanna</t>
+  </si>
+  <si>
+    <t>3FA|dz1</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>sg2</t>
+  </si>
+  <si>
+    <t>Nestoruk Lidia</t>
+  </si>
+  <si>
+    <t>Świerzewicz Katarzyna</t>
+  </si>
+  <si>
+    <t>3K</t>
+  </si>
+  <si>
+    <t>Technologia gastronomiczna z towaroznawstwem</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Mocarski Arkadiusz</t>
+  </si>
+  <si>
+    <t>Zajęcia z wychowawcą</t>
+  </si>
+  <si>
+    <t>2WA</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Pietrycha Małgorzata</t>
+  </si>
+  <si>
+    <t>Technika w produkcji gastronomicznej</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3FB|DZ</t>
+  </si>
+  <si>
+    <t>sg4</t>
+  </si>
+  <si>
+    <t>Dalach Sławomir</t>
+  </si>
+  <si>
+    <t>7, 13:15-14:00</t>
+  </si>
+  <si>
+    <t>8, 14:05-14:50</t>
+  </si>
+  <si>
+    <t>18.02.2026</t>
+  </si>
+  <si>
+    <t>2CA|DZ</t>
+  </si>
+  <si>
+    <t>2WA|CH</t>
+  </si>
+  <si>
+    <t>Język niemiecki</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Misiąg Anna</t>
+  </si>
+  <si>
+    <t>Dalach Krystyna</t>
+  </si>
+  <si>
     <t>19.02.2026</t>
   </si>
   <si>
+    <t>5TF</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>2CA</t>
   </si>
   <si>
+    <t>4TFB|dz2</t>
+  </si>
+  <si>
     <t>20.02.2026</t>
   </si>
   <si>
+    <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>Rozwój kompetencji zawodowych - Zasady zdrowego żywienia</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2TH|DZ</t>
+  </si>
+  <si>
+    <t>2TFB|DZ</t>
+  </si>
+  <si>
     <t>1CA</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1CB|JA2</t>
+  </si>
+  <si>
+    <t>Godzina</t>
+  </si>
+  <si>
+    <t>Nauczyciel</t>
+  </si>
+  <si>
+    <t>Miejsce dyżuru</t>
+  </si>
+  <si>
+    <t>08:45-08:50</t>
+  </si>
+  <si>
+    <t>boisko - dziedziniec wejściowy/boisko</t>
+  </si>
+  <si>
+    <t>09:35-09:40</t>
+  </si>
+  <si>
+    <t>Fiodorów Małgorzata</t>
+  </si>
+  <si>
+    <t>11:20-11:25</t>
+  </si>
+  <si>
+    <t>Kopij Marcin</t>
+  </si>
+  <si>
+    <t>07:55-08:00</t>
+  </si>
+  <si>
+    <t>piętro_3</t>
+  </si>
+  <si>
+    <t>piętro_2</t>
+  </si>
+  <si>
+    <t>12:10-12:25</t>
   </si>
 </sst>
 </file>
@@ -596,7 +763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{43297f37-ac9c-4880-ba12-15e4ffb80a3c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{d85ce4ca-cf6e-4b67-92b9-f3bb74f8ef47}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -620,8 +787,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{76d377ae-7421-47ae-b4d0-fd40178bd7a5}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b767230e-0cf4-4ff3-9144-98f8597e8a25}">
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -629,9 +796,9 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="13.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="31.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="56.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
     <col min="7" max="7" width="27.7142857142857" customWidth="1"/>
     <col min="8" max="8" width="9.28571428571429" customWidth="1"/>
@@ -875,28 +1042,28 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -907,25 +1074,25 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -936,25 +1103,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
@@ -962,28 +1129,28 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -991,28 +1158,28 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -1020,144 +1187,1333 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F29" t="s">
         <v>16</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
         <v>19</v>
       </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="15">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1165,4 +2521,187 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{9c20e858-3a88-4247-a2fd-d5c50d0b0441}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="35.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>
--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -9,18 +9,20 @@
   <sheets>
     <sheet name="Opis parametrów" sheetId="2" r:id="rId2"/>
     <sheet name="Oddziały" sheetId="3" r:id="rId3"/>
-    <sheet name="Dyżury" sheetId="4" r:id="rId4"/>
+    <sheet name="Dzienniki zajeć innych" sheetId="4" r:id="rId4"/>
+    <sheet name="Dyżury" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Oddziały!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dyżury!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dzienniki zajeć innych'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dyżury!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="139">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -208,9 +210,33 @@
     <t>18.02.2026</t>
   </si>
   <si>
+    <t>Biezmienow Małgorzata</t>
+  </si>
+  <si>
+    <t>2K|JA2</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>2CA|DZ</t>
   </si>
   <si>
+    <t>5TF</t>
+  </si>
+  <si>
+    <t>Zastępstwo</t>
+  </si>
+  <si>
+    <t>lekcja przeniesiona, zajęcia z wychowawcą za lekcję 1</t>
+  </si>
+  <si>
+    <t>2FB</t>
+  </si>
+  <si>
+    <t>Granatowska Mariola</t>
+  </si>
+  <si>
     <t>2WA|CH</t>
   </si>
   <si>
@@ -223,28 +249,106 @@
     <t>Misiąg Anna</t>
   </si>
   <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>Edukacja obywatelska</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Kopij Marcin</t>
+  </si>
+  <si>
     <t>Dalach Krystyna</t>
   </si>
   <si>
+    <t>2CA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Filipek Anna</t>
+  </si>
+  <si>
+    <t>3TFB|JA1</t>
+  </si>
+  <si>
+    <t>Uczniowie zwolnieni do domu</t>
+  </si>
+  <si>
     <t>19.02.2026</t>
   </si>
   <si>
-    <t>5TF</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>2CA</t>
+    <t>Najwer Maciej</t>
+  </si>
+  <si>
+    <t>2TFA|JA1</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>konferencja o AI dla jednostek samorządu (bez opieki nad uczniami)</t>
+  </si>
+  <si>
+    <t>1TFB|JA1</t>
+  </si>
+  <si>
+    <t>Zajęcia biblioteczne</t>
+  </si>
+  <si>
+    <t>bib</t>
+  </si>
+  <si>
+    <t>Zając Ewa</t>
+  </si>
+  <si>
+    <t>3FB</t>
   </si>
   <si>
     <t>4TFB|dz2</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Staliś Donata</t>
+  </si>
+  <si>
+    <t>2FA</t>
+  </si>
+  <si>
+    <t>Rozwój kompetencji zawodowych - barber</t>
+  </si>
+  <si>
+    <t>prF3</t>
+  </si>
+  <si>
+    <t>Sobczak Anna</t>
+  </si>
+  <si>
+    <t>2TH</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>1TFA|JA1</t>
+  </si>
+  <si>
+    <t>Nowak Damiana</t>
+  </si>
+  <si>
     <t>20.02.2026</t>
   </si>
   <si>
-    <t>Rozwój kompetencji zawodowych - dekoracje w cukiernictwie</t>
+    <t>34</t>
   </si>
   <si>
     <t>2K</t>
@@ -253,9 +357,6 @@
     <t>Rozwój kompetencji zawodowych - Zasady zdrowego żywienia</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>2TH|DZ</t>
   </si>
   <si>
@@ -265,15 +366,15 @@
     <t>1CA</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
     <t>1K</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>1CB|JA2</t>
   </si>
   <si>
@@ -283,6 +384,21 @@
     <t>Nauczyciel</t>
   </si>
   <si>
+    <t>Dziennik zajęć innych</t>
+  </si>
+  <si>
+    <t>Opis zajęć</t>
+  </si>
+  <si>
+    <t>18:00-19:30</t>
+  </si>
+  <si>
+    <t>Zofia Nykiel  - 5 TFB - indywidualne nauczanie</t>
+  </si>
+  <si>
+    <t>język angielski 2 godziny lekcyjne</t>
+  </si>
+  <si>
     <t>Miejsce dyżuru</t>
   </si>
   <si>
@@ -301,7 +417,16 @@
     <t>11:20-11:25</t>
   </si>
   <si>
-    <t>Kopij Marcin</t>
+    <t>piętro_2</t>
+  </si>
+  <si>
+    <t>14:00-14:05</t>
+  </si>
+  <si>
+    <t>piętro_1</t>
+  </si>
+  <si>
+    <t>Zaleska Magdalena</t>
   </si>
   <si>
     <t>07:55-08:00</t>
@@ -310,7 +435,7 @@
     <t>piętro_3</t>
   </si>
   <si>
-    <t>piętro_2</t>
+    <t>10:25-10:35</t>
   </si>
   <si>
     <t>12:10-12:25</t>
@@ -763,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{d85ce4ca-cf6e-4b67-92b9-f3bb74f8ef47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{39b10f6c-f23f-4026-866a-24b360b2d413}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -787,8 +912,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{b767230e-0cf4-4ff3-9144-98f8597e8a25}">
-  <dimension ref="A1:I59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5318b69e-cc6f-449e-8f06-83f5cf622cc4}">
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -796,12 +921,12 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="13.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="56.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
-    <col min="7" max="7" width="27.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="9.28571428571429" customWidth="1"/>
+    <col min="7" max="7" width="27.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="61.1428571428571" customWidth="1"/>
     <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1361,28 +1486,28 @@
         <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -1390,13 +1515,13 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>42</v>
@@ -1419,13 +1544,13 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>42</v>
@@ -1448,28 +1573,28 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
         <v>64</v>
       </c>
-      <c r="F23" t="s">
-        <v>65</v>
-      </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15">
@@ -1477,13 +1602,13 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
         <v>42</v>
@@ -1492,7 +1617,7 @@
         <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
         <v>18</v>
@@ -1506,22 +1631,22 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
@@ -1532,25 +1657,25 @@
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>
@@ -1561,51 +1686,51 @@
     </row>
     <row r="27" spans="1:9" ht="15">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -1619,54 +1744,54 @@
     </row>
     <row r="29" spans="1:9" ht="15">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
         <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -1677,25 +1802,25 @@
     </row>
     <row r="31" spans="1:9" ht="15">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -1706,54 +1831,54 @@
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
         <v>18</v>
@@ -1764,80 +1889,80 @@
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
         <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
         <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
         <v>53</v>
@@ -1846,53 +1971,53 @@
         <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s">
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -1909,51 +2034,51 @@
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s">
         <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -1967,51 +2092,51 @@
     </row>
     <row r="41" spans="1:9" ht="15">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
         <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
         <v>53</v>
@@ -2020,30 +2145,30 @@
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="H43" t="s">
         <v>18</v>
@@ -2054,10 +2179,10 @@
     </row>
     <row r="44" spans="1:9" ht="15">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2069,7 +2194,7 @@
         <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
@@ -2083,54 +2208,54 @@
     </row>
     <row r="45" spans="1:9" ht="15">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
@@ -2141,28 +2266,28 @@
     </row>
     <row r="47" spans="1:9" ht="15">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s">
         <v>28</v>
@@ -2170,10 +2295,10 @@
     </row>
     <row r="48" spans="1:9" ht="15">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2182,10 +2307,10 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -2199,54 +2324,54 @@
     </row>
     <row r="49" spans="1:9" ht="15">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -2257,28 +2382,28 @@
     </row>
     <row r="51" spans="1:9" ht="15">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s">
         <v>28</v>
@@ -2286,10 +2411,10 @@
     </row>
     <row r="52" spans="1:9" ht="15">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -2301,7 +2426,7 @@
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -2315,25 +2440,25 @@
     </row>
     <row r="53" spans="1:9" ht="15">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
         <v>18</v>
@@ -2344,25 +2469,25 @@
     </row>
     <row r="54" spans="1:9" ht="15">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
@@ -2373,74 +2498,74 @@
     </row>
     <row r="55" spans="1:9" ht="15">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
         <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>42</v>
@@ -2455,27 +2580,27 @@
         <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
@@ -2489,30 +2614,552 @@
     </row>
     <row r="59" spans="1:9" ht="15">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" t="s">
+        <v>115</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
         <v>60</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C77" t="s">
         <v>40</v>
       </c>
-      <c r="D59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" t="s">
         <v>42</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F77" t="s">
         <v>57</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G77" t="s">
         <v>53</v>
       </c>
-      <c r="H59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2524,8 +3171,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{9c20e858-3a88-4247-a2fd-d5c50d0b0441}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ba3f59cd-009c-4371-9d94-391df7441100}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -2533,7 +3180,91 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="41.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="30.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
+    <col min="7" max="7" width="11.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="9.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="56.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{8c6fe4d4-0156-45c0-9487-4e245bdeccc9}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="35.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
@@ -2544,13 +3275,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -2564,13 +3295,13 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -2584,16 +3315,16 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -2604,16 +3335,16 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -2621,19 +3352,19 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -2641,19 +3372,19 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -2661,16 +3392,16 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -2681,21 +3412,101 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
     </row>

--- a/zastepstwa.xlsx
+++ b/zastepstwa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="180">
   <si>
     <t>Rok szkolny: 2025/2026</t>
   </si>
@@ -285,6 +285,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>4TFB|JA2</t>
+  </si>
+  <si>
     <t>Najwer Maciej</t>
   </si>
   <si>
@@ -309,9 +312,18 @@
     <t>Zając Ewa</t>
   </si>
   <si>
+    <t>1TH|JA1</t>
+  </si>
+  <si>
     <t>3FB</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Fiodorów Małgorzata</t>
+  </si>
+  <si>
     <t>4TFB|dz2</t>
   </si>
   <si>
@@ -321,6 +333,9 @@
     <t>Staliś Donata</t>
   </si>
   <si>
+    <t>3TH|JA1</t>
+  </si>
+  <si>
     <t>2FA</t>
   </si>
   <si>
@@ -333,18 +348,111 @@
     <t>Sobczak Anna</t>
   </si>
   <si>
+    <t>1TFA|JA1</t>
+  </si>
+  <si>
+    <t>Wójcik Kamil</t>
+  </si>
+  <si>
     <t>2TH</t>
   </si>
   <si>
+    <t>Biznes i zarządzanie</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Socha Dariusz</t>
+  </si>
+  <si>
+    <t>Smirnow-Zechman Eleonora</t>
+  </si>
+  <si>
+    <t>2TFB</t>
+  </si>
+  <si>
+    <t>Techniki fryzjerskie</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Krzemińska Beata</t>
+  </si>
+  <si>
+    <t>Pracownia sprzedaży</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
-    <t>1TFA|JA1</t>
+    <t>1TFB|JA2</t>
   </si>
   <si>
     <t>Nowak Damiana</t>
   </si>
   <si>
+    <t>1TH</t>
+  </si>
+  <si>
+    <t>Danielewski Paweł</t>
+  </si>
+  <si>
+    <t>1WB|JN2</t>
+  </si>
+  <si>
+    <t>Ostrowska Ewa</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Rada Pedagogiczna w SP4</t>
+  </si>
+  <si>
+    <t>1CB</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Kosin Anna</t>
+  </si>
+  <si>
+    <t>9, 14:55-15:40</t>
+  </si>
+  <si>
+    <t>1FA</t>
+  </si>
+  <si>
+    <t>1FC</t>
+  </si>
+  <si>
+    <t>10, 15:45-16:30</t>
+  </si>
+  <si>
+    <t>11, 16:35-17:20</t>
+  </si>
+  <si>
+    <t>12, 17:25-18:10</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
     <t>20.02.2026</t>
   </si>
   <si>
@@ -366,18 +474,12 @@
     <t>1CA</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
     <t>1CB|JA2</t>
   </si>
   <si>
+    <t>Jastrzębska-Majtyka Agnieszka</t>
+  </si>
+  <si>
     <t>Godzina</t>
   </si>
   <si>
@@ -411,9 +513,6 @@
     <t>09:35-09:40</t>
   </si>
   <si>
-    <t>Fiodorów Małgorzata</t>
-  </si>
-  <si>
     <t>11:20-11:25</t>
   </si>
   <si>
@@ -429,6 +528,27 @@
     <t>Zaleska Magdalena</t>
   </si>
   <si>
+    <t>Piątek-Pawłowska Bożena</t>
+  </si>
+  <si>
+    <t>13:10-13:15</t>
+  </si>
+  <si>
+    <t>Derezińska Katarzyna</t>
+  </si>
+  <si>
+    <t>17:20-17:25</t>
+  </si>
+  <si>
+    <t>parter</t>
+  </si>
+  <si>
+    <t>Nowaczyk Agnieszka</t>
+  </si>
+  <si>
+    <t>18:10-18:15</t>
+  </si>
+  <si>
     <t>07:55-08:00</t>
   </si>
   <si>
@@ -436,6 +556,9 @@
   </si>
   <si>
     <t>10:25-10:35</t>
+  </si>
+  <si>
+    <t>Małecka Barbara</t>
   </si>
   <si>
     <t>12:10-12:25</t>
@@ -888,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{39b10f6c-f23f-4026-866a-24b360b2d413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{331e98f9-cd60-41e7-b98b-cec92a849a20}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -912,20 +1035,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5318b69e-cc6f-449e-8f06-83f5cf622cc4}">
-  <dimension ref="A1:I77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{2107e708-ee7b-4ee1-88b1-7e18fa97ff9b}">
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="14.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="26.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="56.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="7.42857142857143" customWidth="1"/>
-    <col min="7" max="7" width="27.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="28.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="61.1428571428571" customWidth="1"/>
     <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
@@ -1895,22 +2018,22 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
         <v>87</v>
       </c>
-      <c r="D34" t="s">
-        <v>88</v>
-      </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
         <v>19</v>
@@ -1924,22 +2047,22 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
@@ -1950,22 +2073,22 @@
         <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s">
         <v>18</v>
@@ -1982,25 +2105,25 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s">
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15">
@@ -2011,25 +2134,25 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="H38" t="s">
         <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15">
@@ -2037,28 +2160,28 @@
         <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
         <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15">
@@ -2066,28 +2189,28 @@
         <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
         <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15">
@@ -2098,19 +2221,19 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
@@ -2124,28 +2247,28 @@
         <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15">
@@ -2153,22 +2276,22 @@
         <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
         <v>18</v>
@@ -2182,7 +2305,7 @@
         <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2211,13 +2334,13 @@
         <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
         <v>42</v>
@@ -2240,16 +2363,16 @@
         <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s">
         <v>101</v>
@@ -2261,7 +2384,7 @@
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15">
@@ -2269,25 +2392,25 @@
         <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
         <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
         <v>28</v>
@@ -2298,7 +2421,7 @@
         <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2307,7 +2430,7 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
         <v>55</v>
@@ -2327,13 +2450,13 @@
         <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
         <v>42</v>
@@ -2356,22 +2479,22 @@
         <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -2385,54 +2508,54 @@
         <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s">
         <v>26</v>
@@ -2440,39 +2563,39 @@
     </row>
     <row r="53" spans="1:9" ht="15">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
         <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2484,7 +2607,7 @@
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -2498,54 +2621,54 @@
     </row>
     <row r="55" spans="1:9" ht="15">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="G56" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
@@ -2556,141 +2679,141 @@
     </row>
     <row r="57" spans="1:9" ht="15">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s">
         <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s">
         <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F60" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" t="s">
         <v>111</v>
       </c>
-      <c r="E61" t="s">
-        <v>42</v>
-      </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="G61" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="H61" t="s">
         <v>18</v>
@@ -2701,25 +2824,25 @@
     </row>
     <row r="62" spans="1:9" ht="15">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="H62" t="s">
         <v>18</v>
@@ -2730,28 +2853,28 @@
     </row>
     <row r="63" spans="1:9" ht="15">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I63" t="s">
         <v>19</v>
@@ -2759,25 +2882,25 @@
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="H64" t="s">
         <v>18</v>
@@ -2788,28 +2911,28 @@
     </row>
     <row r="65" spans="1:9" ht="15">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I65" t="s">
         <v>19</v>
@@ -2817,57 +2940,57 @@
     </row>
     <row r="66" spans="1:9" ht="15">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
         <v>111</v>
       </c>
-      <c r="E66" t="s">
-        <v>42</v>
-      </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="G66" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s">
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
@@ -2875,54 +2998,54 @@
     </row>
     <row r="68" spans="1:9" ht="15">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F68" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s">
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s">
         <v>18</v>
@@ -2933,141 +3056,141 @@
     </row>
     <row r="70" spans="1:9" ht="15">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" t="s">
         <v>117</v>
       </c>
-      <c r="E70" t="s">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s">
-        <v>57</v>
-      </c>
       <c r="G70" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s">
         <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
         <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
         <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s">
         <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="F74" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s">
         <v>18</v>
@@ -3078,88 +3201,639 @@
     </row>
     <row r="75" spans="1:9" ht="15">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H75" t="s">
         <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H76" t="s">
         <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" t="s">
+        <v>134</v>
+      </c>
+      <c r="G79" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15">
+      <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15">
+      <c r="A82" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s">
+        <v>82</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15">
+      <c r="A83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15">
+      <c r="A84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" t="s">
+        <v>134</v>
+      </c>
+      <c r="G84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15">
+      <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15">
+      <c r="A86" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" t="s">
+        <v>53</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15">
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15">
+      <c r="A88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" t="s">
+        <v>49</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15">
+      <c r="A89" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15">
+      <c r="A90" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" t="s">
+        <v>64</v>
+      </c>
+      <c r="G90" t="s">
+        <v>118</v>
+      </c>
+      <c r="H90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15">
+      <c r="A91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>144</v>
+      </c>
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15">
+      <c r="A92" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" t="s">
+        <v>94</v>
+      </c>
+      <c r="G92" t="s">
+        <v>95</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15">
+      <c r="A93" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" t="s">
+        <v>53</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15">
+      <c r="A94" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" t="s">
+        <v>80</v>
+      </c>
+      <c r="E94" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" t="s">
+        <v>84</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15">
+      <c r="A95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" t="s">
+        <v>50</v>
+      </c>
+      <c r="F95" t="s">
+        <v>134</v>
+      </c>
+      <c r="G95" t="s">
+        <v>151</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15">
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" t="s">
         <v>60</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C96" t="s">
         <v>40</v>
       </c>
-      <c r="D77" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D96" t="s">
+        <v>150</v>
+      </c>
+      <c r="E96" t="s">
         <v>42</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F96" t="s">
         <v>57</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G96" t="s">
         <v>53</v>
       </c>
-      <c r="H77" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3171,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ba3f59cd-009c-4371-9d94-391df7441100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{15630c25-5c19-4932-b180-d6a1d384d42f}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -3194,16 +3868,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -3223,16 +3897,16 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -3255,8 +3929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{8c6fe4d4-0156-45c0-9487-4e245bdeccc9}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{de367c59-cfed-4db7-9933-bfb70fe72043}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -3264,9 +3938,9 @@
   <cols>
     <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="26.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="35.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="24.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3275,13 +3949,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -3295,13 +3969,13 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -3315,16 +3989,16 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -3335,13 +4009,13 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
         <v>78</v>
@@ -3355,13 +4029,13 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -3375,16 +4049,16 @@
         <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -3395,16 +4069,16 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -3412,19 +4086,19 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -3432,19 +4106,19 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -3452,19 +4126,19 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -3472,19 +4146,19 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -3492,21 +4166,81 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
         <v>18</v>
       </c>
     </row>
